--- a/JupyterNotebooks/AvgHW/Gamma2F-HW20.xlsx
+++ b/JupyterNotebooks/AvgHW/Gamma2F-HW20.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
   <si>
     <t>HKL</t>
   </si>
@@ -58,6 +58,18 @@
     <t>OffsetATD</t>
   </si>
   <si>
+    <t>Holden2.5</t>
+  </si>
+  <si>
+    <t>Holden5</t>
+  </si>
+  <si>
+    <t>Holden10</t>
+  </si>
+  <si>
+    <t>Holden15</t>
+  </si>
+  <si>
     <t>HexGrid-90degTilt2.5degRes</t>
   </si>
   <si>
@@ -70,28 +82,28 @@
     <t>HexGrid-90degTilt15degRes</t>
   </si>
   <si>
+    <t>[2, 0, 0]</t>
+  </si>
+  <si>
+    <t>[2, 2, 0]</t>
+  </si>
+  <si>
+    <t>[4, 0, 0]</t>
+  </si>
+  <si>
+    <t>[2, 1, 1]</t>
+  </si>
+  <si>
+    <t>[3, 2, 1]</t>
+  </si>
+  <si>
+    <t>[3, 1, 0]</t>
+  </si>
+  <si>
+    <t>[2, 2, 2]</t>
+  </si>
+  <si>
     <t>[1, 1, 0]</t>
-  </si>
-  <si>
-    <t>[2, 0, 0]</t>
-  </si>
-  <si>
-    <t>[2, 1, 1]</t>
-  </si>
-  <si>
-    <t>[2, 2, 0]</t>
-  </si>
-  <si>
-    <t>[2, 2, 2]</t>
-  </si>
-  <si>
-    <t>[3, 1, 0]</t>
-  </si>
-  <si>
-    <t>[3, 2, 1]</t>
-  </si>
-  <si>
-    <t>[4, 0, 0]</t>
   </si>
   <si>
     <t>1Pair-A</t>
@@ -479,13 +491,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AD19"/>
+  <dimension ref="A1:T23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:30">
+    <row r="1" spans="1:20">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -543,38 +555,8 @@
       <c r="T1" s="1">
         <v>18</v>
       </c>
-      <c r="U1" s="1">
-        <v>19</v>
-      </c>
-      <c r="V1" s="1">
-        <v>20</v>
-      </c>
-      <c r="W1" s="1">
-        <v>21</v>
-      </c>
-      <c r="X1" s="1">
-        <v>22</v>
-      </c>
-      <c r="Y1" s="1">
-        <v>23</v>
-      </c>
-      <c r="Z1" s="1">
-        <v>24</v>
-      </c>
-      <c r="AA1" s="1">
-        <v>25</v>
-      </c>
-      <c r="AB1" s="1">
-        <v>26</v>
-      </c>
-      <c r="AC1" s="1">
-        <v>27</v>
-      </c>
-      <c r="AD1" s="1">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="2" spans="1:30">
+    </row>
+    <row r="2" spans="1:20">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -582,91 +564,61 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="D2" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="E2" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="F2" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="G2" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="H2" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="I2" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="J2" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="K2" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="L2" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="M2" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="N2" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="O2" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="P2" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="Q2" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="R2" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="S2" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="T2" t="s">
-        <v>35</v>
-      </c>
-      <c r="U2" t="s">
-        <v>26</v>
-      </c>
-      <c r="V2" t="s">
-        <v>27</v>
-      </c>
-      <c r="W2" t="s">
-        <v>28</v>
-      </c>
-      <c r="X2" t="s">
-        <v>29</v>
-      </c>
-      <c r="Y2" t="s">
-        <v>30</v>
-      </c>
-      <c r="Z2" t="s">
-        <v>31</v>
-      </c>
-      <c r="AA2" t="s">
-        <v>32</v>
-      </c>
-      <c r="AB2" t="s">
-        <v>33</v>
-      </c>
-      <c r="AC2" t="s">
-        <v>34</v>
-      </c>
-      <c r="AD2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="3" spans="1:30">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -674,28 +626,28 @@
         <v>1</v>
       </c>
       <c r="C3">
+        <v>0.9720031081708702</v>
+      </c>
+      <c r="D3">
         <v>1.016437874047623</v>
       </c>
-      <c r="D3">
+      <c r="E3">
         <v>0.9720031081708702</v>
       </c>
-      <c r="E3">
+      <c r="F3">
         <v>1.002888157452474</v>
       </c>
-      <c r="F3">
-        <v>1.016437874047623</v>
-      </c>
       <c r="G3">
-        <v>1.005594705383918</v>
+        <v>1.006779131457558</v>
       </c>
       <c r="H3">
         <v>0.9857923036165754</v>
       </c>
       <c r="I3">
-        <v>1.006779131457558</v>
+        <v>1.005594705383918</v>
       </c>
       <c r="J3">
-        <v>0.9720031081708702</v>
+        <v>1.016437874047623</v>
       </c>
       <c r="K3">
         <v>1.016437874047623</v>
@@ -728,7 +680,7 @@
         <v>0.9982492133548365</v>
       </c>
     </row>
-    <row r="4" spans="1:30">
+    <row r="4" spans="1:20">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -736,28 +688,28 @@
         <v>2</v>
       </c>
       <c r="C4">
+        <v>0.9457527006719663</v>
+      </c>
+      <c r="D4">
         <v>1.031114741072964</v>
       </c>
-      <c r="D4">
+      <c r="E4">
         <v>0.9457527006719663</v>
       </c>
-      <c r="E4">
+      <c r="F4">
         <v>1.00578699439504</v>
       </c>
-      <c r="F4">
-        <v>1.031114741072964</v>
-      </c>
       <c r="G4">
-        <v>1.011263497789926</v>
+        <v>1.013059236181208</v>
       </c>
       <c r="H4">
         <v>0.9726800387696092</v>
       </c>
       <c r="I4">
-        <v>1.013059236181208</v>
+        <v>1.011263497789926</v>
       </c>
       <c r="J4">
-        <v>0.9457527006719663</v>
+        <v>1.031114741072964</v>
       </c>
       <c r="K4">
         <v>1.031114741072964</v>
@@ -790,7 +742,7 @@
         <v>0.9966095348134522</v>
       </c>
     </row>
-    <row r="5" spans="1:30">
+    <row r="5" spans="1:20">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -798,28 +750,28 @@
         <v>3</v>
       </c>
       <c r="C5">
+        <v>0.8971275109281531</v>
+      </c>
+      <c r="D5">
         <v>1.059158447679208</v>
       </c>
-      <c r="D5">
+      <c r="E5">
         <v>0.8971275109281531</v>
       </c>
-      <c r="E5">
+      <c r="F5">
         <v>1.011153006744633</v>
       </c>
-      <c r="F5">
-        <v>1.059158447679208</v>
-      </c>
       <c r="G5">
-        <v>1.022610082972924</v>
+        <v>1.024912779187615</v>
       </c>
       <c r="H5">
         <v>0.9475892021165139</v>
       </c>
       <c r="I5">
-        <v>1.024912779187615</v>
+        <v>1.022610082972924</v>
       </c>
       <c r="J5">
-        <v>0.8971275109281531</v>
+        <v>1.059158447679208</v>
       </c>
       <c r="K5">
         <v>1.059158447679208</v>
@@ -828,19 +780,19 @@
         <v>1.011153006744633</v>
       </c>
       <c r="M5">
-        <v>0.954140258836393</v>
+        <v>0.9541402588363929</v>
       </c>
       <c r="N5">
-        <v>0.954140258836393</v>
+        <v>0.9541402588363929</v>
       </c>
       <c r="O5">
-        <v>0.9519565732631</v>
+        <v>0.9519565732630998</v>
       </c>
       <c r="P5">
-        <v>0.989146321783998</v>
+        <v>0.9891463217839979</v>
       </c>
       <c r="Q5">
-        <v>0.989146321783998</v>
+        <v>0.9891463217839979</v>
       </c>
       <c r="R5">
         <v>1.0066493532578</v>
@@ -849,10 +801,10 @@
         <v>1.0066493532578</v>
       </c>
       <c r="T5">
-        <v>0.9937585049381745</v>
-      </c>
-    </row>
-    <row r="6" spans="1:30">
+        <v>0.9937585049381744</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -860,28 +812,28 @@
         <v>4</v>
       </c>
       <c r="C6">
+        <v>0.8508147611921976</v>
+      </c>
+      <c r="D6">
         <v>1.086718002644873</v>
       </c>
-      <c r="D6">
-        <v>0.8508147611921977</v>
-      </c>
       <c r="E6">
+        <v>0.8508147611921976</v>
+      </c>
+      <c r="F6">
         <v>1.017167747913226</v>
       </c>
-      <c r="F6">
-        <v>1.086718002644873</v>
-      </c>
       <c r="G6">
-        <v>1.032674632955802</v>
+        <v>1.03687161142859</v>
       </c>
       <c r="H6">
         <v>0.9223493486367558</v>
       </c>
       <c r="I6">
-        <v>1.03687161142859</v>
+        <v>1.032674632955802</v>
       </c>
       <c r="J6">
-        <v>0.8508147611921977</v>
+        <v>1.086718002644873</v>
       </c>
       <c r="K6">
         <v>1.086718002644873</v>
@@ -911,10 +863,10 @@
         <v>1.010354628598792</v>
       </c>
       <c r="T6">
-        <v>0.9910993507952407</v>
-      </c>
-    </row>
-    <row r="7" spans="1:30">
+        <v>0.9910993507952405</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -922,28 +874,28 @@
         <v>5</v>
       </c>
       <c r="C7">
+        <v>0.998829381678327</v>
+      </c>
+      <c r="D7">
         <v>0.9996624008123222</v>
       </c>
-      <c r="D7">
-        <v>0.9988293816783274</v>
-      </c>
       <c r="E7">
+        <v>0.998829381678327</v>
+      </c>
+      <c r="F7">
         <v>1.000628153296362</v>
       </c>
-      <c r="F7">
-        <v>0.9996624008123222</v>
-      </c>
       <c r="G7">
-        <v>1.002152533116369</v>
+        <v>1.000342026726209</v>
       </c>
       <c r="H7">
         <v>0.9990940457761878</v>
       </c>
       <c r="I7">
-        <v>1.000342026726209</v>
+        <v>1.002152533116368</v>
       </c>
       <c r="J7">
-        <v>0.9988293816783274</v>
+        <v>0.9996624008123222</v>
       </c>
       <c r="K7">
         <v>0.9996624008123222</v>
@@ -952,31 +904,31 @@
         <v>1.000628153296362</v>
       </c>
       <c r="M7">
-        <v>0.9997287674873447</v>
+        <v>0.9997287674873445</v>
       </c>
       <c r="N7">
-        <v>0.9997287674873447</v>
+        <v>0.9997287674873445</v>
       </c>
       <c r="O7">
-        <v>0.9995171935836257</v>
+        <v>0.9995171935836256</v>
       </c>
       <c r="P7">
-        <v>0.9997066452623372</v>
+        <v>0.9997066452623371</v>
       </c>
       <c r="Q7">
-        <v>0.9997066452623372</v>
+        <v>0.9997066452623371</v>
       </c>
       <c r="R7">
-        <v>0.9996955841498335</v>
+        <v>0.9996955841498334</v>
       </c>
       <c r="S7">
-        <v>0.9996955841498335</v>
+        <v>0.9996955841498334</v>
       </c>
       <c r="T7">
         <v>1.000118090234296</v>
       </c>
     </row>
-    <row r="8" spans="1:30">
+    <row r="8" spans="1:20">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -984,46 +936,46 @@
         <v>6</v>
       </c>
       <c r="C8">
-        <v>0.9991418896898306</v>
+        <v>0.9969494871539322</v>
       </c>
       <c r="D8">
-        <v>0.9969494871539326</v>
+        <v>0.9991418896898304</v>
       </c>
       <c r="E8">
+        <v>0.9969494871539322</v>
+      </c>
+      <c r="F8">
         <v>1.001626279777299</v>
       </c>
-      <c r="F8">
-        <v>0.9991418896898306</v>
-      </c>
       <c r="G8">
-        <v>1.00539915569161</v>
+        <v>1.000891536658972</v>
       </c>
       <c r="H8">
         <v>0.9976835347661708</v>
       </c>
       <c r="I8">
-        <v>1.000891536658972</v>
+        <v>1.00539915569161</v>
       </c>
       <c r="J8">
-        <v>0.9969494871539326</v>
+        <v>0.9991418896898304</v>
       </c>
       <c r="K8">
-        <v>0.9991418896898306</v>
+        <v>0.9991418896898304</v>
       </c>
       <c r="L8">
         <v>1.001626279777299</v>
       </c>
       <c r="M8">
-        <v>0.9992878834656158</v>
+        <v>0.9992878834656157</v>
       </c>
       <c r="N8">
-        <v>0.9992878834656158</v>
+        <v>0.9992878834656157</v>
       </c>
       <c r="O8">
         <v>0.9987531005658008</v>
       </c>
       <c r="P8">
-        <v>0.9992392188736874</v>
+        <v>0.9992392188736873</v>
       </c>
       <c r="Q8">
         <v>0.9992392188736874</v>
@@ -1038,7 +990,7 @@
         <v>1.000281980622969</v>
       </c>
     </row>
-    <row r="9" spans="1:30">
+    <row r="9" spans="1:20">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -1046,28 +998,28 @@
         <v>7</v>
       </c>
       <c r="C9">
+        <v>0.9956206053310602</v>
+      </c>
+      <c r="D9">
         <v>0.9988558075375989</v>
       </c>
-      <c r="D9">
+      <c r="E9">
         <v>0.9956206053310602</v>
       </c>
-      <c r="E9">
+      <c r="F9">
         <v>1.002310470306105</v>
       </c>
-      <c r="F9">
-        <v>0.9988558075375989</v>
-      </c>
       <c r="G9">
-        <v>1.007352277009889</v>
+        <v>1.001289075753985</v>
       </c>
       <c r="H9">
         <v>0.9967314232490541</v>
       </c>
       <c r="I9">
-        <v>1.001289075753985</v>
+        <v>1.007352277009889</v>
       </c>
       <c r="J9">
-        <v>0.9956206053310602</v>
+        <v>0.9988558075375989</v>
       </c>
       <c r="K9">
         <v>0.9988558075375989</v>
@@ -1088,19 +1040,19 @@
         <v>0.9989289610582547</v>
       </c>
       <c r="Q9">
-        <v>0.9989289610582549</v>
+        <v>0.9989289610582547</v>
       </c>
       <c r="R9">
-        <v>0.9989106726780909</v>
+        <v>0.9989106726780907</v>
       </c>
       <c r="S9">
-        <v>0.9989106726780909</v>
+        <v>0.9989106726780907</v>
       </c>
       <c r="T9">
         <v>1.000359943197949</v>
       </c>
     </row>
-    <row r="10" spans="1:30">
+    <row r="10" spans="1:20">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -1108,28 +1060,28 @@
         <v>8</v>
       </c>
       <c r="C10">
+        <v>0.9905725076192281</v>
+      </c>
+      <c r="D10">
         <v>0.9975520109962775</v>
       </c>
-      <c r="D10">
+      <c r="E10">
         <v>0.9905725076192281</v>
       </c>
-      <c r="E10">
+      <c r="F10">
         <v>1.004928111213012</v>
       </c>
-      <c r="F10">
-        <v>0.9975520109962775</v>
-      </c>
       <c r="G10">
-        <v>1.015964139790825</v>
+        <v>1.002744181601122</v>
       </c>
       <c r="H10">
         <v>0.9929805424734059</v>
       </c>
       <c r="I10">
-        <v>1.002744181601122</v>
+        <v>1.015964139790825</v>
       </c>
       <c r="J10">
-        <v>0.9905725076192281</v>
+        <v>0.9975520109962775</v>
       </c>
       <c r="K10">
         <v>0.9975520109962775</v>
@@ -1162,7 +1114,7 @@
         <v>1.000790248948978</v>
       </c>
     </row>
-    <row r="11" spans="1:30">
+    <row r="11" spans="1:20">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -1170,28 +1122,28 @@
         <v>9</v>
       </c>
       <c r="C11">
+        <v>0.9840227644181891</v>
+      </c>
+      <c r="D11">
         <v>0.9960069245339791</v>
       </c>
-      <c r="D11">
+      <c r="E11">
         <v>0.9840227644181891</v>
       </c>
-      <c r="E11">
+      <c r="F11">
         <v>1.00829658076475</v>
       </c>
-      <c r="F11">
-        <v>0.9960069245339791</v>
-      </c>
       <c r="G11">
-        <v>1.025978035058752</v>
+        <v>1.004659204783325</v>
       </c>
       <c r="H11">
         <v>0.9883050055416779</v>
       </c>
       <c r="I11">
-        <v>1.004659204783325</v>
+        <v>1.025978035058752</v>
       </c>
       <c r="J11">
-        <v>0.9840227644181891</v>
+        <v>0.9960069245339791</v>
       </c>
       <c r="K11">
         <v>0.9960069245339791</v>
@@ -1224,7 +1176,7 @@
         <v>1.001211419183446</v>
       </c>
     </row>
-    <row r="12" spans="1:30">
+    <row r="12" spans="1:20">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -1232,34 +1184,34 @@
         <v>10</v>
       </c>
       <c r="C12">
+        <v>1.080267262046445</v>
+      </c>
+      <c r="D12">
         <v>1.127527155118736</v>
       </c>
-      <c r="D12">
+      <c r="E12">
         <v>1.080267262046445</v>
       </c>
-      <c r="E12">
-        <v>0.8953116992207846</v>
-      </c>
       <c r="F12">
-        <v>1.127527155118736</v>
+        <v>0.8953116992207845</v>
       </c>
       <c r="G12">
-        <v>0.6737245874500605</v>
+        <v>0.9631473301201483</v>
       </c>
       <c r="H12">
         <v>1.102814188120078</v>
       </c>
       <c r="I12">
-        <v>0.9631473301201484</v>
+        <v>0.6737245874500603</v>
       </c>
       <c r="J12">
-        <v>1.080267262046445</v>
+        <v>1.127527155118736</v>
       </c>
       <c r="K12">
         <v>1.127527155118736</v>
       </c>
       <c r="L12">
-        <v>0.8953116992207846</v>
+        <v>0.8953116992207845</v>
       </c>
       <c r="M12">
         <v>0.9877894806336147</v>
@@ -1286,7 +1238,7 @@
         <v>0.9737987036793753</v>
       </c>
     </row>
-    <row r="13" spans="1:30">
+    <row r="13" spans="1:20">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1294,31 +1246,31 @@
         <v>11</v>
       </c>
       <c r="C13">
-        <v>0.9139742184728282</v>
+        <v>1.105871651689555</v>
       </c>
       <c r="D13">
-        <v>1.105871651689554</v>
+        <v>0.9139742184728281</v>
       </c>
       <c r="E13">
+        <v>1.105871651689555</v>
+      </c>
+      <c r="F13">
         <v>1.011599578839502</v>
       </c>
-      <c r="F13">
-        <v>0.9139742184728282</v>
-      </c>
       <c r="G13">
-        <v>1.04725053608631</v>
+        <v>0.9830810821895918</v>
       </c>
       <c r="H13">
         <v>1.027868926998084</v>
       </c>
       <c r="I13">
-        <v>0.9830810821895918</v>
+        <v>1.04725053608631</v>
       </c>
       <c r="J13">
-        <v>1.105871651689554</v>
+        <v>0.9139742184728281</v>
       </c>
       <c r="K13">
-        <v>0.9139742184728282</v>
+        <v>0.9139742184728281</v>
       </c>
       <c r="L13">
         <v>1.011599578839502</v>
@@ -1339,16 +1291,16 @@
         <v>1.010481816333962</v>
       </c>
       <c r="R13">
-        <v>0.9863549168686784</v>
+        <v>0.9863549168686783</v>
       </c>
       <c r="S13">
-        <v>0.9863549168686784</v>
+        <v>0.9863549168686783</v>
       </c>
       <c r="T13">
         <v>1.014940999045978</v>
       </c>
     </row>
-    <row r="14" spans="1:30">
+    <row r="14" spans="1:20">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1356,28 +1308,28 @@
         <v>12</v>
       </c>
       <c r="C14">
+        <v>1.053444002678664</v>
+      </c>
+      <c r="D14">
         <v>1.126698558724798</v>
       </c>
-      <c r="D14">
+      <c r="E14">
         <v>1.053444002678664</v>
       </c>
-      <c r="E14">
+      <c r="F14">
         <v>0.8993195493414633</v>
       </c>
-      <c r="F14">
-        <v>1.126698558724798</v>
-      </c>
       <c r="G14">
-        <v>0.6594022537267511</v>
+        <v>0.9653813423272157</v>
       </c>
       <c r="H14">
         <v>1.104919033824541</v>
       </c>
       <c r="I14">
-        <v>0.9653813423272157</v>
+        <v>0.6594022537267511</v>
       </c>
       <c r="J14">
-        <v>1.053444002678664</v>
+        <v>1.126698558724798</v>
       </c>
       <c r="K14">
         <v>1.126698558724798</v>
@@ -1398,7 +1350,7 @@
         <v>1.026487370248309</v>
       </c>
       <c r="Q14">
-        <v>1.026487370248308</v>
+        <v>1.026487370248309</v>
       </c>
       <c r="R14">
         <v>1.051540167367431</v>
@@ -1407,10 +1359,10 @@
         <v>1.051540167367431</v>
       </c>
       <c r="T14">
-        <v>0.9681941234372387</v>
-      </c>
-    </row>
-    <row r="15" spans="1:30">
+        <v>0.968194123437239</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1418,28 +1370,28 @@
         <v>13</v>
       </c>
       <c r="C15">
+        <v>1.135133668889213</v>
+      </c>
+      <c r="D15">
         <v>0.9231567271928247</v>
       </c>
-      <c r="D15">
+      <c r="E15">
         <v>1.135133668889213</v>
       </c>
-      <c r="E15">
+      <c r="F15">
         <v>1.005650729601812</v>
       </c>
-      <c r="F15">
-        <v>0.9231567271928247</v>
-      </c>
       <c r="G15">
-        <v>1.053984172014309</v>
+        <v>0.9816467784465805</v>
       </c>
       <c r="H15">
         <v>1.023730524479248</v>
       </c>
       <c r="I15">
-        <v>0.9816467784465805</v>
+        <v>1.053984172014309</v>
       </c>
       <c r="J15">
-        <v>1.135133668889213</v>
+        <v>0.9231567271928247</v>
       </c>
       <c r="K15">
         <v>0.9231567271928247</v>
@@ -1472,7 +1424,7 @@
         <v>1.020550433437331</v>
       </c>
     </row>
-    <row r="16" spans="1:30">
+    <row r="16" spans="1:20">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1480,58 +1432,58 @@
         <v>14</v>
       </c>
       <c r="C16">
-        <v>1.001469836565708</v>
+        <v>0.4597917765546066</v>
       </c>
       <c r="D16">
-        <v>0.9999969330534825</v>
+        <v>1.296794185427375</v>
       </c>
       <c r="E16">
-        <v>0.9993233902257047</v>
+        <v>0.4597917765546066</v>
       </c>
       <c r="F16">
-        <v>1.001469836565708</v>
+        <v>1.063039982117407</v>
       </c>
       <c r="G16">
-        <v>0.9994084957204628</v>
+        <v>1.130325596334037</v>
       </c>
       <c r="H16">
-        <v>0.9999007031020316</v>
+        <v>0.7256780308577407</v>
       </c>
       <c r="I16">
-        <v>0.9999334380290275</v>
+        <v>1.133530425120989</v>
       </c>
       <c r="J16">
-        <v>0.9999969330534825</v>
+        <v>1.296794185427375</v>
       </c>
       <c r="K16">
-        <v>1.001469836565708</v>
+        <v>1.296794185427375</v>
       </c>
       <c r="L16">
-        <v>0.9993233902257047</v>
+        <v>1.063039982117407</v>
       </c>
       <c r="M16">
-        <v>0.9996601616395936</v>
+        <v>0.7614158793360066</v>
       </c>
       <c r="N16">
-        <v>0.9996601616395936</v>
+        <v>0.7614158793360066</v>
       </c>
       <c r="O16">
-        <v>0.999740342127073</v>
+        <v>0.7495032631765847</v>
       </c>
       <c r="P16">
-        <v>1.000263386614965</v>
+        <v>0.9398753146997961</v>
       </c>
       <c r="Q16">
-        <v>1.000263386614965</v>
+        <v>0.9398753146997961</v>
       </c>
       <c r="R16">
-        <v>1.000564999102651</v>
+        <v>1.029105032381691</v>
       </c>
       <c r="S16">
-        <v>1.000564999102651</v>
+        <v>1.029105032381691</v>
       </c>
       <c r="T16">
-        <v>1.00000546611607</v>
+        <v>0.968193332735359</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1542,58 +1494,58 @@
         <v>15</v>
       </c>
       <c r="C17">
-        <v>0.9970992725920308</v>
+        <v>0.5858586969045977</v>
       </c>
       <c r="D17">
-        <v>0.9989864180578107</v>
+        <v>1.191992379287223</v>
       </c>
       <c r="E17">
-        <v>1.001809347880482</v>
+        <v>0.5858586969045977</v>
       </c>
       <c r="F17">
-        <v>0.9970992725920308</v>
+        <v>1.066177338039494</v>
       </c>
       <c r="G17">
-        <v>1.004330449083713</v>
+        <v>1.10219556461719</v>
       </c>
       <c r="H17">
-        <v>0.9989814789260033</v>
+        <v>0.7788446022122847</v>
       </c>
       <c r="I17">
-        <v>1.00046046783158</v>
+        <v>1.167330365109026</v>
       </c>
       <c r="J17">
-        <v>0.9989864180578107</v>
+        <v>1.191992379287223</v>
       </c>
       <c r="K17">
-        <v>0.9970992725920308</v>
+        <v>1.191992379287223</v>
       </c>
       <c r="L17">
-        <v>1.001809347880482</v>
+        <v>1.066177338039494</v>
       </c>
       <c r="M17">
-        <v>1.000397882969146</v>
+        <v>0.8260180174720457</v>
       </c>
       <c r="N17">
-        <v>1.000397882969146</v>
+        <v>0.8260180174720457</v>
       </c>
       <c r="O17">
-        <v>0.9999257482880987</v>
+        <v>0.8102935457187921</v>
       </c>
       <c r="P17">
-        <v>0.9992983461767744</v>
+        <v>0.9480094714104382</v>
       </c>
       <c r="Q17">
-        <v>0.9992983461767745</v>
+        <v>0.9480094714104382</v>
       </c>
       <c r="R17">
-        <v>0.9987485777805886</v>
+        <v>1.009005198379635</v>
       </c>
       <c r="S17">
-        <v>0.9987485777805886</v>
+        <v>1.009005198379635</v>
       </c>
       <c r="T17">
-        <v>1.000277905728604</v>
+        <v>0.9820664910283027</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1604,58 +1556,58 @@
         <v>16</v>
       </c>
       <c r="C18">
-        <v>1.010771132199374</v>
+        <v>0.8379573888426954</v>
       </c>
       <c r="D18">
-        <v>0.9903210047319094</v>
+        <v>0.9834428399374822</v>
       </c>
       <c r="E18">
-        <v>0.9984921422183574</v>
+        <v>0.8379573888426954</v>
       </c>
       <c r="F18">
-        <v>1.010771132199374</v>
+        <v>1.071931660205956</v>
       </c>
       <c r="G18">
-        <v>0.9979806575881026</v>
+        <v>1.045877591920526</v>
       </c>
       <c r="H18">
-        <v>0.9954462728766865</v>
+        <v>0.8855915501618864</v>
       </c>
       <c r="I18">
-        <v>1.001948599813492</v>
+        <v>1.232560726957728</v>
       </c>
       <c r="J18">
-        <v>0.9903210047319094</v>
+        <v>0.9834428399374822</v>
       </c>
       <c r="K18">
-        <v>1.010771132199374</v>
+        <v>0.9834428399374822</v>
       </c>
       <c r="L18">
-        <v>0.9984921422183574</v>
+        <v>1.071931660205956</v>
       </c>
       <c r="M18">
-        <v>0.9944065734751334</v>
+        <v>0.9549445245243257</v>
       </c>
       <c r="N18">
-        <v>0.9944065734751334</v>
+        <v>0.9549445245243257</v>
       </c>
       <c r="O18">
-        <v>0.9947531399423178</v>
+        <v>0.9318268664035125</v>
       </c>
       <c r="P18">
-        <v>0.9998614263832134</v>
+        <v>0.9644439629953778</v>
       </c>
       <c r="Q18">
-        <v>0.9998614263832134</v>
+        <v>0.9644439629953778</v>
       </c>
       <c r="R18">
-        <v>1.002588852837254</v>
+        <v>0.969193682230904</v>
       </c>
       <c r="S18">
-        <v>1.002588852837254</v>
+        <v>0.969193682230904</v>
       </c>
       <c r="T18">
-        <v>0.9991599682379868</v>
+        <v>1.009560293004379</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1666,57 +1618,305 @@
         <v>17</v>
       </c>
       <c r="C19">
+        <v>0.8453889087814745</v>
+      </c>
+      <c r="D19">
+        <v>0.9620825273444378</v>
+      </c>
+      <c r="E19">
+        <v>0.8453889087814745</v>
+      </c>
+      <c r="F19">
+        <v>1.08267746410203</v>
+      </c>
+      <c r="G19">
+        <v>1.04716132412491</v>
+      </c>
+      <c r="H19">
+        <v>0.8755594682565484</v>
+      </c>
+      <c r="I19">
+        <v>1.283768285632642</v>
+      </c>
+      <c r="J19">
+        <v>0.9620825273444378</v>
+      </c>
+      <c r="K19">
+        <v>0.9620825273444378</v>
+      </c>
+      <c r="L19">
+        <v>1.08267746410203</v>
+      </c>
+      <c r="M19">
+        <v>0.9640331864417522</v>
+      </c>
+      <c r="N19">
+        <v>0.9640331864417522</v>
+      </c>
+      <c r="O19">
+        <v>0.9345419470466844</v>
+      </c>
+      <c r="P19">
+        <v>0.9633829667426473</v>
+      </c>
+      <c r="Q19">
+        <v>0.9633829667426473</v>
+      </c>
+      <c r="R19">
+        <v>0.963057856893095</v>
+      </c>
+      <c r="S19">
+        <v>0.963057856893095</v>
+      </c>
+      <c r="T19">
+        <v>1.016106329707007</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" s="1">
+        <v>18</v>
+      </c>
+      <c r="B20" t="s">
+        <v>18</v>
+      </c>
+      <c r="C20">
+        <v>0.9999969330534825</v>
+      </c>
+      <c r="D20">
+        <v>1.001469836565709</v>
+      </c>
+      <c r="E20">
+        <v>0.9999969330534825</v>
+      </c>
+      <c r="F20">
+        <v>0.9993233902257048</v>
+      </c>
+      <c r="G20">
+        <v>0.9999334380290275</v>
+      </c>
+      <c r="H20">
+        <v>0.9999007031020314</v>
+      </c>
+      <c r="I20">
+        <v>0.9994084957204628</v>
+      </c>
+      <c r="J20">
+        <v>1.001469836565709</v>
+      </c>
+      <c r="K20">
+        <v>1.001469836565709</v>
+      </c>
+      <c r="L20">
+        <v>0.9993233902257048</v>
+      </c>
+      <c r="M20">
+        <v>0.9996601616395937</v>
+      </c>
+      <c r="N20">
+        <v>0.9996601616395937</v>
+      </c>
+      <c r="O20">
+        <v>0.999740342127073</v>
+      </c>
+      <c r="P20">
+        <v>1.000263386614965</v>
+      </c>
+      <c r="Q20">
+        <v>1.000263386614965</v>
+      </c>
+      <c r="R20">
+        <v>1.000564999102651</v>
+      </c>
+      <c r="S20">
+        <v>1.000564999102651</v>
+      </c>
+      <c r="T20">
+        <v>1.00000546611607</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" s="1">
+        <v>19</v>
+      </c>
+      <c r="B21" t="s">
+        <v>19</v>
+      </c>
+      <c r="C21">
+        <v>0.9989864180578107</v>
+      </c>
+      <c r="D21">
+        <v>0.997099272592031</v>
+      </c>
+      <c r="E21">
+        <v>0.9989864180578107</v>
+      </c>
+      <c r="F21">
+        <v>1.001809347880481</v>
+      </c>
+      <c r="G21">
+        <v>1.00046046783158</v>
+      </c>
+      <c r="H21">
+        <v>0.9989814789260033</v>
+      </c>
+      <c r="I21">
+        <v>1.004330449083714</v>
+      </c>
+      <c r="J21">
+        <v>0.997099272592031</v>
+      </c>
+      <c r="K21">
+        <v>0.997099272592031</v>
+      </c>
+      <c r="L21">
+        <v>1.001809347880481</v>
+      </c>
+      <c r="M21">
+        <v>1.000397882969146</v>
+      </c>
+      <c r="N21">
+        <v>1.000397882969146</v>
+      </c>
+      <c r="O21">
+        <v>0.9999257482880987</v>
+      </c>
+      <c r="P21">
+        <v>0.9992983461767745</v>
+      </c>
+      <c r="Q21">
+        <v>0.9992983461767744</v>
+      </c>
+      <c r="R21">
+        <v>0.9987485777805886</v>
+      </c>
+      <c r="S21">
+        <v>0.9987485777805886</v>
+      </c>
+      <c r="T21">
+        <v>1.000277905728604</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" s="1">
+        <v>20</v>
+      </c>
+      <c r="B22" t="s">
+        <v>20</v>
+      </c>
+      <c r="C22">
+        <v>0.990321004731909</v>
+      </c>
+      <c r="D22">
+        <v>1.010771132199374</v>
+      </c>
+      <c r="E22">
+        <v>0.990321004731909</v>
+      </c>
+      <c r="F22">
+        <v>0.9984921422183574</v>
+      </c>
+      <c r="G22">
+        <v>1.001948599813492</v>
+      </c>
+      <c r="H22">
+        <v>0.9954462728766862</v>
+      </c>
+      <c r="I22">
+        <v>0.9979806575881026</v>
+      </c>
+      <c r="J22">
+        <v>1.010771132199374</v>
+      </c>
+      <c r="K22">
+        <v>1.010771132199374</v>
+      </c>
+      <c r="L22">
+        <v>0.9984921422183574</v>
+      </c>
+      <c r="M22">
+        <v>0.9944065734751332</v>
+      </c>
+      <c r="N22">
+        <v>0.9944065734751332</v>
+      </c>
+      <c r="O22">
+        <v>0.9947531399423175</v>
+      </c>
+      <c r="P22">
+        <v>0.9998614263832133</v>
+      </c>
+      <c r="Q22">
+        <v>0.9998614263832133</v>
+      </c>
+      <c r="R22">
+        <v>1.002588852837253</v>
+      </c>
+      <c r="S22">
+        <v>1.002588852837253</v>
+      </c>
+      <c r="T22">
+        <v>0.9991599682379867</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" s="1">
+        <v>21</v>
+      </c>
+      <c r="B23" t="s">
+        <v>21</v>
+      </c>
+      <c r="C23">
+        <v>0.9744697733013021</v>
+      </c>
+      <c r="D23">
         <v>1.039525424553096</v>
       </c>
-      <c r="D19">
+      <c r="E23">
         <v>0.9744697733013021</v>
       </c>
-      <c r="E19">
+      <c r="F23">
         <v>0.9907926160953119</v>
       </c>
-      <c r="F19">
+      <c r="G23">
+        <v>1.004792369175552</v>
+      </c>
+      <c r="H23">
+        <v>0.9886112154426993</v>
+      </c>
+      <c r="I23">
+        <v>0.9837664928519587</v>
+      </c>
+      <c r="J23">
         <v>1.039525424553096</v>
       </c>
-      <c r="G19">
-        <v>0.9837664928519587</v>
-      </c>
-      <c r="H19">
-        <v>0.9886112154426993</v>
-      </c>
-      <c r="I19">
-        <v>1.004792369175552</v>
-      </c>
-      <c r="J19">
-        <v>0.9744697733013021</v>
-      </c>
-      <c r="K19">
+      <c r="K23">
         <v>1.039525424553096</v>
       </c>
-      <c r="L19">
+      <c r="L23">
         <v>0.9907926160953119</v>
       </c>
-      <c r="M19">
+      <c r="M23">
         <v>0.9826311946983071</v>
       </c>
-      <c r="N19">
+      <c r="N23">
         <v>0.9826311946983071</v>
       </c>
-      <c r="O19">
+      <c r="O23">
         <v>0.9846245349464379</v>
       </c>
-      <c r="P19">
+      <c r="P23">
         <v>1.001595937983237</v>
       </c>
-      <c r="Q19">
+      <c r="Q23">
         <v>1.001595937983237</v>
       </c>
-      <c r="R19">
+      <c r="R23">
         <v>1.011078309625701</v>
       </c>
-      <c r="S19">
+      <c r="S23">
         <v>1.011078309625701</v>
       </c>
-      <c r="T19">
+      <c r="T23">
         <v>0.9969929819033201</v>
       </c>
     </row>

--- a/JupyterNotebooks/AvgHW/Gamma2F-HW20.xlsx
+++ b/JupyterNotebooks/AvgHW/Gamma2F-HW20.xlsx
@@ -14,11 +14,47 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="59">
   <si>
     <t>HKL</t>
   </si>
   <si>
+    <t>EA_5</t>
+  </si>
+  <si>
+    <t>EA_2.5</t>
+  </si>
+  <si>
+    <t>EA_10</t>
+  </si>
+  <si>
+    <t>EA_15</t>
+  </si>
+  <si>
+    <t>RizzieSpiral_2.5</t>
+  </si>
+  <si>
+    <t>RizzieSpiral_5</t>
+  </si>
+  <si>
+    <t>RizzieSpiral_10</t>
+  </si>
+  <si>
+    <t>RizzieSpiral_15</t>
+  </si>
+  <si>
+    <t>CLR_5</t>
+  </si>
+  <si>
+    <t>CLR_2.5</t>
+  </si>
+  <si>
+    <t>CLR_10</t>
+  </si>
+  <si>
+    <t>CLR_15</t>
+  </si>
+  <si>
     <t>BT8Hex_2.5</t>
   </si>
   <si>
@@ -70,6 +106,18 @@
     <t>Holden15</t>
   </si>
   <si>
+    <t>Ring Perpendicular to ND</t>
+  </si>
+  <si>
+    <t>Ring Perpendicular to RD</t>
+  </si>
+  <si>
+    <t>Ring Perpendicular to TD</t>
+  </si>
+  <si>
+    <t>Rotation-90detTilt</t>
+  </si>
+  <si>
     <t>HexGrid-90degTilt2.5degRes</t>
   </si>
   <si>
@@ -80,6 +128,15 @@
   </si>
   <si>
     <t>HexGrid-90degTilt15degRes</t>
+  </si>
+  <si>
+    <t>RotRing Axis-Y Res-5.0 Theta-2.84623415 OmegaMax-90</t>
+  </si>
+  <si>
+    <t>RotRing Axis-Y Res-5.0 Theta-2.84623415 OmegaMax-60 Weighted</t>
+  </si>
+  <si>
+    <t>RotRing Axis-Y Res-5.0 Theta-2.84623415 OmegaMax-30</t>
   </si>
   <si>
     <t>[2, 0, 0]</t>
@@ -491,7 +548,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T23"/>
+  <dimension ref="A1:T42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -564,58 +621,58 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>22</v>
+        <v>41</v>
       </c>
       <c r="D2" t="s">
-        <v>23</v>
+        <v>42</v>
       </c>
       <c r="E2" t="s">
-        <v>24</v>
+        <v>43</v>
       </c>
       <c r="F2" t="s">
-        <v>25</v>
+        <v>44</v>
       </c>
       <c r="G2" t="s">
-        <v>26</v>
+        <v>45</v>
       </c>
       <c r="H2" t="s">
-        <v>27</v>
+        <v>46</v>
       </c>
       <c r="I2" t="s">
-        <v>28</v>
+        <v>47</v>
       </c>
       <c r="J2" t="s">
-        <v>29</v>
+        <v>48</v>
       </c>
       <c r="K2" t="s">
-        <v>30</v>
+        <v>49</v>
       </c>
       <c r="L2" t="s">
-        <v>31</v>
+        <v>50</v>
       </c>
       <c r="M2" t="s">
-        <v>32</v>
+        <v>51</v>
       </c>
       <c r="N2" t="s">
-        <v>33</v>
+        <v>52</v>
       </c>
       <c r="O2" t="s">
-        <v>34</v>
+        <v>53</v>
       </c>
       <c r="P2" t="s">
-        <v>35</v>
+        <v>54</v>
       </c>
       <c r="Q2" t="s">
-        <v>36</v>
+        <v>55</v>
       </c>
       <c r="R2" t="s">
-        <v>37</v>
+        <v>56</v>
       </c>
       <c r="S2" t="s">
-        <v>38</v>
+        <v>57</v>
       </c>
       <c r="T2" t="s">
-        <v>39</v>
+        <v>58</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -626,58 +683,58 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>0.9720031081708702</v>
+        <v>0.8096701951952449</v>
       </c>
       <c r="D3">
-        <v>1.016437874047623</v>
+        <v>0.9828207687103755</v>
       </c>
       <c r="E3">
-        <v>0.9720031081708702</v>
+        <v>0.8096701951952449</v>
       </c>
       <c r="F3">
-        <v>1.002888157452474</v>
+        <v>1.083721801145531</v>
       </c>
       <c r="G3">
-        <v>1.006779131457558</v>
+        <v>1.053904135273775</v>
       </c>
       <c r="H3">
-        <v>0.9857923036165754</v>
+        <v>0.8644012561167161</v>
       </c>
       <c r="I3">
-        <v>1.005594705383918</v>
+        <v>1.275700660569164</v>
       </c>
       <c r="J3">
-        <v>1.016437874047623</v>
+        <v>0.9828207687103755</v>
       </c>
       <c r="K3">
-        <v>1.016437874047623</v>
+        <v>0.9828207687103755</v>
       </c>
       <c r="L3">
-        <v>1.002888157452474</v>
+        <v>1.083721801145531</v>
       </c>
       <c r="M3">
-        <v>0.9874456328116722</v>
+        <v>0.9466959981703882</v>
       </c>
       <c r="N3">
-        <v>0.9874456328116722</v>
+        <v>0.9466959981703882</v>
       </c>
       <c r="O3">
-        <v>0.9868945230799732</v>
+        <v>0.9192644174858309</v>
       </c>
       <c r="P3">
-        <v>0.9971097132236557</v>
+        <v>0.958737588350384</v>
       </c>
       <c r="Q3">
-        <v>0.9971097132236557</v>
+        <v>0.958737588350384</v>
       </c>
       <c r="R3">
-        <v>1.001941753429648</v>
+        <v>0.9647583834403819</v>
       </c>
       <c r="S3">
-        <v>1.001941753429648</v>
+        <v>0.9647583834403819</v>
       </c>
       <c r="T3">
-        <v>0.9982492133548365</v>
+        <v>1.011703136168468</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -688,58 +745,58 @@
         <v>2</v>
       </c>
       <c r="C4">
-        <v>0.9457527006719663</v>
+        <v>0.8257486481052873</v>
       </c>
       <c r="D4">
-        <v>1.031114741072964</v>
+        <v>0.982500600372717</v>
       </c>
       <c r="E4">
-        <v>0.9457527006719663</v>
+        <v>0.8257486481052873</v>
       </c>
       <c r="F4">
-        <v>1.00578699439504</v>
+        <v>1.077395791841225</v>
       </c>
       <c r="G4">
-        <v>1.013059236181208</v>
+        <v>1.049407451923222</v>
       </c>
       <c r="H4">
-        <v>0.9726800387696092</v>
+        <v>0.8760173452413391</v>
       </c>
       <c r="I4">
-        <v>1.011263497789926</v>
+        <v>1.253186451528143</v>
       </c>
       <c r="J4">
-        <v>1.031114741072964</v>
+        <v>0.982500600372717</v>
       </c>
       <c r="K4">
-        <v>1.031114741072964</v>
+        <v>0.982500600372717</v>
       </c>
       <c r="L4">
-        <v>1.00578699439504</v>
+        <v>1.077395791841225</v>
       </c>
       <c r="M4">
-        <v>0.975769847533503</v>
+        <v>0.9515722199732561</v>
       </c>
       <c r="N4">
-        <v>0.975769847533503</v>
+        <v>0.9515722199732561</v>
       </c>
       <c r="O4">
-        <v>0.9747399112788718</v>
+        <v>0.9263872617292838</v>
       </c>
       <c r="P4">
-        <v>0.9942181453799899</v>
+        <v>0.9618816801064097</v>
       </c>
       <c r="Q4">
-        <v>0.9942181453799899</v>
+        <v>0.9618816801064097</v>
       </c>
       <c r="R4">
-        <v>1.003442294303233</v>
+        <v>0.9670364101729865</v>
       </c>
       <c r="S4">
-        <v>1.003442294303233</v>
+        <v>0.9670364101729865</v>
       </c>
       <c r="T4">
-        <v>0.9966095348134522</v>
+        <v>1.010709381501989</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -750,58 +807,58 @@
         <v>3</v>
       </c>
       <c r="C5">
-        <v>0.8971275109281531</v>
+        <v>0.779273710366576</v>
       </c>
       <c r="D5">
-        <v>1.059158447679208</v>
+        <v>0.9828463774663077</v>
       </c>
       <c r="E5">
-        <v>0.8971275109281531</v>
+        <v>0.779273710366576</v>
       </c>
       <c r="F5">
-        <v>1.011153006744633</v>
+        <v>1.095954289326146</v>
       </c>
       <c r="G5">
-        <v>1.024912779187615</v>
+        <v>1.062428583584904</v>
       </c>
       <c r="H5">
-        <v>0.9475892021165139</v>
+        <v>0.8423434903504041</v>
       </c>
       <c r="I5">
-        <v>1.022610082972924</v>
+        <v>1.319084439299193</v>
       </c>
       <c r="J5">
-        <v>1.059158447679208</v>
+        <v>0.9828463774663077</v>
       </c>
       <c r="K5">
-        <v>1.059158447679208</v>
+        <v>0.9828463774663077</v>
       </c>
       <c r="L5">
-        <v>1.011153006744633</v>
+        <v>1.095954289326146</v>
       </c>
       <c r="M5">
-        <v>0.9541402588363929</v>
+        <v>0.9376139998463611</v>
       </c>
       <c r="N5">
-        <v>0.9541402588363929</v>
+        <v>0.9376139998463611</v>
       </c>
       <c r="O5">
-        <v>0.9519565732630998</v>
+        <v>0.9058571633477088</v>
       </c>
       <c r="P5">
-        <v>0.9891463217839979</v>
+        <v>0.9526914590530099</v>
       </c>
       <c r="Q5">
-        <v>0.9891463217839979</v>
+        <v>0.9526914590530099</v>
       </c>
       <c r="R5">
-        <v>1.0066493532578</v>
+        <v>0.9602301886563342</v>
       </c>
       <c r="S5">
-        <v>1.0066493532578</v>
+        <v>0.9602301886563342</v>
       </c>
       <c r="T5">
-        <v>0.9937585049381744</v>
+        <v>1.013655148398922</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -812,58 +869,58 @@
         <v>4</v>
       </c>
       <c r="C6">
-        <v>0.8508147611921976</v>
+        <v>0.7510569980227274</v>
       </c>
       <c r="D6">
-        <v>1.086718002644873</v>
+        <v>0.9821776674999999</v>
       </c>
       <c r="E6">
-        <v>0.8508147611921976</v>
+        <v>0.7510569980227274</v>
       </c>
       <c r="F6">
-        <v>1.017167747913226</v>
+        <v>1.107635807727271</v>
       </c>
       <c r="G6">
-        <v>1.03687161142859</v>
+        <v>1.070369712784089</v>
       </c>
       <c r="H6">
-        <v>0.9223493486367558</v>
+        <v>0.8217511382386352</v>
       </c>
       <c r="I6">
-        <v>1.032674632955802</v>
+        <v>1.360337192102272</v>
       </c>
       <c r="J6">
-        <v>1.086718002644873</v>
+        <v>0.9821776674999999</v>
       </c>
       <c r="K6">
-        <v>1.086718002644873</v>
+        <v>0.9821776674999999</v>
       </c>
       <c r="L6">
-        <v>1.017167747913226</v>
+        <v>1.107635807727271</v>
       </c>
       <c r="M6">
-        <v>0.9339912545527116</v>
+        <v>0.9293464028749994</v>
       </c>
       <c r="N6">
-        <v>0.9339912545527116</v>
+        <v>0.9293464028749994</v>
       </c>
       <c r="O6">
-        <v>0.9301106192473929</v>
+        <v>0.8934813146628779</v>
       </c>
       <c r="P6">
-        <v>0.984900170583432</v>
+        <v>0.9469568244166662</v>
       </c>
       <c r="Q6">
-        <v>0.984900170583432</v>
+        <v>0.9469568244166662</v>
       </c>
       <c r="R6">
-        <v>1.010354628598792</v>
+        <v>0.9557620351874996</v>
       </c>
       <c r="S6">
-        <v>1.010354628598792</v>
+        <v>0.9557620351874996</v>
       </c>
       <c r="T6">
-        <v>0.9910993507952405</v>
+        <v>1.015554752729166</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -874,58 +931,58 @@
         <v>5</v>
       </c>
       <c r="C7">
-        <v>0.998829381678327</v>
+        <v>1.03614019092991</v>
       </c>
       <c r="D7">
-        <v>0.9996624008123222</v>
+        <v>0.8760143004767943</v>
       </c>
       <c r="E7">
-        <v>0.998829381678327</v>
+        <v>1.03614019092991</v>
       </c>
       <c r="F7">
-        <v>1.000628153296362</v>
+        <v>1.075969433230298</v>
       </c>
       <c r="G7">
-        <v>1.000342026726209</v>
+        <v>1.016368674113407</v>
       </c>
       <c r="H7">
-        <v>0.9990940457761878</v>
+        <v>0.9212069163282454</v>
       </c>
       <c r="I7">
-        <v>1.002152533116368</v>
+        <v>1.319175245850356</v>
       </c>
       <c r="J7">
-        <v>0.9996624008123222</v>
+        <v>0.8760143004767943</v>
       </c>
       <c r="K7">
-        <v>0.9996624008123222</v>
+        <v>0.8760143004767943</v>
       </c>
       <c r="L7">
-        <v>1.000628153296362</v>
+        <v>1.075969433230298</v>
       </c>
       <c r="M7">
-        <v>0.9997287674873445</v>
+        <v>1.056054812080104</v>
       </c>
       <c r="N7">
-        <v>0.9997287674873445</v>
+        <v>1.056054812080104</v>
       </c>
       <c r="O7">
-        <v>0.9995171935836256</v>
+        <v>1.011105513496151</v>
       </c>
       <c r="P7">
-        <v>0.9997066452623371</v>
+        <v>0.9960413082123338</v>
       </c>
       <c r="Q7">
-        <v>0.9997066452623371</v>
+        <v>0.9960413082123338</v>
       </c>
       <c r="R7">
-        <v>0.9996955841498334</v>
+        <v>0.9660345562784489</v>
       </c>
       <c r="S7">
-        <v>0.9996955841498334</v>
+        <v>0.9660345562784489</v>
       </c>
       <c r="T7">
-        <v>1.000118090234296</v>
+        <v>1.040812460154835</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -936,58 +993,58 @@
         <v>6</v>
       </c>
       <c r="C8">
-        <v>0.9969494871539322</v>
+        <v>1.031686458643421</v>
       </c>
       <c r="D8">
-        <v>0.9991418896898304</v>
+        <v>0.8750088222986595</v>
       </c>
       <c r="E8">
-        <v>0.9969494871539322</v>
+        <v>1.031686458643421</v>
       </c>
       <c r="F8">
-        <v>1.001626279777299</v>
+        <v>1.07806786592205</v>
       </c>
       <c r="G8">
-        <v>1.000891536658972</v>
+        <v>1.017547943176085</v>
       </c>
       <c r="H8">
-        <v>0.9976835347661708</v>
+        <v>0.9183121872623584</v>
       </c>
       <c r="I8">
-        <v>1.00539915569161</v>
+        <v>1.325647617078032</v>
       </c>
       <c r="J8">
-        <v>0.9991418896898304</v>
+        <v>0.8750088222986595</v>
       </c>
       <c r="K8">
-        <v>0.9991418896898304</v>
+        <v>0.8750088222986595</v>
       </c>
       <c r="L8">
-        <v>1.001626279777299</v>
+        <v>1.07806786592205</v>
       </c>
       <c r="M8">
-        <v>0.9992878834656157</v>
+        <v>1.054877162282736</v>
       </c>
       <c r="N8">
-        <v>0.9992878834656157</v>
+        <v>1.054877162282736</v>
       </c>
       <c r="O8">
-        <v>0.9987531005658008</v>
+        <v>1.00935550394261</v>
       </c>
       <c r="P8">
-        <v>0.9992392188736873</v>
+        <v>0.9949210489547102</v>
       </c>
       <c r="Q8">
-        <v>0.9992392188736874</v>
+        <v>0.9949210489547102</v>
       </c>
       <c r="R8">
-        <v>0.9992148865777232</v>
+        <v>0.9649429922906976</v>
       </c>
       <c r="S8">
-        <v>0.9992148865777232</v>
+        <v>0.9649429922906976</v>
       </c>
       <c r="T8">
-        <v>1.000281980622969</v>
+        <v>1.041045149063434</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -998,58 +1055,58 @@
         <v>7</v>
       </c>
       <c r="C9">
-        <v>0.9956206053310602</v>
+        <v>1.028548373332535</v>
       </c>
       <c r="D9">
-        <v>0.9988558075375989</v>
+        <v>0.8737812060295486</v>
       </c>
       <c r="E9">
-        <v>0.9956206053310602</v>
+        <v>1.028548373332535</v>
       </c>
       <c r="F9">
-        <v>1.002310470306105</v>
+        <v>1.079825754187067</v>
       </c>
       <c r="G9">
-        <v>1.001289075753985</v>
+        <v>1.018418635094674</v>
       </c>
       <c r="H9">
-        <v>0.9967314232490541</v>
+        <v>0.9158845503034601</v>
       </c>
       <c r="I9">
-        <v>1.007352277009889</v>
+        <v>1.332073561012556</v>
       </c>
       <c r="J9">
-        <v>0.9988558075375989</v>
+        <v>0.8737812060295486</v>
       </c>
       <c r="K9">
-        <v>0.9988558075375989</v>
+        <v>0.8737812060295486</v>
       </c>
       <c r="L9">
-        <v>1.002310470306105</v>
+        <v>1.079825754187067</v>
       </c>
       <c r="M9">
-        <v>0.9989655378185827</v>
+        <v>1.054187063759801</v>
       </c>
       <c r="N9">
-        <v>0.9989655378185827</v>
+        <v>1.054187063759801</v>
       </c>
       <c r="O9">
-        <v>0.9982208329620731</v>
+        <v>1.008086225941021</v>
       </c>
       <c r="P9">
-        <v>0.9989289610582547</v>
+        <v>0.994051777849717</v>
       </c>
       <c r="Q9">
-        <v>0.9989289610582547</v>
+        <v>0.9940517778497172</v>
       </c>
       <c r="R9">
-        <v>0.9989106726780907</v>
+        <v>0.963984134894675</v>
       </c>
       <c r="S9">
-        <v>0.9989106726780907</v>
+        <v>0.963984134894675</v>
       </c>
       <c r="T9">
-        <v>1.000359943197949</v>
+        <v>1.04142201332664</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1060,58 +1117,58 @@
         <v>8</v>
       </c>
       <c r="C10">
-        <v>0.9905725076192281</v>
+        <v>1.01862266936757</v>
       </c>
       <c r="D10">
-        <v>0.9975520109962775</v>
+        <v>0.8712230650180242</v>
       </c>
       <c r="E10">
-        <v>0.9905725076192281</v>
+        <v>1.01862266936757</v>
       </c>
       <c r="F10">
-        <v>1.004928111213012</v>
+        <v>1.084546280705464</v>
       </c>
       <c r="G10">
-        <v>1.002744181601122</v>
+        <v>1.020975684252198</v>
       </c>
       <c r="H10">
-        <v>0.9929805424734059</v>
+        <v>0.9100620935878532</v>
       </c>
       <c r="I10">
-        <v>1.015964139790825</v>
+        <v>1.344636340310567</v>
       </c>
       <c r="J10">
-        <v>0.9975520109962775</v>
+        <v>0.8712230650180242</v>
       </c>
       <c r="K10">
-        <v>0.9975520109962775</v>
+        <v>0.8712230650180242</v>
       </c>
       <c r="L10">
-        <v>1.004928111213012</v>
+        <v>1.084546280705464</v>
       </c>
       <c r="M10">
-        <v>0.99775030941612</v>
+        <v>1.051584475036517</v>
       </c>
       <c r="N10">
-        <v>0.99775030941612</v>
+        <v>1.051584475036517</v>
       </c>
       <c r="O10">
-        <v>0.9961603871018819</v>
+        <v>1.004410347886962</v>
       </c>
       <c r="P10">
-        <v>0.9976842099428391</v>
+        <v>0.9914640050303527</v>
       </c>
       <c r="Q10">
-        <v>0.9976842099428391</v>
+        <v>0.9914640050303527</v>
       </c>
       <c r="R10">
-        <v>0.9976511602061987</v>
+        <v>0.9614037700272706</v>
       </c>
       <c r="S10">
-        <v>0.9976511602061987</v>
+        <v>0.9614037700272706</v>
       </c>
       <c r="T10">
-        <v>1.000790248948978</v>
+        <v>1.041677688873613</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1122,58 +1179,58 @@
         <v>9</v>
       </c>
       <c r="C11">
-        <v>0.9840227644181891</v>
+        <v>0.9694134231921891</v>
       </c>
       <c r="D11">
-        <v>0.9960069245339791</v>
+        <v>1.016875316380511</v>
       </c>
       <c r="E11">
-        <v>0.9840227644181891</v>
+        <v>0.9694134231921891</v>
       </c>
       <c r="F11">
-        <v>1.00829658076475</v>
+        <v>1.003532563156855</v>
       </c>
       <c r="G11">
-        <v>1.004659204783325</v>
+        <v>1.007373518465271</v>
       </c>
       <c r="H11">
-        <v>0.9883050055416779</v>
+        <v>0.9846064706231032</v>
       </c>
       <c r="I11">
-        <v>1.025978035058752</v>
+        <v>1.006933585706228</v>
       </c>
       <c r="J11">
-        <v>0.9960069245339791</v>
+        <v>1.016875316380511</v>
       </c>
       <c r="K11">
-        <v>0.9960069245339791</v>
+        <v>1.016875316380511</v>
       </c>
       <c r="L11">
-        <v>1.00829658076475</v>
+        <v>1.003532563156855</v>
       </c>
       <c r="M11">
-        <v>0.9961596725914696</v>
+        <v>0.9864729931745221</v>
       </c>
       <c r="N11">
-        <v>0.9961596725914696</v>
+        <v>0.9864729931745221</v>
       </c>
       <c r="O11">
-        <v>0.9935414502415391</v>
+        <v>0.9858508189907158</v>
       </c>
       <c r="P11">
-        <v>0.9961087565723061</v>
+        <v>0.9966071009098516</v>
       </c>
       <c r="Q11">
-        <v>0.9961087565723061</v>
+        <v>0.9966071009098516</v>
       </c>
       <c r="R11">
-        <v>0.9960832985627244</v>
+        <v>1.001674154777516</v>
       </c>
       <c r="S11">
-        <v>0.9960832985627244</v>
+        <v>1.001674154777516</v>
       </c>
       <c r="T11">
-        <v>1.001211419183446</v>
+        <v>0.9981224795873596</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1184,58 +1241,58 @@
         <v>10</v>
       </c>
       <c r="C12">
-        <v>1.080267262046445</v>
+        <v>0.9863330949435209</v>
       </c>
       <c r="D12">
-        <v>1.127527155118736</v>
+        <v>1.007502572141108</v>
       </c>
       <c r="E12">
-        <v>1.080267262046445</v>
+        <v>0.9863330949435209</v>
       </c>
       <c r="F12">
-        <v>0.8953116992207845</v>
+        <v>1.001756308777435</v>
       </c>
       <c r="G12">
-        <v>0.9631473301201483</v>
+        <v>1.003399730939358</v>
       </c>
       <c r="H12">
-        <v>1.102814188120078</v>
+        <v>0.9926380555838785</v>
       </c>
       <c r="I12">
-        <v>0.6737245874500603</v>
+        <v>1.004392727999072</v>
       </c>
       <c r="J12">
-        <v>1.127527155118736</v>
+        <v>1.007502572141108</v>
       </c>
       <c r="K12">
-        <v>1.127527155118736</v>
+        <v>1.007502572141108</v>
       </c>
       <c r="L12">
-        <v>0.8953116992207845</v>
+        <v>1.001756308777435</v>
       </c>
       <c r="M12">
-        <v>0.9877894806336147</v>
+        <v>0.9940447018604778</v>
       </c>
       <c r="N12">
-        <v>0.9877894806336147</v>
+        <v>0.9940447018604778</v>
       </c>
       <c r="O12">
-        <v>1.026131049795769</v>
+        <v>0.993575819768278</v>
       </c>
       <c r="P12">
-        <v>1.034368705461988</v>
+        <v>0.9985306586206878</v>
       </c>
       <c r="Q12">
-        <v>1.034368705461988</v>
+        <v>0.9985306586206878</v>
       </c>
       <c r="R12">
-        <v>1.057658317876175</v>
+        <v>1.000773637000793</v>
       </c>
       <c r="S12">
-        <v>1.057658317876175</v>
+        <v>1.000773637000793</v>
       </c>
       <c r="T12">
-        <v>0.9737987036793753</v>
+        <v>0.9993370817307285</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1246,58 +1303,58 @@
         <v>11</v>
       </c>
       <c r="C13">
-        <v>1.105871651689555</v>
+        <v>0.9533057707392747</v>
       </c>
       <c r="D13">
-        <v>0.9139742184728281</v>
+        <v>1.02657777799452</v>
       </c>
       <c r="E13">
-        <v>1.105871651689555</v>
+        <v>0.9533057707392747</v>
       </c>
       <c r="F13">
-        <v>1.011599578839502</v>
+        <v>1.005538572255444</v>
       </c>
       <c r="G13">
-        <v>0.9830810821895918</v>
+        <v>1.011559588770784</v>
       </c>
       <c r="H13">
-        <v>1.027868926998084</v>
+        <v>0.9751058561149433</v>
       </c>
       <c r="I13">
-        <v>1.04725053608631</v>
+        <v>1.013361861762273</v>
       </c>
       <c r="J13">
-        <v>0.9139742184728281</v>
+        <v>1.02657777799452</v>
       </c>
       <c r="K13">
-        <v>0.9139742184728281</v>
+        <v>1.02657777799452</v>
       </c>
       <c r="L13">
-        <v>1.011599578839502</v>
+        <v>1.005538572255444</v>
       </c>
       <c r="M13">
-        <v>1.058735615264528</v>
+        <v>0.9794221714973592</v>
       </c>
       <c r="N13">
-        <v>1.058735615264528</v>
+        <v>0.9794221714973592</v>
       </c>
       <c r="O13">
-        <v>1.048446719175714</v>
+        <v>0.9779833997032205</v>
       </c>
       <c r="P13">
-        <v>1.010481816333962</v>
+        <v>0.995140706996413</v>
       </c>
       <c r="Q13">
-        <v>1.010481816333962</v>
+        <v>0.995140706996413</v>
       </c>
       <c r="R13">
-        <v>0.9863549168686783</v>
+        <v>1.00299997474594</v>
       </c>
       <c r="S13">
-        <v>0.9863549168686783</v>
+        <v>1.00299997474594</v>
       </c>
       <c r="T13">
-        <v>1.014940999045978</v>
+        <v>0.9975749046062066</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1308,58 +1365,58 @@
         <v>12</v>
       </c>
       <c r="C14">
-        <v>1.053444002678664</v>
+        <v>0.9224723211101922</v>
       </c>
       <c r="D14">
-        <v>1.126698558724798</v>
+        <v>1.044154954114592</v>
       </c>
       <c r="E14">
-        <v>1.053444002678664</v>
+        <v>0.9224723211101922</v>
       </c>
       <c r="F14">
-        <v>0.8993195493414633</v>
+        <v>1.008427516430855</v>
       </c>
       <c r="G14">
-        <v>0.9653813423272157</v>
+        <v>1.018689896152266</v>
       </c>
       <c r="H14">
-        <v>1.104919033824541</v>
+        <v>0.9606297584333275</v>
       </c>
       <c r="I14">
-        <v>0.6594022537267511</v>
+        <v>1.017623230856813</v>
       </c>
       <c r="J14">
-        <v>1.126698558724798</v>
+        <v>1.044154954114592</v>
       </c>
       <c r="K14">
-        <v>1.126698558724798</v>
+        <v>1.044154954114592</v>
       </c>
       <c r="L14">
-        <v>0.8993195493414633</v>
+        <v>1.008427516430855</v>
       </c>
       <c r="M14">
-        <v>0.9763817760100635</v>
+        <v>0.9654499187705237</v>
       </c>
       <c r="N14">
-        <v>0.9763817760100635</v>
+        <v>0.9654499187705237</v>
       </c>
       <c r="O14">
-        <v>1.019227528614889</v>
+        <v>0.963843198658125</v>
       </c>
       <c r="P14">
-        <v>1.026487370248309</v>
+        <v>0.9916849305518797</v>
       </c>
       <c r="Q14">
-        <v>1.026487370248309</v>
+        <v>0.9916849305518797</v>
       </c>
       <c r="R14">
-        <v>1.051540167367431</v>
+        <v>1.004802436442558</v>
       </c>
       <c r="S14">
-        <v>1.051540167367431</v>
+        <v>1.004802436442558</v>
       </c>
       <c r="T14">
-        <v>0.968194123437239</v>
+        <v>0.9953329461830075</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1370,58 +1427,58 @@
         <v>13</v>
       </c>
       <c r="C15">
-        <v>1.135133668889213</v>
+        <v>0.9720031081708702</v>
       </c>
       <c r="D15">
-        <v>0.9231567271928247</v>
+        <v>1.016437874047623</v>
       </c>
       <c r="E15">
-        <v>1.135133668889213</v>
+        <v>0.9720031081708702</v>
       </c>
       <c r="F15">
-        <v>1.005650729601812</v>
+        <v>1.002888157452474</v>
       </c>
       <c r="G15">
-        <v>0.9816467784465805</v>
+        <v>1.006779131457558</v>
       </c>
       <c r="H15">
-        <v>1.023730524479248</v>
+        <v>0.9857923036165754</v>
       </c>
       <c r="I15">
-        <v>1.053984172014309</v>
+        <v>1.005594705383918</v>
       </c>
       <c r="J15">
-        <v>0.9231567271928247</v>
+        <v>1.016437874047623</v>
       </c>
       <c r="K15">
-        <v>0.9231567271928247</v>
+        <v>1.016437874047623</v>
       </c>
       <c r="L15">
-        <v>1.005650729601812</v>
+        <v>1.002888157452474</v>
       </c>
       <c r="M15">
-        <v>1.070392199245513</v>
+        <v>0.9874456328116722</v>
       </c>
       <c r="N15">
-        <v>1.070392199245513</v>
+        <v>0.9874456328116722</v>
       </c>
       <c r="O15">
-        <v>1.054838307656758</v>
+        <v>0.9868945230799732</v>
       </c>
       <c r="P15">
-        <v>1.021313708561283</v>
+        <v>0.9971097132236557</v>
       </c>
       <c r="Q15">
-        <v>1.021313708561283</v>
+        <v>0.9971097132236557</v>
       </c>
       <c r="R15">
-        <v>0.9967744632191686</v>
+        <v>1.001941753429648</v>
       </c>
       <c r="S15">
-        <v>0.9967744632191686</v>
+        <v>1.001941753429648</v>
       </c>
       <c r="T15">
-        <v>1.020550433437331</v>
+        <v>0.9982492133548365</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1432,58 +1489,58 @@
         <v>14</v>
       </c>
       <c r="C16">
-        <v>0.4597917765546066</v>
+        <v>0.9457527006719663</v>
       </c>
       <c r="D16">
-        <v>1.296794185427375</v>
+        <v>1.031114741072964</v>
       </c>
       <c r="E16">
-        <v>0.4597917765546066</v>
+        <v>0.9457527006719663</v>
       </c>
       <c r="F16">
-        <v>1.063039982117407</v>
+        <v>1.00578699439504</v>
       </c>
       <c r="G16">
-        <v>1.130325596334037</v>
+        <v>1.013059236181208</v>
       </c>
       <c r="H16">
-        <v>0.7256780308577407</v>
+        <v>0.9726800387696092</v>
       </c>
       <c r="I16">
-        <v>1.133530425120989</v>
+        <v>1.011263497789926</v>
       </c>
       <c r="J16">
-        <v>1.296794185427375</v>
+        <v>1.031114741072964</v>
       </c>
       <c r="K16">
-        <v>1.296794185427375</v>
+        <v>1.031114741072964</v>
       </c>
       <c r="L16">
-        <v>1.063039982117407</v>
+        <v>1.00578699439504</v>
       </c>
       <c r="M16">
-        <v>0.7614158793360066</v>
+        <v>0.975769847533503</v>
       </c>
       <c r="N16">
-        <v>0.7614158793360066</v>
+        <v>0.975769847533503</v>
       </c>
       <c r="O16">
-        <v>0.7495032631765847</v>
+        <v>0.9747399112788718</v>
       </c>
       <c r="P16">
-        <v>0.9398753146997961</v>
+        <v>0.9942181453799899</v>
       </c>
       <c r="Q16">
-        <v>0.9398753146997961</v>
+        <v>0.9942181453799899</v>
       </c>
       <c r="R16">
-        <v>1.029105032381691</v>
+        <v>1.003442294303233</v>
       </c>
       <c r="S16">
-        <v>1.029105032381691</v>
+        <v>1.003442294303233</v>
       </c>
       <c r="T16">
-        <v>0.968193332735359</v>
+        <v>0.9966095348134522</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1494,58 +1551,58 @@
         <v>15</v>
       </c>
       <c r="C17">
-        <v>0.5858586969045977</v>
+        <v>0.8971275109281531</v>
       </c>
       <c r="D17">
-        <v>1.191992379287223</v>
+        <v>1.059158447679208</v>
       </c>
       <c r="E17">
-        <v>0.5858586969045977</v>
+        <v>0.8971275109281531</v>
       </c>
       <c r="F17">
-        <v>1.066177338039494</v>
+        <v>1.011153006744633</v>
       </c>
       <c r="G17">
-        <v>1.10219556461719</v>
+        <v>1.024912779187615</v>
       </c>
       <c r="H17">
-        <v>0.7788446022122847</v>
+        <v>0.9475892021165139</v>
       </c>
       <c r="I17">
-        <v>1.167330365109026</v>
+        <v>1.022610082972924</v>
       </c>
       <c r="J17">
-        <v>1.191992379287223</v>
+        <v>1.059158447679208</v>
       </c>
       <c r="K17">
-        <v>1.191992379287223</v>
+        <v>1.059158447679208</v>
       </c>
       <c r="L17">
-        <v>1.066177338039494</v>
+        <v>1.011153006744633</v>
       </c>
       <c r="M17">
-        <v>0.8260180174720457</v>
+        <v>0.9541402588363929</v>
       </c>
       <c r="N17">
-        <v>0.8260180174720457</v>
+        <v>0.9541402588363929</v>
       </c>
       <c r="O17">
-        <v>0.8102935457187921</v>
+        <v>0.9519565732630998</v>
       </c>
       <c r="P17">
-        <v>0.9480094714104382</v>
+        <v>0.9891463217839979</v>
       </c>
       <c r="Q17">
-        <v>0.9480094714104382</v>
+        <v>0.9891463217839979</v>
       </c>
       <c r="R17">
-        <v>1.009005198379635</v>
+        <v>1.0066493532578</v>
       </c>
       <c r="S17">
-        <v>1.009005198379635</v>
+        <v>1.0066493532578</v>
       </c>
       <c r="T17">
-        <v>0.9820664910283027</v>
+        <v>0.9937585049381744</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1556,58 +1613,58 @@
         <v>16</v>
       </c>
       <c r="C18">
-        <v>0.8379573888426954</v>
+        <v>0.8508147611921976</v>
       </c>
       <c r="D18">
-        <v>0.9834428399374822</v>
+        <v>1.086718002644873</v>
       </c>
       <c r="E18">
-        <v>0.8379573888426954</v>
+        <v>0.8508147611921976</v>
       </c>
       <c r="F18">
-        <v>1.071931660205956</v>
+        <v>1.017167747913226</v>
       </c>
       <c r="G18">
-        <v>1.045877591920526</v>
+        <v>1.03687161142859</v>
       </c>
       <c r="H18">
-        <v>0.8855915501618864</v>
+        <v>0.9223493486367558</v>
       </c>
       <c r="I18">
-        <v>1.232560726957728</v>
+        <v>1.032674632955802</v>
       </c>
       <c r="J18">
-        <v>0.9834428399374822</v>
+        <v>1.086718002644873</v>
       </c>
       <c r="K18">
-        <v>0.9834428399374822</v>
+        <v>1.086718002644873</v>
       </c>
       <c r="L18">
-        <v>1.071931660205956</v>
+        <v>1.017167747913226</v>
       </c>
       <c r="M18">
-        <v>0.9549445245243257</v>
+        <v>0.9339912545527116</v>
       </c>
       <c r="N18">
-        <v>0.9549445245243257</v>
+        <v>0.9339912545527116</v>
       </c>
       <c r="O18">
-        <v>0.9318268664035125</v>
+        <v>0.9301106192473929</v>
       </c>
       <c r="P18">
-        <v>0.9644439629953778</v>
+        <v>0.984900170583432</v>
       </c>
       <c r="Q18">
-        <v>0.9644439629953778</v>
+        <v>0.984900170583432</v>
       </c>
       <c r="R18">
-        <v>0.969193682230904</v>
+        <v>1.010354628598792</v>
       </c>
       <c r="S18">
-        <v>0.969193682230904</v>
+        <v>1.010354628598792</v>
       </c>
       <c r="T18">
-        <v>1.009560293004379</v>
+        <v>0.9910993507952405</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1618,58 +1675,58 @@
         <v>17</v>
       </c>
       <c r="C19">
-        <v>0.8453889087814745</v>
+        <v>0.998829381678327</v>
       </c>
       <c r="D19">
-        <v>0.9620825273444378</v>
+        <v>0.9996624008123222</v>
       </c>
       <c r="E19">
-        <v>0.8453889087814745</v>
+        <v>0.998829381678327</v>
       </c>
       <c r="F19">
-        <v>1.08267746410203</v>
+        <v>1.000628153296362</v>
       </c>
       <c r="G19">
-        <v>1.04716132412491</v>
+        <v>1.000342026726209</v>
       </c>
       <c r="H19">
-        <v>0.8755594682565484</v>
+        <v>0.9990940457761878</v>
       </c>
       <c r="I19">
-        <v>1.283768285632642</v>
+        <v>1.002152533116368</v>
       </c>
       <c r="J19">
-        <v>0.9620825273444378</v>
+        <v>0.9996624008123222</v>
       </c>
       <c r="K19">
-        <v>0.9620825273444378</v>
+        <v>0.9996624008123222</v>
       </c>
       <c r="L19">
-        <v>1.08267746410203</v>
+        <v>1.000628153296362</v>
       </c>
       <c r="M19">
-        <v>0.9640331864417522</v>
+        <v>0.9997287674873445</v>
       </c>
       <c r="N19">
-        <v>0.9640331864417522</v>
+        <v>0.9997287674873445</v>
       </c>
       <c r="O19">
-        <v>0.9345419470466844</v>
+        <v>0.9995171935836256</v>
       </c>
       <c r="P19">
-        <v>0.9633829667426473</v>
+        <v>0.9997066452623371</v>
       </c>
       <c r="Q19">
-        <v>0.9633829667426473</v>
+        <v>0.9997066452623371</v>
       </c>
       <c r="R19">
-        <v>0.963057856893095</v>
+        <v>0.9996955841498334</v>
       </c>
       <c r="S19">
-        <v>0.963057856893095</v>
+        <v>0.9996955841498334</v>
       </c>
       <c r="T19">
-        <v>1.016106329707007</v>
+        <v>1.000118090234296</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1680,58 +1737,58 @@
         <v>18</v>
       </c>
       <c r="C20">
-        <v>0.9999969330534825</v>
+        <v>0.9969494871539322</v>
       </c>
       <c r="D20">
-        <v>1.001469836565709</v>
+        <v>0.9991418896898304</v>
       </c>
       <c r="E20">
-        <v>0.9999969330534825</v>
+        <v>0.9969494871539322</v>
       </c>
       <c r="F20">
-        <v>0.9993233902257048</v>
+        <v>1.001626279777299</v>
       </c>
       <c r="G20">
-        <v>0.9999334380290275</v>
+        <v>1.000891536658972</v>
       </c>
       <c r="H20">
-        <v>0.9999007031020314</v>
+        <v>0.9976835347661708</v>
       </c>
       <c r="I20">
-        <v>0.9994084957204628</v>
+        <v>1.00539915569161</v>
       </c>
       <c r="J20">
-        <v>1.001469836565709</v>
+        <v>0.9991418896898304</v>
       </c>
       <c r="K20">
-        <v>1.001469836565709</v>
+        <v>0.9991418896898304</v>
       </c>
       <c r="L20">
-        <v>0.9993233902257048</v>
+        <v>1.001626279777299</v>
       </c>
       <c r="M20">
-        <v>0.9996601616395937</v>
+        <v>0.9992878834656157</v>
       </c>
       <c r="N20">
-        <v>0.9996601616395937</v>
+        <v>0.9992878834656157</v>
       </c>
       <c r="O20">
-        <v>0.999740342127073</v>
+        <v>0.9987531005658008</v>
       </c>
       <c r="P20">
-        <v>1.000263386614965</v>
+        <v>0.9992392188736873</v>
       </c>
       <c r="Q20">
-        <v>1.000263386614965</v>
+        <v>0.9992392188736874</v>
       </c>
       <c r="R20">
-        <v>1.000564999102651</v>
+        <v>0.9992148865777232</v>
       </c>
       <c r="S20">
-        <v>1.000564999102651</v>
+        <v>0.9992148865777232</v>
       </c>
       <c r="T20">
-        <v>1.00000546611607</v>
+        <v>1.000281980622969</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1742,58 +1799,58 @@
         <v>19</v>
       </c>
       <c r="C21">
-        <v>0.9989864180578107</v>
+        <v>0.9956206053310602</v>
       </c>
       <c r="D21">
-        <v>0.997099272592031</v>
+        <v>0.9988558075375989</v>
       </c>
       <c r="E21">
-        <v>0.9989864180578107</v>
+        <v>0.9956206053310602</v>
       </c>
       <c r="F21">
-        <v>1.001809347880481</v>
+        <v>1.002310470306105</v>
       </c>
       <c r="G21">
-        <v>1.00046046783158</v>
+        <v>1.001289075753985</v>
       </c>
       <c r="H21">
-        <v>0.9989814789260033</v>
+        <v>0.9967314232490541</v>
       </c>
       <c r="I21">
-        <v>1.004330449083714</v>
+        <v>1.007352277009889</v>
       </c>
       <c r="J21">
-        <v>0.997099272592031</v>
+        <v>0.9988558075375989</v>
       </c>
       <c r="K21">
-        <v>0.997099272592031</v>
+        <v>0.9988558075375989</v>
       </c>
       <c r="L21">
-        <v>1.001809347880481</v>
+        <v>1.002310470306105</v>
       </c>
       <c r="M21">
-        <v>1.000397882969146</v>
+        <v>0.9989655378185827</v>
       </c>
       <c r="N21">
-        <v>1.000397882969146</v>
+        <v>0.9989655378185827</v>
       </c>
       <c r="O21">
-        <v>0.9999257482880987</v>
+        <v>0.9982208329620731</v>
       </c>
       <c r="P21">
-        <v>0.9992983461767745</v>
+        <v>0.9989289610582547</v>
       </c>
       <c r="Q21">
-        <v>0.9992983461767744</v>
+        <v>0.9989289610582547</v>
       </c>
       <c r="R21">
-        <v>0.9987485777805886</v>
+        <v>0.9989106726780907</v>
       </c>
       <c r="S21">
-        <v>0.9987485777805886</v>
+        <v>0.9989106726780907</v>
       </c>
       <c r="T21">
-        <v>1.000277905728604</v>
+        <v>1.000359943197949</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1804,58 +1861,58 @@
         <v>20</v>
       </c>
       <c r="C22">
-        <v>0.990321004731909</v>
+        <v>0.9905725076192281</v>
       </c>
       <c r="D22">
-        <v>1.010771132199374</v>
+        <v>0.9975520109962775</v>
       </c>
       <c r="E22">
-        <v>0.990321004731909</v>
+        <v>0.9905725076192281</v>
       </c>
       <c r="F22">
-        <v>0.9984921422183574</v>
+        <v>1.004928111213012</v>
       </c>
       <c r="G22">
-        <v>1.001948599813492</v>
+        <v>1.002744181601122</v>
       </c>
       <c r="H22">
-        <v>0.9954462728766862</v>
+        <v>0.9929805424734059</v>
       </c>
       <c r="I22">
-        <v>0.9979806575881026</v>
+        <v>1.015964139790825</v>
       </c>
       <c r="J22">
-        <v>1.010771132199374</v>
+        <v>0.9975520109962775</v>
       </c>
       <c r="K22">
-        <v>1.010771132199374</v>
+        <v>0.9975520109962775</v>
       </c>
       <c r="L22">
-        <v>0.9984921422183574</v>
+        <v>1.004928111213012</v>
       </c>
       <c r="M22">
-        <v>0.9944065734751332</v>
+        <v>0.99775030941612</v>
       </c>
       <c r="N22">
-        <v>0.9944065734751332</v>
+        <v>0.99775030941612</v>
       </c>
       <c r="O22">
-        <v>0.9947531399423175</v>
+        <v>0.9961603871018819</v>
       </c>
       <c r="P22">
-        <v>0.9998614263832133</v>
+        <v>0.9976842099428391</v>
       </c>
       <c r="Q22">
-        <v>0.9998614263832133</v>
+        <v>0.9976842099428391</v>
       </c>
       <c r="R22">
-        <v>1.002588852837253</v>
+        <v>0.9976511602061987</v>
       </c>
       <c r="S22">
-        <v>1.002588852837253</v>
+        <v>0.9976511602061987</v>
       </c>
       <c r="T22">
-        <v>0.9991599682379867</v>
+        <v>1.000790248948978</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1866,58 +1923,1236 @@
         <v>21</v>
       </c>
       <c r="C23">
+        <v>0.9840227644181891</v>
+      </c>
+      <c r="D23">
+        <v>0.9960069245339791</v>
+      </c>
+      <c r="E23">
+        <v>0.9840227644181891</v>
+      </c>
+      <c r="F23">
+        <v>1.00829658076475</v>
+      </c>
+      <c r="G23">
+        <v>1.004659204783325</v>
+      </c>
+      <c r="H23">
+        <v>0.9883050055416779</v>
+      </c>
+      <c r="I23">
+        <v>1.025978035058752</v>
+      </c>
+      <c r="J23">
+        <v>0.9960069245339791</v>
+      </c>
+      <c r="K23">
+        <v>0.9960069245339791</v>
+      </c>
+      <c r="L23">
+        <v>1.00829658076475</v>
+      </c>
+      <c r="M23">
+        <v>0.9961596725914696</v>
+      </c>
+      <c r="N23">
+        <v>0.9961596725914696</v>
+      </c>
+      <c r="O23">
+        <v>0.9935414502415391</v>
+      </c>
+      <c r="P23">
+        <v>0.9961087565723061</v>
+      </c>
+      <c r="Q23">
+        <v>0.9961087565723061</v>
+      </c>
+      <c r="R23">
+        <v>0.9960832985627244</v>
+      </c>
+      <c r="S23">
+        <v>0.9960832985627244</v>
+      </c>
+      <c r="T23">
+        <v>1.001211419183446</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" s="1">
+        <v>22</v>
+      </c>
+      <c r="B24" t="s">
+        <v>22</v>
+      </c>
+      <c r="C24">
+        <v>1.080267262046445</v>
+      </c>
+      <c r="D24">
+        <v>1.127527155118736</v>
+      </c>
+      <c r="E24">
+        <v>1.080267262046445</v>
+      </c>
+      <c r="F24">
+        <v>0.8953116992207845</v>
+      </c>
+      <c r="G24">
+        <v>0.9631473301201483</v>
+      </c>
+      <c r="H24">
+        <v>1.102814188120078</v>
+      </c>
+      <c r="I24">
+        <v>0.6737245874500603</v>
+      </c>
+      <c r="J24">
+        <v>1.127527155118736</v>
+      </c>
+      <c r="K24">
+        <v>1.127527155118736</v>
+      </c>
+      <c r="L24">
+        <v>0.8953116992207845</v>
+      </c>
+      <c r="M24">
+        <v>0.9877894806336147</v>
+      </c>
+      <c r="N24">
+        <v>0.9877894806336147</v>
+      </c>
+      <c r="O24">
+        <v>1.026131049795769</v>
+      </c>
+      <c r="P24">
+        <v>1.034368705461988</v>
+      </c>
+      <c r="Q24">
+        <v>1.034368705461988</v>
+      </c>
+      <c r="R24">
+        <v>1.057658317876175</v>
+      </c>
+      <c r="S24">
+        <v>1.057658317876175</v>
+      </c>
+      <c r="T24">
+        <v>0.9737987036793753</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" s="1">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>23</v>
+      </c>
+      <c r="C25">
+        <v>1.105871651689555</v>
+      </c>
+      <c r="D25">
+        <v>0.9139742184728281</v>
+      </c>
+      <c r="E25">
+        <v>1.105871651689555</v>
+      </c>
+      <c r="F25">
+        <v>1.011599578839502</v>
+      </c>
+      <c r="G25">
+        <v>0.9830810821895918</v>
+      </c>
+      <c r="H25">
+        <v>1.027868926998084</v>
+      </c>
+      <c r="I25">
+        <v>1.04725053608631</v>
+      </c>
+      <c r="J25">
+        <v>0.9139742184728281</v>
+      </c>
+      <c r="K25">
+        <v>0.9139742184728281</v>
+      </c>
+      <c r="L25">
+        <v>1.011599578839502</v>
+      </c>
+      <c r="M25">
+        <v>1.058735615264528</v>
+      </c>
+      <c r="N25">
+        <v>1.058735615264528</v>
+      </c>
+      <c r="O25">
+        <v>1.048446719175714</v>
+      </c>
+      <c r="P25">
+        <v>1.010481816333962</v>
+      </c>
+      <c r="Q25">
+        <v>1.010481816333962</v>
+      </c>
+      <c r="R25">
+        <v>0.9863549168686783</v>
+      </c>
+      <c r="S25">
+        <v>0.9863549168686783</v>
+      </c>
+      <c r="T25">
+        <v>1.014940999045978</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" s="1">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>24</v>
+      </c>
+      <c r="C26">
+        <v>1.053444002678664</v>
+      </c>
+      <c r="D26">
+        <v>1.126698558724798</v>
+      </c>
+      <c r="E26">
+        <v>1.053444002678664</v>
+      </c>
+      <c r="F26">
+        <v>0.8993195493414633</v>
+      </c>
+      <c r="G26">
+        <v>0.9653813423272157</v>
+      </c>
+      <c r="H26">
+        <v>1.104919033824541</v>
+      </c>
+      <c r="I26">
+        <v>0.6594022537267511</v>
+      </c>
+      <c r="J26">
+        <v>1.126698558724798</v>
+      </c>
+      <c r="K26">
+        <v>1.126698558724798</v>
+      </c>
+      <c r="L26">
+        <v>0.8993195493414633</v>
+      </c>
+      <c r="M26">
+        <v>0.9763817760100635</v>
+      </c>
+      <c r="N26">
+        <v>0.9763817760100635</v>
+      </c>
+      <c r="O26">
+        <v>1.019227528614889</v>
+      </c>
+      <c r="P26">
+        <v>1.026487370248309</v>
+      </c>
+      <c r="Q26">
+        <v>1.026487370248309</v>
+      </c>
+      <c r="R26">
+        <v>1.051540167367431</v>
+      </c>
+      <c r="S26">
+        <v>1.051540167367431</v>
+      </c>
+      <c r="T26">
+        <v>0.968194123437239</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20">
+      <c r="A27" s="1">
+        <v>25</v>
+      </c>
+      <c r="B27" t="s">
+        <v>25</v>
+      </c>
+      <c r="C27">
+        <v>1.135133668889213</v>
+      </c>
+      <c r="D27">
+        <v>0.9231567271928247</v>
+      </c>
+      <c r="E27">
+        <v>1.135133668889213</v>
+      </c>
+      <c r="F27">
+        <v>1.005650729601812</v>
+      </c>
+      <c r="G27">
+        <v>0.9816467784465805</v>
+      </c>
+      <c r="H27">
+        <v>1.023730524479248</v>
+      </c>
+      <c r="I27">
+        <v>1.053984172014309</v>
+      </c>
+      <c r="J27">
+        <v>0.9231567271928247</v>
+      </c>
+      <c r="K27">
+        <v>0.9231567271928247</v>
+      </c>
+      <c r="L27">
+        <v>1.005650729601812</v>
+      </c>
+      <c r="M27">
+        <v>1.070392199245513</v>
+      </c>
+      <c r="N27">
+        <v>1.070392199245513</v>
+      </c>
+      <c r="O27">
+        <v>1.054838307656758</v>
+      </c>
+      <c r="P27">
+        <v>1.021313708561283</v>
+      </c>
+      <c r="Q27">
+        <v>1.021313708561283</v>
+      </c>
+      <c r="R27">
+        <v>0.9967744632191686</v>
+      </c>
+      <c r="S27">
+        <v>0.9967744632191686</v>
+      </c>
+      <c r="T27">
+        <v>1.020550433437331</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20">
+      <c r="A28" s="1">
+        <v>26</v>
+      </c>
+      <c r="B28" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28">
+        <v>0.4597917765546066</v>
+      </c>
+      <c r="D28">
+        <v>1.296794185427375</v>
+      </c>
+      <c r="E28">
+        <v>0.4597917765546066</v>
+      </c>
+      <c r="F28">
+        <v>1.063039982117407</v>
+      </c>
+      <c r="G28">
+        <v>1.130325596334037</v>
+      </c>
+      <c r="H28">
+        <v>0.7256780308577407</v>
+      </c>
+      <c r="I28">
+        <v>1.133530425120989</v>
+      </c>
+      <c r="J28">
+        <v>1.296794185427375</v>
+      </c>
+      <c r="K28">
+        <v>1.296794185427375</v>
+      </c>
+      <c r="L28">
+        <v>1.063039982117407</v>
+      </c>
+      <c r="M28">
+        <v>0.7614158793360066</v>
+      </c>
+      <c r="N28">
+        <v>0.7614158793360066</v>
+      </c>
+      <c r="O28">
+        <v>0.7495032631765847</v>
+      </c>
+      <c r="P28">
+        <v>0.9398753146997961</v>
+      </c>
+      <c r="Q28">
+        <v>0.9398753146997961</v>
+      </c>
+      <c r="R28">
+        <v>1.029105032381691</v>
+      </c>
+      <c r="S28">
+        <v>1.029105032381691</v>
+      </c>
+      <c r="T28">
+        <v>0.968193332735359</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20">
+      <c r="A29" s="1">
+        <v>27</v>
+      </c>
+      <c r="B29" t="s">
+        <v>27</v>
+      </c>
+      <c r="C29">
+        <v>0.5858586969045977</v>
+      </c>
+      <c r="D29">
+        <v>1.191992379287223</v>
+      </c>
+      <c r="E29">
+        <v>0.5858586969045977</v>
+      </c>
+      <c r="F29">
+        <v>1.066177338039494</v>
+      </c>
+      <c r="G29">
+        <v>1.10219556461719</v>
+      </c>
+      <c r="H29">
+        <v>0.7788446022122847</v>
+      </c>
+      <c r="I29">
+        <v>1.167330365109026</v>
+      </c>
+      <c r="J29">
+        <v>1.191992379287223</v>
+      </c>
+      <c r="K29">
+        <v>1.191992379287223</v>
+      </c>
+      <c r="L29">
+        <v>1.066177338039494</v>
+      </c>
+      <c r="M29">
+        <v>0.8260180174720457</v>
+      </c>
+      <c r="N29">
+        <v>0.8260180174720457</v>
+      </c>
+      <c r="O29">
+        <v>0.8102935457187921</v>
+      </c>
+      <c r="P29">
+        <v>0.9480094714104382</v>
+      </c>
+      <c r="Q29">
+        <v>0.9480094714104382</v>
+      </c>
+      <c r="R29">
+        <v>1.009005198379635</v>
+      </c>
+      <c r="S29">
+        <v>1.009005198379635</v>
+      </c>
+      <c r="T29">
+        <v>0.9820664910283027</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20">
+      <c r="A30" s="1">
+        <v>28</v>
+      </c>
+      <c r="B30" t="s">
+        <v>28</v>
+      </c>
+      <c r="C30">
+        <v>0.8379573888426954</v>
+      </c>
+      <c r="D30">
+        <v>0.9834428399374822</v>
+      </c>
+      <c r="E30">
+        <v>0.8379573888426954</v>
+      </c>
+      <c r="F30">
+        <v>1.071931660205956</v>
+      </c>
+      <c r="G30">
+        <v>1.045877591920526</v>
+      </c>
+      <c r="H30">
+        <v>0.8855915501618864</v>
+      </c>
+      <c r="I30">
+        <v>1.232560726957728</v>
+      </c>
+      <c r="J30">
+        <v>0.9834428399374822</v>
+      </c>
+      <c r="K30">
+        <v>0.9834428399374822</v>
+      </c>
+      <c r="L30">
+        <v>1.071931660205956</v>
+      </c>
+      <c r="M30">
+        <v>0.9549445245243257</v>
+      </c>
+      <c r="N30">
+        <v>0.9549445245243257</v>
+      </c>
+      <c r="O30">
+        <v>0.9318268664035125</v>
+      </c>
+      <c r="P30">
+        <v>0.9644439629953778</v>
+      </c>
+      <c r="Q30">
+        <v>0.9644439629953778</v>
+      </c>
+      <c r="R30">
+        <v>0.969193682230904</v>
+      </c>
+      <c r="S30">
+        <v>0.969193682230904</v>
+      </c>
+      <c r="T30">
+        <v>1.009560293004379</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20">
+      <c r="A31" s="1">
+        <v>29</v>
+      </c>
+      <c r="B31" t="s">
+        <v>29</v>
+      </c>
+      <c r="C31">
+        <v>0.8453889087814745</v>
+      </c>
+      <c r="D31">
+        <v>0.9620825273444378</v>
+      </c>
+      <c r="E31">
+        <v>0.8453889087814745</v>
+      </c>
+      <c r="F31">
+        <v>1.08267746410203</v>
+      </c>
+      <c r="G31">
+        <v>1.04716132412491</v>
+      </c>
+      <c r="H31">
+        <v>0.8755594682565484</v>
+      </c>
+      <c r="I31">
+        <v>1.283768285632642</v>
+      </c>
+      <c r="J31">
+        <v>0.9620825273444378</v>
+      </c>
+      <c r="K31">
+        <v>0.9620825273444378</v>
+      </c>
+      <c r="L31">
+        <v>1.08267746410203</v>
+      </c>
+      <c r="M31">
+        <v>0.9640331864417522</v>
+      </c>
+      <c r="N31">
+        <v>0.9640331864417522</v>
+      </c>
+      <c r="O31">
+        <v>0.9345419470466844</v>
+      </c>
+      <c r="P31">
+        <v>0.9633829667426473</v>
+      </c>
+      <c r="Q31">
+        <v>0.9633829667426473</v>
+      </c>
+      <c r="R31">
+        <v>0.963057856893095</v>
+      </c>
+      <c r="S31">
+        <v>0.963057856893095</v>
+      </c>
+      <c r="T31">
+        <v>1.016106329707007</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20">
+      <c r="A32" s="1">
+        <v>30</v>
+      </c>
+      <c r="B32" t="s">
+        <v>30</v>
+      </c>
+      <c r="C32">
+        <v>0.3348796389041096</v>
+      </c>
+      <c r="D32">
+        <v>1.393464332191781</v>
+      </c>
+      <c r="E32">
+        <v>0.3348796389041096</v>
+      </c>
+      <c r="F32">
+        <v>1.063422783835616</v>
+      </c>
+      <c r="G32">
+        <v>1.158559380821918</v>
+      </c>
+      <c r="H32">
+        <v>0.6724543941095891</v>
+      </c>
+      <c r="I32">
+        <v>1.106801778356164</v>
+      </c>
+      <c r="J32">
+        <v>1.393464332191781</v>
+      </c>
+      <c r="K32">
+        <v>1.393464332191781</v>
+      </c>
+      <c r="L32">
+        <v>1.063422783835616</v>
+      </c>
+      <c r="M32">
+        <v>0.6991512113698628</v>
+      </c>
+      <c r="N32">
+        <v>0.6991512113698628</v>
+      </c>
+      <c r="O32">
+        <v>0.6902522722831049</v>
+      </c>
+      <c r="P32">
+        <v>0.9305889183105024</v>
+      </c>
+      <c r="Q32">
+        <v>0.9305889183105024</v>
+      </c>
+      <c r="R32">
+        <v>1.046307771780822</v>
+      </c>
+      <c r="S32">
+        <v>1.046307771780822</v>
+      </c>
+      <c r="T32">
+        <v>0.9549303847031964</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20">
+      <c r="A33" s="1">
+        <v>31</v>
+      </c>
+      <c r="B33" t="s">
+        <v>31</v>
+      </c>
+      <c r="C33">
+        <v>0.669678258368421</v>
+      </c>
+      <c r="D33">
+        <v>1.111135619473684</v>
+      </c>
+      <c r="E33">
+        <v>0.669678258368421</v>
+      </c>
+      <c r="F33">
+        <v>1.050632406315789</v>
+      </c>
+      <c r="G33">
+        <v>1.067491762631579</v>
+      </c>
+      <c r="H33">
+        <v>0.8657962342105263</v>
+      </c>
+      <c r="I33">
+        <v>1.099800155263158</v>
+      </c>
+      <c r="J33">
+        <v>1.111135619473684</v>
+      </c>
+      <c r="K33">
+        <v>1.111135619473684</v>
+      </c>
+      <c r="L33">
+        <v>1.050632406315789</v>
+      </c>
+      <c r="M33">
+        <v>0.8601553323421052</v>
+      </c>
+      <c r="N33">
+        <v>0.8601553323421052</v>
+      </c>
+      <c r="O33">
+        <v>0.8620356329649121</v>
+      </c>
+      <c r="P33">
+        <v>0.9438154280526315</v>
+      </c>
+      <c r="Q33">
+        <v>0.9438154280526315</v>
+      </c>
+      <c r="R33">
+        <v>0.9856454759078948</v>
+      </c>
+      <c r="S33">
+        <v>0.9856454759078948</v>
+      </c>
+      <c r="T33">
+        <v>0.9774224060438597</v>
+      </c>
+    </row>
+    <row r="34" spans="1:20">
+      <c r="A34" s="1">
+        <v>32</v>
+      </c>
+      <c r="B34" t="s">
+        <v>32</v>
+      </c>
+      <c r="C34">
+        <v>0.9472642307894736</v>
+      </c>
+      <c r="D34">
+        <v>0.8602364652631579</v>
+      </c>
+      <c r="E34">
+        <v>0.9472642307894736</v>
+      </c>
+      <c r="F34">
+        <v>1.115914937368421</v>
+      </c>
+      <c r="G34">
+        <v>1.039818055789474</v>
+      </c>
+      <c r="H34">
+        <v>0.863192307894737</v>
+      </c>
+      <c r="I34">
+        <v>1.445800180526316</v>
+      </c>
+      <c r="J34">
+        <v>0.8602364652631579</v>
+      </c>
+      <c r="K34">
+        <v>0.8602364652631579</v>
+      </c>
+      <c r="L34">
+        <v>1.115914937368421</v>
+      </c>
+      <c r="M34">
+        <v>1.031589584078947</v>
+      </c>
+      <c r="N34">
+        <v>1.031589584078947</v>
+      </c>
+      <c r="O34">
+        <v>0.9754571586842106</v>
+      </c>
+      <c r="P34">
+        <v>0.9744718778070175</v>
+      </c>
+      <c r="Q34">
+        <v>0.9744718778070176</v>
+      </c>
+      <c r="R34">
+        <v>0.9459130246710526</v>
+      </c>
+      <c r="S34">
+        <v>0.9459130246710526</v>
+      </c>
+      <c r="T34">
+        <v>1.045371029605263</v>
+      </c>
+    </row>
+    <row r="35" spans="1:20">
+      <c r="A35" s="1">
+        <v>33</v>
+      </c>
+      <c r="B35" t="s">
+        <v>33</v>
+      </c>
+      <c r="C35">
+        <v>0.4483977129211789</v>
+      </c>
+      <c r="D35">
+        <v>0.8255645141839735</v>
+      </c>
+      <c r="E35">
+        <v>0.4483977129211789</v>
+      </c>
+      <c r="F35">
+        <v>1.304544397278093</v>
+      </c>
+      <c r="G35">
+        <v>1.162410488660076</v>
+      </c>
+      <c r="H35">
+        <v>0.5559713931251218</v>
+      </c>
+      <c r="I35">
+        <v>2.09270345899911</v>
+      </c>
+      <c r="J35">
+        <v>0.8255645141839735</v>
+      </c>
+      <c r="K35">
+        <v>0.8255645141839735</v>
+      </c>
+      <c r="L35">
+        <v>1.304544397278093</v>
+      </c>
+      <c r="M35">
+        <v>0.8764710550996357</v>
+      </c>
+      <c r="N35">
+        <v>0.8764710550996357</v>
+      </c>
+      <c r="O35">
+        <v>0.7696378344414644</v>
+      </c>
+      <c r="P35">
+        <v>0.8595022081277484</v>
+      </c>
+      <c r="Q35">
+        <v>0.8595022081277484</v>
+      </c>
+      <c r="R35">
+        <v>0.8510177846418047</v>
+      </c>
+      <c r="S35">
+        <v>0.8510177846418047</v>
+      </c>
+      <c r="T35">
+        <v>1.064931994194592</v>
+      </c>
+    </row>
+    <row r="36" spans="1:20">
+      <c r="A36" s="1">
+        <v>34</v>
+      </c>
+      <c r="B36" t="s">
+        <v>34</v>
+      </c>
+      <c r="C36">
+        <v>0.9999969330534825</v>
+      </c>
+      <c r="D36">
+        <v>1.001469836565709</v>
+      </c>
+      <c r="E36">
+        <v>0.9999969330534825</v>
+      </c>
+      <c r="F36">
+        <v>0.9993233902257048</v>
+      </c>
+      <c r="G36">
+        <v>0.9999334380290275</v>
+      </c>
+      <c r="H36">
+        <v>0.9999007031020314</v>
+      </c>
+      <c r="I36">
+        <v>0.9994084957204628</v>
+      </c>
+      <c r="J36">
+        <v>1.001469836565709</v>
+      </c>
+      <c r="K36">
+        <v>1.001469836565709</v>
+      </c>
+      <c r="L36">
+        <v>0.9993233902257048</v>
+      </c>
+      <c r="M36">
+        <v>0.9996601616395937</v>
+      </c>
+      <c r="N36">
+        <v>0.9996601616395937</v>
+      </c>
+      <c r="O36">
+        <v>0.999740342127073</v>
+      </c>
+      <c r="P36">
+        <v>1.000263386614965</v>
+      </c>
+      <c r="Q36">
+        <v>1.000263386614965</v>
+      </c>
+      <c r="R36">
+        <v>1.000564999102651</v>
+      </c>
+      <c r="S36">
+        <v>1.000564999102651</v>
+      </c>
+      <c r="T36">
+        <v>1.00000546611607</v>
+      </c>
+    </row>
+    <row r="37" spans="1:20">
+      <c r="A37" s="1">
+        <v>35</v>
+      </c>
+      <c r="B37" t="s">
+        <v>35</v>
+      </c>
+      <c r="C37">
+        <v>0.9989864180578107</v>
+      </c>
+      <c r="D37">
+        <v>0.997099272592031</v>
+      </c>
+      <c r="E37">
+        <v>0.9989864180578107</v>
+      </c>
+      <c r="F37">
+        <v>1.001809347880481</v>
+      </c>
+      <c r="G37">
+        <v>1.00046046783158</v>
+      </c>
+      <c r="H37">
+        <v>0.9989814789260033</v>
+      </c>
+      <c r="I37">
+        <v>1.004330449083714</v>
+      </c>
+      <c r="J37">
+        <v>0.997099272592031</v>
+      </c>
+      <c r="K37">
+        <v>0.997099272592031</v>
+      </c>
+      <c r="L37">
+        <v>1.001809347880481</v>
+      </c>
+      <c r="M37">
+        <v>1.000397882969146</v>
+      </c>
+      <c r="N37">
+        <v>1.000397882969146</v>
+      </c>
+      <c r="O37">
+        <v>0.9999257482880987</v>
+      </c>
+      <c r="P37">
+        <v>0.9992983461767745</v>
+      </c>
+      <c r="Q37">
+        <v>0.9992983461767744</v>
+      </c>
+      <c r="R37">
+        <v>0.9987485777805886</v>
+      </c>
+      <c r="S37">
+        <v>0.9987485777805886</v>
+      </c>
+      <c r="T37">
+        <v>1.000277905728604</v>
+      </c>
+    </row>
+    <row r="38" spans="1:20">
+      <c r="A38" s="1">
+        <v>36</v>
+      </c>
+      <c r="B38" t="s">
+        <v>36</v>
+      </c>
+      <c r="C38">
+        <v>0.990321004731909</v>
+      </c>
+      <c r="D38">
+        <v>1.010771132199374</v>
+      </c>
+      <c r="E38">
+        <v>0.990321004731909</v>
+      </c>
+      <c r="F38">
+        <v>0.9984921422183574</v>
+      </c>
+      <c r="G38">
+        <v>1.001948599813492</v>
+      </c>
+      <c r="H38">
+        <v>0.9954462728766862</v>
+      </c>
+      <c r="I38">
+        <v>0.9979806575881026</v>
+      </c>
+      <c r="J38">
+        <v>1.010771132199374</v>
+      </c>
+      <c r="K38">
+        <v>1.010771132199374</v>
+      </c>
+      <c r="L38">
+        <v>0.9984921422183574</v>
+      </c>
+      <c r="M38">
+        <v>0.9944065734751332</v>
+      </c>
+      <c r="N38">
+        <v>0.9944065734751332</v>
+      </c>
+      <c r="O38">
+        <v>0.9947531399423175</v>
+      </c>
+      <c r="P38">
+        <v>0.9998614263832133</v>
+      </c>
+      <c r="Q38">
+        <v>0.9998614263832133</v>
+      </c>
+      <c r="R38">
+        <v>1.002588852837253</v>
+      </c>
+      <c r="S38">
+        <v>1.002588852837253</v>
+      </c>
+      <c r="T38">
+        <v>0.9991599682379867</v>
+      </c>
+    </row>
+    <row r="39" spans="1:20">
+      <c r="A39" s="1">
+        <v>37</v>
+      </c>
+      <c r="B39" t="s">
+        <v>37</v>
+      </c>
+      <c r="C39">
         <v>0.9744697733013021</v>
       </c>
-      <c r="D23">
+      <c r="D39">
         <v>1.039525424553096</v>
       </c>
-      <c r="E23">
+      <c r="E39">
         <v>0.9744697733013021</v>
       </c>
-      <c r="F23">
+      <c r="F39">
         <v>0.9907926160953119</v>
       </c>
-      <c r="G23">
+      <c r="G39">
         <v>1.004792369175552</v>
       </c>
-      <c r="H23">
+      <c r="H39">
         <v>0.9886112154426993</v>
       </c>
-      <c r="I23">
+      <c r="I39">
         <v>0.9837664928519587</v>
       </c>
-      <c r="J23">
+      <c r="J39">
         <v>1.039525424553096</v>
       </c>
-      <c r="K23">
+      <c r="K39">
         <v>1.039525424553096</v>
       </c>
-      <c r="L23">
+      <c r="L39">
         <v>0.9907926160953119</v>
       </c>
-      <c r="M23">
+      <c r="M39">
         <v>0.9826311946983071</v>
       </c>
-      <c r="N23">
+      <c r="N39">
         <v>0.9826311946983071</v>
       </c>
-      <c r="O23">
+      <c r="O39">
         <v>0.9846245349464379</v>
       </c>
-      <c r="P23">
+      <c r="P39">
         <v>1.001595937983237</v>
       </c>
-      <c r="Q23">
+      <c r="Q39">
         <v>1.001595937983237</v>
       </c>
-      <c r="R23">
+      <c r="R39">
         <v>1.011078309625701</v>
       </c>
-      <c r="S23">
+      <c r="S39">
         <v>1.011078309625701</v>
       </c>
-      <c r="T23">
+      <c r="T39">
         <v>0.9969929819033201</v>
+      </c>
+    </row>
+    <row r="40" spans="1:20">
+      <c r="A40" s="1">
+        <v>38</v>
+      </c>
+      <c r="B40" t="s">
+        <v>38</v>
+      </c>
+      <c r="C40">
+        <v>0.8937750447909084</v>
+      </c>
+      <c r="D40">
+        <v>1.090924663405179</v>
+      </c>
+      <c r="E40">
+        <v>0.8937750447909084</v>
+      </c>
+      <c r="F40">
+        <v>0.9946592675905426</v>
+      </c>
+      <c r="G40">
+        <v>1.022485134704496</v>
+      </c>
+      <c r="H40">
+        <v>0.9527983383099287</v>
+      </c>
+      <c r="I40">
+        <v>0.988143070489452</v>
+      </c>
+      <c r="J40">
+        <v>1.090924663405179</v>
+      </c>
+      <c r="K40">
+        <v>1.090924663405179</v>
+      </c>
+      <c r="L40">
+        <v>0.9946592675905426</v>
+      </c>
+      <c r="M40">
+        <v>0.9442171561907255</v>
+      </c>
+      <c r="N40">
+        <v>0.9442171561907255</v>
+      </c>
+      <c r="O40">
+        <v>0.9470775502304599</v>
+      </c>
+      <c r="P40">
+        <v>0.9931196585955432</v>
+      </c>
+      <c r="Q40">
+        <v>0.9931196585955432</v>
+      </c>
+      <c r="R40">
+        <v>1.017570909797952</v>
+      </c>
+      <c r="S40">
+        <v>1.017570909797952</v>
+      </c>
+      <c r="T40">
+        <v>0.9904642532150844</v>
+      </c>
+    </row>
+    <row r="41" spans="1:20">
+      <c r="A41" s="1">
+        <v>39</v>
+      </c>
+      <c r="B41" t="s">
+        <v>39</v>
+      </c>
+      <c r="C41">
+        <v>1.062261281551692</v>
+      </c>
+      <c r="D41">
+        <v>0.9756616115462786</v>
+      </c>
+      <c r="E41">
+        <v>1.062261281551692</v>
+      </c>
+      <c r="F41">
+        <v>0.9903549282820628</v>
+      </c>
+      <c r="G41">
+        <v>0.9861406848278889</v>
+      </c>
+      <c r="H41">
+        <v>1.026209657972383</v>
+      </c>
+      <c r="I41">
+        <v>0.9890911732650776</v>
+      </c>
+      <c r="J41">
+        <v>0.9756616115462786</v>
+      </c>
+      <c r="K41">
+        <v>0.9756616115462786</v>
+      </c>
+      <c r="L41">
+        <v>0.9903549282820628</v>
+      </c>
+      <c r="M41">
+        <v>1.026308104916878</v>
+      </c>
+      <c r="N41">
+        <v>1.026308104916878</v>
+      </c>
+      <c r="O41">
+        <v>1.026275289268713</v>
+      </c>
+      <c r="P41">
+        <v>1.009425940460011</v>
+      </c>
+      <c r="Q41">
+        <v>1.009425940460011</v>
+      </c>
+      <c r="R41">
+        <v>1.000984858231578</v>
+      </c>
+      <c r="S41">
+        <v>1.000984858231578</v>
+      </c>
+      <c r="T41">
+        <v>1.004953222907564</v>
+      </c>
+    </row>
+    <row r="42" spans="1:20">
+      <c r="A42" s="1">
+        <v>40</v>
+      </c>
+      <c r="B42" t="s">
+        <v>40</v>
+      </c>
+      <c r="C42">
+        <v>0.6533869548997301</v>
+      </c>
+      <c r="D42">
+        <v>1.150553257623014</v>
+      </c>
+      <c r="E42">
+        <v>0.6533869548997301</v>
+      </c>
+      <c r="F42">
+        <v>1.053884649931546</v>
+      </c>
+      <c r="G42">
+        <v>1.081851374779466</v>
+      </c>
+      <c r="H42">
+        <v>0.8258356962947694</v>
+      </c>
+      <c r="I42">
+        <v>1.131900440295667</v>
+      </c>
+      <c r="J42">
+        <v>1.150553257623014</v>
+      </c>
+      <c r="K42">
+        <v>1.150553257623014</v>
+      </c>
+      <c r="L42">
+        <v>1.053884649931546</v>
+      </c>
+      <c r="M42">
+        <v>0.8536358024156381</v>
+      </c>
+      <c r="N42">
+        <v>0.8536358024156381</v>
+      </c>
+      <c r="O42">
+        <v>0.8443691003753485</v>
+      </c>
+      <c r="P42">
+        <v>0.9526082874847633</v>
+      </c>
+      <c r="Q42">
+        <v>0.9526082874847633</v>
+      </c>
+      <c r="R42">
+        <v>1.002094530019326</v>
+      </c>
+      <c r="S42">
+        <v>1.002094530019326</v>
+      </c>
+      <c r="T42">
+        <v>0.982902062304032</v>
       </c>
     </row>
   </sheetData>

--- a/JupyterNotebooks/AvgHW/Gamma2F-HW20.xlsx
+++ b/JupyterNotebooks/AvgHW/Gamma2F-HW20.xlsx
@@ -14,36 +14,69 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="46">
   <si>
     <t>HKL</t>
   </si>
   <si>
-    <t>BT8Hex_2.5</t>
-  </si>
-  <si>
-    <t>BT8Hex_5</t>
-  </si>
-  <si>
-    <t>BT8Hex_10</t>
-  </si>
-  <si>
-    <t>BT8Hex_15</t>
-  </si>
-  <si>
-    <t>Spiral2.5</t>
-  </si>
-  <si>
     <t>Spiral5</t>
   </si>
   <si>
-    <t>Spiral7.5</t>
-  </si>
-  <si>
-    <t>Spiral10</t>
-  </si>
-  <si>
-    <t>Spiral15</t>
+    <t>RotRing OmegaMax-90</t>
+  </si>
+  <si>
+    <t>Equal Angle</t>
+  </si>
+  <si>
+    <t>Tilt Rotate</t>
+  </si>
+  <si>
+    <t>CLR</t>
+  </si>
+  <si>
+    <t>Rizzie Hex</t>
+  </si>
+  <si>
+    <t>Thomas Hex</t>
+  </si>
+  <si>
+    <t>Tilt Rotate_Partial</t>
+  </si>
+  <si>
+    <t>RotRing OmegaMax-60</t>
+  </si>
+  <si>
+    <t>Equal Angle_Partial</t>
+  </si>
+  <si>
+    <t>Rizzie Hex_Partial</t>
+  </si>
+  <si>
+    <t>ND Single</t>
+  </si>
+  <si>
+    <t>RD Single</t>
+  </si>
+  <si>
+    <t>TD Single</t>
+  </si>
+  <si>
+    <t>Morris Single</t>
+  </si>
+  <si>
+    <t>Ring Perpendicular to ND</t>
+  </si>
+  <si>
+    <t>Ring Perpendicular to RD</t>
+  </si>
+  <si>
+    <t>Ring Perpendicular to TD</t>
+  </si>
+  <si>
+    <t>OffsetFTD</t>
+  </si>
+  <si>
+    <t>OffsetATD</t>
   </si>
   <si>
     <t>OffsetF45</t>
@@ -52,46 +85,43 @@
     <t>OffsetA45</t>
   </si>
   <si>
-    <t>OffsetFTD</t>
-  </si>
-  <si>
-    <t>OffsetATD</t>
-  </si>
-  <si>
-    <t>HexGrid-90degTilt2.5degRes</t>
-  </si>
-  <si>
-    <t>HexGrid-90degTilt5degRes</t>
-  </si>
-  <si>
-    <t>HexGrid-90degTilt10degRes</t>
-  </si>
-  <si>
-    <t>HexGrid-90degTilt15degRes</t>
+    <t>OffsetFRD</t>
+  </si>
+  <si>
+    <t>OffsetARD</t>
+  </si>
+  <si>
+    <t>Gaussian Quadrature</t>
+  </si>
+  <si>
+    <t>Michael-CCHex</t>
+  </si>
+  <si>
+    <t>Michael-SNHex</t>
+  </si>
+  <si>
+    <t>[2, 0, 0]</t>
+  </si>
+  <si>
+    <t>[2, 2, 0]</t>
+  </si>
+  <si>
+    <t>[4, 0, 0]</t>
+  </si>
+  <si>
+    <t>[2, 1, 1]</t>
+  </si>
+  <si>
+    <t>[3, 2, 1]</t>
+  </si>
+  <si>
+    <t>[3, 1, 0]</t>
+  </si>
+  <si>
+    <t>[2, 2, 2]</t>
   </si>
   <si>
     <t>[1, 1, 0]</t>
-  </si>
-  <si>
-    <t>[2, 0, 0]</t>
-  </si>
-  <si>
-    <t>[2, 1, 1]</t>
-  </si>
-  <si>
-    <t>[2, 2, 0]</t>
-  </si>
-  <si>
-    <t>[2, 2, 2]</t>
-  </si>
-  <si>
-    <t>[3, 1, 0]</t>
-  </si>
-  <si>
-    <t>[3, 2, 1]</t>
-  </si>
-  <si>
-    <t>[4, 0, 0]</t>
   </si>
   <si>
     <t>1Pair-A</t>
@@ -479,13 +509,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AD19"/>
+  <dimension ref="A1:T29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:30">
+    <row r="1" spans="1:20">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -543,38 +573,8 @@
       <c r="T1" s="1">
         <v>18</v>
       </c>
-      <c r="U1" s="1">
-        <v>19</v>
-      </c>
-      <c r="V1" s="1">
-        <v>20</v>
-      </c>
-      <c r="W1" s="1">
-        <v>21</v>
-      </c>
-      <c r="X1" s="1">
-        <v>22</v>
-      </c>
-      <c r="Y1" s="1">
-        <v>23</v>
-      </c>
-      <c r="Z1" s="1">
-        <v>24</v>
-      </c>
-      <c r="AA1" s="1">
-        <v>25</v>
-      </c>
-      <c r="AB1" s="1">
-        <v>26</v>
-      </c>
-      <c r="AC1" s="1">
-        <v>27</v>
-      </c>
-      <c r="AD1" s="1">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="2" spans="1:30">
+    </row>
+    <row r="2" spans="1:20">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -582,91 +582,61 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="D2" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="E2" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="F2" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="G2" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="H2" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="I2" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="J2" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="K2" t="s">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="L2" t="s">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="M2" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="N2" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="O2" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="P2" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="Q2" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="R2" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="S2" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="T2" t="s">
-        <v>35</v>
-      </c>
-      <c r="U2" t="s">
-        <v>26</v>
-      </c>
-      <c r="V2" t="s">
-        <v>27</v>
-      </c>
-      <c r="W2" t="s">
-        <v>28</v>
-      </c>
-      <c r="X2" t="s">
-        <v>29</v>
-      </c>
-      <c r="Y2" t="s">
-        <v>30</v>
-      </c>
-      <c r="Z2" t="s">
-        <v>31</v>
-      </c>
-      <c r="AA2" t="s">
-        <v>32</v>
-      </c>
-      <c r="AB2" t="s">
-        <v>33</v>
-      </c>
-      <c r="AC2" t="s">
-        <v>34</v>
-      </c>
-      <c r="AD2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="3" spans="1:30">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -674,61 +644,61 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>1.016437874047623</v>
+        <v>0.9969494871539322</v>
       </c>
       <c r="D3">
-        <v>0.9720031081708702</v>
+        <v>0.9991418896898304</v>
       </c>
       <c r="E3">
-        <v>1.002888157452474</v>
+        <v>0.9969494871539322</v>
       </c>
       <c r="F3">
-        <v>1.016437874047623</v>
+        <v>1.001626279777299</v>
       </c>
       <c r="G3">
-        <v>1.005594705383918</v>
+        <v>1.000891536658972</v>
       </c>
       <c r="H3">
-        <v>0.9857923036165754</v>
+        <v>0.9976835347661708</v>
       </c>
       <c r="I3">
-        <v>1.006779131457558</v>
+        <v>1.00539915569161</v>
       </c>
       <c r="J3">
-        <v>0.9720031081708702</v>
+        <v>0.9991418896898304</v>
       </c>
       <c r="K3">
-        <v>1.016437874047623</v>
+        <v>0.9991418896898304</v>
       </c>
       <c r="L3">
-        <v>1.002888157452474</v>
+        <v>1.001626279777299</v>
       </c>
       <c r="M3">
-        <v>0.9874456328116722</v>
+        <v>0.9992878834656157</v>
       </c>
       <c r="N3">
-        <v>0.9874456328116722</v>
+        <v>0.9992878834656157</v>
       </c>
       <c r="O3">
-        <v>0.9868945230799732</v>
+        <v>0.9987531005658008</v>
       </c>
       <c r="P3">
-        <v>0.9971097132236557</v>
+        <v>0.9992392188736873</v>
       </c>
       <c r="Q3">
-        <v>0.9971097132236557</v>
+        <v>0.9992392188736874</v>
       </c>
       <c r="R3">
-        <v>1.001941753429648</v>
+        <v>0.9992148865777232</v>
       </c>
       <c r="S3">
-        <v>1.001941753429648</v>
+        <v>0.9992148865777232</v>
       </c>
       <c r="T3">
-        <v>0.9982492133548365</v>
-      </c>
-    </row>
-    <row r="4" spans="1:30">
+        <v>1.000281980622969</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -736,61 +706,61 @@
         <v>2</v>
       </c>
       <c r="C4">
-        <v>1.031114741072964</v>
+        <v>0.8937750447909084</v>
       </c>
       <c r="D4">
-        <v>0.9457527006719663</v>
+        <v>1.090924663405179</v>
       </c>
       <c r="E4">
-        <v>1.00578699439504</v>
+        <v>0.8937750447909084</v>
       </c>
       <c r="F4">
-        <v>1.031114741072964</v>
+        <v>0.9946592675905426</v>
       </c>
       <c r="G4">
-        <v>1.011263497789926</v>
+        <v>1.022485134704496</v>
       </c>
       <c r="H4">
-        <v>0.9726800387696092</v>
+        <v>0.9527983383099287</v>
       </c>
       <c r="I4">
-        <v>1.013059236181208</v>
+        <v>0.988143070489452</v>
       </c>
       <c r="J4">
-        <v>0.9457527006719663</v>
+        <v>1.090924663405179</v>
       </c>
       <c r="K4">
-        <v>1.031114741072964</v>
+        <v>1.090924663405179</v>
       </c>
       <c r="L4">
-        <v>1.00578699439504</v>
+        <v>0.9946592675905426</v>
       </c>
       <c r="M4">
-        <v>0.975769847533503</v>
+        <v>0.9442171561907255</v>
       </c>
       <c r="N4">
-        <v>0.975769847533503</v>
+        <v>0.9442171561907255</v>
       </c>
       <c r="O4">
-        <v>0.9747399112788718</v>
+        <v>0.9470775502304599</v>
       </c>
       <c r="P4">
-        <v>0.9942181453799899</v>
+        <v>0.9931196585955432</v>
       </c>
       <c r="Q4">
-        <v>0.9942181453799899</v>
+        <v>0.9931196585955432</v>
       </c>
       <c r="R4">
-        <v>1.003442294303233</v>
+        <v>1.017570909797952</v>
       </c>
       <c r="S4">
-        <v>1.003442294303233</v>
+        <v>1.017570909797952</v>
       </c>
       <c r="T4">
-        <v>0.9966095348134522</v>
-      </c>
-    </row>
-    <row r="5" spans="1:30">
+        <v>0.9904642532150844</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -798,61 +768,61 @@
         <v>3</v>
       </c>
       <c r="C5">
-        <v>1.059158447679208</v>
+        <v>0.8096701951952449</v>
       </c>
       <c r="D5">
-        <v>0.8971275109281531</v>
+        <v>0.9828207687103755</v>
       </c>
       <c r="E5">
-        <v>1.011153006744633</v>
+        <v>0.8096701951952449</v>
       </c>
       <c r="F5">
-        <v>1.059158447679208</v>
+        <v>1.083721801145531</v>
       </c>
       <c r="G5">
-        <v>1.022610082972924</v>
+        <v>1.053904135273775</v>
       </c>
       <c r="H5">
-        <v>0.9475892021165139</v>
+        <v>0.8644012561167161</v>
       </c>
       <c r="I5">
-        <v>1.024912779187615</v>
+        <v>1.275700660569164</v>
       </c>
       <c r="J5">
-        <v>0.8971275109281531</v>
+        <v>0.9828207687103755</v>
       </c>
       <c r="K5">
-        <v>1.059158447679208</v>
+        <v>0.9828207687103755</v>
       </c>
       <c r="L5">
-        <v>1.011153006744633</v>
+        <v>1.083721801145531</v>
       </c>
       <c r="M5">
-        <v>0.954140258836393</v>
+        <v>0.9466959981703882</v>
       </c>
       <c r="N5">
-        <v>0.954140258836393</v>
+        <v>0.9466959981703882</v>
       </c>
       <c r="O5">
-        <v>0.9519565732631</v>
+        <v>0.9192644174858309</v>
       </c>
       <c r="P5">
-        <v>0.989146321783998</v>
+        <v>0.958737588350384</v>
       </c>
       <c r="Q5">
-        <v>0.989146321783998</v>
+        <v>0.958737588350384</v>
       </c>
       <c r="R5">
-        <v>1.0066493532578</v>
+        <v>0.9647583834403819</v>
       </c>
       <c r="S5">
-        <v>1.0066493532578</v>
+        <v>0.9647583834403819</v>
       </c>
       <c r="T5">
-        <v>0.9937585049381745</v>
-      </c>
-    </row>
-    <row r="6" spans="1:30">
+        <v>1.011703136168468</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -860,61 +830,61 @@
         <v>4</v>
       </c>
       <c r="C6">
-        <v>1.086718002644873</v>
+        <v>0.4483977129211789</v>
       </c>
       <c r="D6">
-        <v>0.8508147611921977</v>
+        <v>0.8255645141839735</v>
       </c>
       <c r="E6">
-        <v>1.017167747913226</v>
+        <v>0.4483977129211789</v>
       </c>
       <c r="F6">
-        <v>1.086718002644873</v>
+        <v>1.304544397278093</v>
       </c>
       <c r="G6">
-        <v>1.032674632955802</v>
+        <v>1.162410488660076</v>
       </c>
       <c r="H6">
-        <v>0.9223493486367558</v>
+        <v>0.5559713931251218</v>
       </c>
       <c r="I6">
-        <v>1.03687161142859</v>
+        <v>2.09270345899911</v>
       </c>
       <c r="J6">
-        <v>0.8508147611921977</v>
+        <v>0.8255645141839735</v>
       </c>
       <c r="K6">
-        <v>1.086718002644873</v>
+        <v>0.8255645141839735</v>
       </c>
       <c r="L6">
-        <v>1.017167747913226</v>
+        <v>1.304544397278093</v>
       </c>
       <c r="M6">
-        <v>0.9339912545527116</v>
+        <v>0.8764710550996357</v>
       </c>
       <c r="N6">
-        <v>0.9339912545527116</v>
+        <v>0.8764710550996357</v>
       </c>
       <c r="O6">
-        <v>0.9301106192473929</v>
+        <v>0.7696378344414644</v>
       </c>
       <c r="P6">
-        <v>0.984900170583432</v>
+        <v>0.8595022081277484</v>
       </c>
       <c r="Q6">
-        <v>0.984900170583432</v>
+        <v>0.8595022081277484</v>
       </c>
       <c r="R6">
-        <v>1.010354628598792</v>
+        <v>0.8510177846418047</v>
       </c>
       <c r="S6">
-        <v>1.010354628598792</v>
+        <v>0.8510177846418047</v>
       </c>
       <c r="T6">
-        <v>0.9910993507952407</v>
-      </c>
-    </row>
-    <row r="7" spans="1:30">
+        <v>1.064931994194592</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -922,61 +892,61 @@
         <v>5</v>
       </c>
       <c r="C7">
-        <v>0.9996624008123222</v>
+        <v>0.9694134231921891</v>
       </c>
       <c r="D7">
-        <v>0.9988293816783274</v>
+        <v>1.016875316380511</v>
       </c>
       <c r="E7">
-        <v>1.000628153296362</v>
+        <v>0.9694134231921891</v>
       </c>
       <c r="F7">
-        <v>0.9996624008123222</v>
+        <v>1.003532563156855</v>
       </c>
       <c r="G7">
-        <v>1.002152533116369</v>
+        <v>1.007373518465271</v>
       </c>
       <c r="H7">
-        <v>0.9990940457761878</v>
+        <v>0.9846064706231032</v>
       </c>
       <c r="I7">
-        <v>1.000342026726209</v>
+        <v>1.006933585706228</v>
       </c>
       <c r="J7">
-        <v>0.9988293816783274</v>
+        <v>1.016875316380511</v>
       </c>
       <c r="K7">
-        <v>0.9996624008123222</v>
+        <v>1.016875316380511</v>
       </c>
       <c r="L7">
-        <v>1.000628153296362</v>
+        <v>1.003532563156855</v>
       </c>
       <c r="M7">
-        <v>0.9997287674873447</v>
+        <v>0.9864729931745221</v>
       </c>
       <c r="N7">
-        <v>0.9997287674873447</v>
+        <v>0.9864729931745221</v>
       </c>
       <c r="O7">
-        <v>0.9995171935836257</v>
+        <v>0.9858508189907158</v>
       </c>
       <c r="P7">
-        <v>0.9997066452623372</v>
+        <v>0.9966071009098516</v>
       </c>
       <c r="Q7">
-        <v>0.9997066452623372</v>
+        <v>0.9966071009098516</v>
       </c>
       <c r="R7">
-        <v>0.9996955841498335</v>
+        <v>1.001674154777516</v>
       </c>
       <c r="S7">
-        <v>0.9996955841498335</v>
+        <v>1.001674154777516</v>
       </c>
       <c r="T7">
-        <v>1.000118090234296</v>
-      </c>
-    </row>
-    <row r="8" spans="1:30">
+        <v>0.9981224795873596</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -984,61 +954,61 @@
         <v>6</v>
       </c>
       <c r="C8">
-        <v>0.9991418896898306</v>
+        <v>0.9989864180578107</v>
       </c>
       <c r="D8">
-        <v>0.9969494871539326</v>
+        <v>0.997099272592031</v>
       </c>
       <c r="E8">
-        <v>1.001626279777299</v>
+        <v>0.9989864180578107</v>
       </c>
       <c r="F8">
-        <v>0.9991418896898306</v>
+        <v>1.001809347880481</v>
       </c>
       <c r="G8">
-        <v>1.00539915569161</v>
+        <v>1.00046046783158</v>
       </c>
       <c r="H8">
-        <v>0.9976835347661708</v>
+        <v>0.9989814789260033</v>
       </c>
       <c r="I8">
-        <v>1.000891536658972</v>
+        <v>1.004330449083714</v>
       </c>
       <c r="J8">
-        <v>0.9969494871539326</v>
+        <v>0.997099272592031</v>
       </c>
       <c r="K8">
-        <v>0.9991418896898306</v>
+        <v>0.997099272592031</v>
       </c>
       <c r="L8">
-        <v>1.001626279777299</v>
+        <v>1.001809347880481</v>
       </c>
       <c r="M8">
-        <v>0.9992878834656158</v>
+        <v>1.000397882969146</v>
       </c>
       <c r="N8">
-        <v>0.9992878834656158</v>
+        <v>1.000397882969146</v>
       </c>
       <c r="O8">
-        <v>0.9987531005658008</v>
+        <v>0.9999257482880987</v>
       </c>
       <c r="P8">
-        <v>0.9992392188736874</v>
+        <v>0.9992983461767745</v>
       </c>
       <c r="Q8">
-        <v>0.9992392188736874</v>
+        <v>0.9992983461767744</v>
       </c>
       <c r="R8">
-        <v>0.9992148865777232</v>
+        <v>0.9987485777805886</v>
       </c>
       <c r="S8">
-        <v>0.9992148865777232</v>
+        <v>0.9987485777805886</v>
       </c>
       <c r="T8">
-        <v>1.000281980622969</v>
-      </c>
-    </row>
-    <row r="9" spans="1:30">
+        <v>1.000277905728604</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -1046,61 +1016,61 @@
         <v>7</v>
       </c>
       <c r="C9">
-        <v>0.9988558075375989</v>
+        <v>0.9457527006719663</v>
       </c>
       <c r="D9">
-        <v>0.9956206053310602</v>
+        <v>1.031114741072964</v>
       </c>
       <c r="E9">
-        <v>1.002310470306105</v>
+        <v>0.9457527006719663</v>
       </c>
       <c r="F9">
-        <v>0.9988558075375989</v>
+        <v>1.00578699439504</v>
       </c>
       <c r="G9">
-        <v>1.007352277009889</v>
+        <v>1.013059236181208</v>
       </c>
       <c r="H9">
-        <v>0.9967314232490541</v>
+        <v>0.9726800387696092</v>
       </c>
       <c r="I9">
-        <v>1.001289075753985</v>
+        <v>1.011263497789926</v>
       </c>
       <c r="J9">
-        <v>0.9956206053310602</v>
+        <v>1.031114741072964</v>
       </c>
       <c r="K9">
-        <v>0.9988558075375989</v>
+        <v>1.031114741072964</v>
       </c>
       <c r="L9">
-        <v>1.002310470306105</v>
+        <v>1.00578699439504</v>
       </c>
       <c r="M9">
-        <v>0.9989655378185827</v>
+        <v>0.975769847533503</v>
       </c>
       <c r="N9">
-        <v>0.9989655378185827</v>
+        <v>0.975769847533503</v>
       </c>
       <c r="O9">
-        <v>0.9982208329620731</v>
+        <v>0.9747399112788718</v>
       </c>
       <c r="P9">
-        <v>0.9989289610582547</v>
+        <v>0.9942181453799899</v>
       </c>
       <c r="Q9">
-        <v>0.9989289610582549</v>
+        <v>0.9942181453799899</v>
       </c>
       <c r="R9">
-        <v>0.9989106726780909</v>
+        <v>1.003442294303233</v>
       </c>
       <c r="S9">
-        <v>0.9989106726780909</v>
+        <v>1.003442294303233</v>
       </c>
       <c r="T9">
-        <v>1.000359943197949</v>
-      </c>
-    </row>
-    <row r="10" spans="1:30">
+        <v>0.9966095348134522</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -1108,61 +1078,61 @@
         <v>8</v>
       </c>
       <c r="C10">
-        <v>0.9975520109962775</v>
+        <v>0.4474646586712768</v>
       </c>
       <c r="D10">
-        <v>0.9905725076192281</v>
+        <v>0.8177279365076804</v>
       </c>
       <c r="E10">
-        <v>1.004928111213012</v>
+        <v>0.4474646586712768</v>
       </c>
       <c r="F10">
-        <v>0.9975520109962775</v>
+        <v>1.310087885877163</v>
       </c>
       <c r="G10">
-        <v>1.015964139790825</v>
+        <v>1.164004105019434</v>
       </c>
       <c r="H10">
-        <v>0.9929805424734059</v>
+        <v>0.5493026266664762</v>
       </c>
       <c r="I10">
-        <v>1.002744181601122</v>
+        <v>2.117433343448627</v>
       </c>
       <c r="J10">
-        <v>0.9905725076192281</v>
+        <v>0.8177279365076804</v>
       </c>
       <c r="K10">
-        <v>0.9975520109962775</v>
+        <v>0.8177279365076804</v>
       </c>
       <c r="L10">
-        <v>1.004928111213012</v>
+        <v>1.310087885877163</v>
       </c>
       <c r="M10">
-        <v>0.99775030941612</v>
+        <v>0.8787762722742196</v>
       </c>
       <c r="N10">
-        <v>0.99775030941612</v>
+        <v>0.8787762722742196</v>
       </c>
       <c r="O10">
-        <v>0.9961603871018819</v>
+        <v>0.7689517237383052</v>
       </c>
       <c r="P10">
-        <v>0.9976842099428391</v>
+        <v>0.8584268270187065</v>
       </c>
       <c r="Q10">
-        <v>0.9976842099428391</v>
+        <v>0.8584268270187065</v>
       </c>
       <c r="R10">
-        <v>0.9976511602061987</v>
+        <v>0.84825210439095</v>
       </c>
       <c r="S10">
-        <v>0.9976511602061987</v>
+        <v>0.84825210439095</v>
       </c>
       <c r="T10">
-        <v>1.000790248948978</v>
-      </c>
-    </row>
-    <row r="11" spans="1:30">
+        <v>1.067670092698443</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -1170,61 +1140,61 @@
         <v>9</v>
       </c>
       <c r="C11">
-        <v>0.9960069245339791</v>
+        <v>0.9200494816217707</v>
       </c>
       <c r="D11">
-        <v>0.9840227644181891</v>
+        <v>1.075520897758565</v>
       </c>
       <c r="E11">
-        <v>1.00829658076475</v>
+        <v>0.9200494816217707</v>
       </c>
       <c r="F11">
-        <v>0.9960069245339791</v>
+        <v>0.9954867259776464</v>
       </c>
       <c r="G11">
-        <v>1.025978035058752</v>
+        <v>1.018666969995516</v>
       </c>
       <c r="H11">
-        <v>0.9883050055416779</v>
+        <v>0.9553345573539247</v>
       </c>
       <c r="I11">
-        <v>1.004659204783325</v>
+        <v>1.010076124491417</v>
       </c>
       <c r="J11">
-        <v>0.9840227644181891</v>
+        <v>1.075520897758565</v>
       </c>
       <c r="K11">
-        <v>0.9960069245339791</v>
+        <v>1.075520897758565</v>
       </c>
       <c r="L11">
-        <v>1.00829658076475</v>
+        <v>0.9954867259776464</v>
       </c>
       <c r="M11">
-        <v>0.9961596725914696</v>
+        <v>0.9577681037997086</v>
       </c>
       <c r="N11">
-        <v>0.9961596725914696</v>
+        <v>0.9577681037997086</v>
       </c>
       <c r="O11">
-        <v>0.9935414502415391</v>
+        <v>0.9569569216511139</v>
       </c>
       <c r="P11">
-        <v>0.9961087565723061</v>
+        <v>0.9970190351193273</v>
       </c>
       <c r="Q11">
-        <v>0.9961087565723061</v>
+        <v>0.9970190351193273</v>
       </c>
       <c r="R11">
-        <v>0.9960832985627244</v>
+        <v>1.016644500779137</v>
       </c>
       <c r="S11">
-        <v>0.9960832985627244</v>
+        <v>1.016644500779137</v>
       </c>
       <c r="T11">
-        <v>1.001211419183446</v>
-      </c>
-    </row>
-    <row r="12" spans="1:30">
+        <v>0.9958557928664734</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -1232,61 +1202,61 @@
         <v>10</v>
       </c>
       <c r="C12">
-        <v>1.127527155118736</v>
+        <v>0.8396729364431569</v>
       </c>
       <c r="D12">
-        <v>1.080267262046445</v>
+        <v>0.9419152214105285</v>
       </c>
       <c r="E12">
-        <v>0.8953116992207846</v>
+        <v>0.8396729364431569</v>
       </c>
       <c r="F12">
-        <v>1.127527155118736</v>
+        <v>1.096013393568419</v>
       </c>
       <c r="G12">
-        <v>0.6737245874500605</v>
+        <v>1.05053700721053</v>
       </c>
       <c r="H12">
-        <v>1.102814188120078</v>
+        <v>0.8629300401789491</v>
       </c>
       <c r="I12">
-        <v>0.9631473301201484</v>
+        <v>1.334722976052632</v>
       </c>
       <c r="J12">
-        <v>1.080267262046445</v>
+        <v>0.9419152214105285</v>
       </c>
       <c r="K12">
-        <v>1.127527155118736</v>
+        <v>0.9419152214105285</v>
       </c>
       <c r="L12">
-        <v>0.8953116992207846</v>
+        <v>1.096013393568419</v>
       </c>
       <c r="M12">
-        <v>0.9877894806336147</v>
+        <v>0.9678431650057879</v>
       </c>
       <c r="N12">
-        <v>0.9877894806336147</v>
+        <v>0.9678431650057879</v>
       </c>
       <c r="O12">
-        <v>1.026131049795769</v>
+        <v>0.9328721233968417</v>
       </c>
       <c r="P12">
-        <v>1.034368705461988</v>
+        <v>0.9592005171407014</v>
       </c>
       <c r="Q12">
-        <v>1.034368705461988</v>
+        <v>0.9592005171407015</v>
       </c>
       <c r="R12">
-        <v>1.057658317876175</v>
+        <v>0.9548791932081583</v>
       </c>
       <c r="S12">
-        <v>1.057658317876175</v>
+        <v>0.9548791932081583</v>
       </c>
       <c r="T12">
-        <v>0.9737987036793753</v>
-      </c>
-    </row>
-    <row r="13" spans="1:30">
+        <v>1.020965262477369</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1294,61 +1264,61 @@
         <v>11</v>
       </c>
       <c r="C13">
-        <v>0.9139742184728282</v>
+        <v>1.163100460249233</v>
       </c>
       <c r="D13">
-        <v>1.105871651689554</v>
+        <v>0.9775371163195569</v>
       </c>
       <c r="E13">
-        <v>1.011599578839502</v>
+        <v>1.163100460249233</v>
       </c>
       <c r="F13">
-        <v>0.9139742184728282</v>
+        <v>0.9514729658812224</v>
       </c>
       <c r="G13">
-        <v>1.04725053608631</v>
+        <v>0.9590690962862124</v>
       </c>
       <c r="H13">
-        <v>1.027868926998084</v>
+        <v>1.091724367888735</v>
       </c>
       <c r="I13">
-        <v>0.9830810821895918</v>
+        <v>0.8653993252245653</v>
       </c>
       <c r="J13">
-        <v>1.105871651689554</v>
+        <v>0.9775371163195569</v>
       </c>
       <c r="K13">
-        <v>0.9139742184728282</v>
+        <v>0.9775371163195569</v>
       </c>
       <c r="L13">
-        <v>1.011599578839502</v>
+        <v>0.9514729658812224</v>
       </c>
       <c r="M13">
-        <v>1.058735615264528</v>
+        <v>1.057286713065228</v>
       </c>
       <c r="N13">
-        <v>1.058735615264528</v>
+        <v>1.057286713065228</v>
       </c>
       <c r="O13">
-        <v>1.048446719175714</v>
+        <v>1.06876593133973</v>
       </c>
       <c r="P13">
-        <v>1.010481816333962</v>
+        <v>1.030703514150004</v>
       </c>
       <c r="Q13">
-        <v>1.010481816333962</v>
+        <v>1.030703514150004</v>
       </c>
       <c r="R13">
-        <v>0.9863549168686784</v>
+        <v>1.017411914692392</v>
       </c>
       <c r="S13">
-        <v>0.9863549168686784</v>
+        <v>1.017411914692392</v>
       </c>
       <c r="T13">
-        <v>1.014940999045978</v>
-      </c>
-    </row>
-    <row r="14" spans="1:30">
+        <v>1.001383888641588</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1356,61 +1326,61 @@
         <v>12</v>
       </c>
       <c r="C14">
-        <v>1.126698558724798</v>
+        <v>0.05435712199999995</v>
       </c>
       <c r="D14">
-        <v>1.053444002678664</v>
+        <v>0.6692091899999988</v>
       </c>
       <c r="E14">
-        <v>0.8993195493414633</v>
+        <v>0.05435712199999995</v>
       </c>
       <c r="F14">
-        <v>1.126698558724798</v>
+        <v>1.538146999999998</v>
       </c>
       <c r="G14">
-        <v>0.6594022537267511</v>
+        <v>1.280074200000001</v>
       </c>
       <c r="H14">
-        <v>1.104919033824541</v>
+        <v>0.2238942000000001</v>
       </c>
       <c r="I14">
-        <v>0.9653813423272157</v>
+        <v>2.955281000000005</v>
       </c>
       <c r="J14">
-        <v>1.053444002678664</v>
+        <v>0.6692091899999988</v>
       </c>
       <c r="K14">
-        <v>1.126698558724798</v>
+        <v>0.6692091899999988</v>
       </c>
       <c r="L14">
-        <v>0.8993195493414633</v>
+        <v>1.538146999999998</v>
       </c>
       <c r="M14">
-        <v>0.9763817760100635</v>
+        <v>0.7962520609999991</v>
       </c>
       <c r="N14">
-        <v>0.9763817760100635</v>
+        <v>0.7962520609999991</v>
       </c>
       <c r="O14">
-        <v>1.019227528614889</v>
+        <v>0.6054661073333328</v>
       </c>
       <c r="P14">
-        <v>1.026487370248309</v>
+        <v>0.7539044373333322</v>
       </c>
       <c r="Q14">
-        <v>1.026487370248308</v>
+        <v>0.7539044373333325</v>
       </c>
       <c r="R14">
-        <v>1.051540167367431</v>
+        <v>0.732730625499999</v>
       </c>
       <c r="S14">
-        <v>1.051540167367431</v>
+        <v>0.732730625499999</v>
       </c>
       <c r="T14">
-        <v>0.9681941234372387</v>
-      </c>
-    </row>
-    <row r="15" spans="1:30">
+        <v>1.120160452000001</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1418,61 +1388,61 @@
         <v>13</v>
       </c>
       <c r="C15">
-        <v>0.9231567271928247</v>
+        <v>0.44907826</v>
       </c>
       <c r="D15">
-        <v>1.135133668889213</v>
+        <v>0.82897899</v>
       </c>
       <c r="E15">
-        <v>1.005650729601812</v>
+        <v>0.44907826</v>
       </c>
       <c r="F15">
-        <v>0.9231567271928247</v>
+        <v>1.2942168</v>
       </c>
       <c r="G15">
-        <v>1.053984172014309</v>
+        <v>1.156302</v>
       </c>
       <c r="H15">
-        <v>1.023730524479248</v>
+        <v>0.69558235</v>
       </c>
       <c r="I15">
-        <v>0.9816467784465805</v>
+        <v>1.5381672</v>
       </c>
       <c r="J15">
-        <v>1.135133668889213</v>
+        <v>0.82897899</v>
       </c>
       <c r="K15">
-        <v>0.9231567271928247</v>
+        <v>0.82897899</v>
       </c>
       <c r="L15">
-        <v>1.005650729601812</v>
+        <v>1.2942168</v>
       </c>
       <c r="M15">
-        <v>1.070392199245513</v>
+        <v>0.8716475300000001</v>
       </c>
       <c r="N15">
-        <v>1.070392199245513</v>
+        <v>0.8716475300000001</v>
       </c>
       <c r="O15">
-        <v>1.054838307656758</v>
+        <v>0.8129591366666666</v>
       </c>
       <c r="P15">
-        <v>1.021313708561283</v>
+        <v>0.8574246833333333</v>
       </c>
       <c r="Q15">
-        <v>1.021313708561283</v>
+        <v>0.8574246833333333</v>
       </c>
       <c r="R15">
-        <v>0.9967744632191686</v>
+        <v>0.85031326</v>
       </c>
       <c r="S15">
-        <v>0.9967744632191686</v>
+        <v>0.85031326</v>
       </c>
       <c r="T15">
-        <v>1.020550433437331</v>
-      </c>
-    </row>
-    <row r="16" spans="1:30">
+        <v>0.9937209333333333</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1480,58 +1450,58 @@
         <v>14</v>
       </c>
       <c r="C16">
-        <v>1.001469836565708</v>
+        <v>0.21885897</v>
       </c>
       <c r="D16">
-        <v>0.9999969330534825</v>
+        <v>1.9813918</v>
       </c>
       <c r="E16">
-        <v>0.9993233902257047</v>
+        <v>0.21885897</v>
       </c>
       <c r="F16">
-        <v>1.001469836565708</v>
+        <v>0.8289786500000002</v>
       </c>
       <c r="G16">
-        <v>0.9994084957204628</v>
+        <v>1.1585466</v>
       </c>
       <c r="H16">
-        <v>0.9999007031020316</v>
+        <v>0.6454245799999999</v>
       </c>
       <c r="I16">
-        <v>0.9999334380290275</v>
+        <v>0.66920919</v>
       </c>
       <c r="J16">
-        <v>0.9999969330534825</v>
+        <v>1.9813918</v>
       </c>
       <c r="K16">
-        <v>1.001469836565708</v>
+        <v>1.9813918</v>
       </c>
       <c r="L16">
-        <v>0.9993233902257047</v>
+        <v>0.8289786500000002</v>
       </c>
       <c r="M16">
-        <v>0.9996601616395936</v>
+        <v>0.5239188100000001</v>
       </c>
       <c r="N16">
-        <v>0.9996601616395936</v>
+        <v>0.5239188100000001</v>
       </c>
       <c r="O16">
-        <v>0.999740342127073</v>
+        <v>0.5644207333333333</v>
       </c>
       <c r="P16">
-        <v>1.000263386614965</v>
+        <v>1.00974314</v>
       </c>
       <c r="Q16">
-        <v>1.000263386614965</v>
+        <v>1.00974314</v>
       </c>
       <c r="R16">
-        <v>1.000564999102651</v>
+        <v>1.252655305</v>
       </c>
       <c r="S16">
-        <v>1.000564999102651</v>
+        <v>1.252655305</v>
       </c>
       <c r="T16">
-        <v>1.00000546611607</v>
+        <v>0.9170682983333333</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1542,58 +1512,58 @@
         <v>15</v>
       </c>
       <c r="C17">
-        <v>0.9970992725920308</v>
+        <v>1.2493267</v>
       </c>
       <c r="D17">
-        <v>0.9989864180578107</v>
+        <v>0.7158522399999999</v>
       </c>
       <c r="E17">
-        <v>1.001809347880482</v>
+        <v>1.2493267</v>
       </c>
       <c r="F17">
-        <v>0.9970992725920308</v>
+        <v>1.0101296</v>
       </c>
       <c r="G17">
-        <v>1.004330449083713</v>
+        <v>0.9207874300000001</v>
       </c>
       <c r="H17">
-        <v>0.9989814789260033</v>
+        <v>1.2503385</v>
       </c>
       <c r="I17">
-        <v>1.00046046783158</v>
+        <v>0.6875831800000001</v>
       </c>
       <c r="J17">
-        <v>0.9989864180578107</v>
+        <v>0.7158522399999999</v>
       </c>
       <c r="K17">
-        <v>0.9970992725920308</v>
+        <v>0.7158522399999999</v>
       </c>
       <c r="L17">
-        <v>1.001809347880482</v>
+        <v>1.0101296</v>
       </c>
       <c r="M17">
-        <v>1.000397882969146</v>
+        <v>1.12972815</v>
       </c>
       <c r="N17">
-        <v>1.000397882969146</v>
+        <v>1.12972815</v>
       </c>
       <c r="O17">
-        <v>0.9999257482880987</v>
+        <v>1.1699316</v>
       </c>
       <c r="P17">
-        <v>0.9992983461767744</v>
+        <v>0.9917695133333333</v>
       </c>
       <c r="Q17">
-        <v>0.9992983461767745</v>
+        <v>0.9917695133333333</v>
       </c>
       <c r="R17">
-        <v>0.9987485777805886</v>
+        <v>0.9227901949999999</v>
       </c>
       <c r="S17">
-        <v>0.9987485777805886</v>
+        <v>0.9227901949999999</v>
       </c>
       <c r="T17">
-        <v>1.000277905728604</v>
+        <v>0.972336275</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1604,58 +1574,58 @@
         <v>16</v>
       </c>
       <c r="C18">
-        <v>1.010771132199374</v>
+        <v>0.3348796389041096</v>
       </c>
       <c r="D18">
-        <v>0.9903210047319094</v>
+        <v>1.393464332191781</v>
       </c>
       <c r="E18">
-        <v>0.9984921422183574</v>
+        <v>0.3348796389041096</v>
       </c>
       <c r="F18">
-        <v>1.010771132199374</v>
+        <v>1.063422783835616</v>
       </c>
       <c r="G18">
-        <v>0.9979806575881026</v>
+        <v>1.158559380821918</v>
       </c>
       <c r="H18">
-        <v>0.9954462728766865</v>
+        <v>0.6724543941095891</v>
       </c>
       <c r="I18">
-        <v>1.001948599813492</v>
+        <v>1.106801778356164</v>
       </c>
       <c r="J18">
-        <v>0.9903210047319094</v>
+        <v>1.393464332191781</v>
       </c>
       <c r="K18">
-        <v>1.010771132199374</v>
+        <v>1.393464332191781</v>
       </c>
       <c r="L18">
-        <v>0.9984921422183574</v>
+        <v>1.063422783835616</v>
       </c>
       <c r="M18">
-        <v>0.9944065734751334</v>
+        <v>0.6991512113698628</v>
       </c>
       <c r="N18">
-        <v>0.9944065734751334</v>
+        <v>0.6991512113698628</v>
       </c>
       <c r="O18">
-        <v>0.9947531399423178</v>
+        <v>0.6902522722831049</v>
       </c>
       <c r="P18">
-        <v>0.9998614263832134</v>
+        <v>0.9305889183105024</v>
       </c>
       <c r="Q18">
-        <v>0.9998614263832134</v>
+        <v>0.9305889183105024</v>
       </c>
       <c r="R18">
-        <v>1.002588852837254</v>
+        <v>1.046307771780822</v>
       </c>
       <c r="S18">
-        <v>1.002588852837254</v>
+        <v>1.046307771780822</v>
       </c>
       <c r="T18">
-        <v>0.9991599682379868</v>
+        <v>0.9549303847031964</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1666,58 +1636,678 @@
         <v>17</v>
       </c>
       <c r="C19">
-        <v>1.039525424553096</v>
+        <v>0.669678258368421</v>
       </c>
       <c r="D19">
-        <v>0.9744697733013021</v>
+        <v>1.111135619473684</v>
       </c>
       <c r="E19">
-        <v>0.9907926160953119</v>
+        <v>0.669678258368421</v>
       </c>
       <c r="F19">
-        <v>1.039525424553096</v>
+        <v>1.050632406315789</v>
       </c>
       <c r="G19">
-        <v>0.9837664928519587</v>
+        <v>1.067491762631579</v>
       </c>
       <c r="H19">
-        <v>0.9886112154426993</v>
+        <v>0.8657962342105263</v>
       </c>
       <c r="I19">
-        <v>1.004792369175552</v>
+        <v>1.099800155263158</v>
       </c>
       <c r="J19">
-        <v>0.9744697733013021</v>
+        <v>1.111135619473684</v>
       </c>
       <c r="K19">
-        <v>1.039525424553096</v>
+        <v>1.111135619473684</v>
       </c>
       <c r="L19">
-        <v>0.9907926160953119</v>
+        <v>1.050632406315789</v>
       </c>
       <c r="M19">
-        <v>0.9826311946983071</v>
+        <v>0.8601553323421052</v>
       </c>
       <c r="N19">
-        <v>0.9826311946983071</v>
+        <v>0.8601553323421052</v>
       </c>
       <c r="O19">
-        <v>0.9846245349464379</v>
+        <v>0.8620356329649121</v>
       </c>
       <c r="P19">
-        <v>1.001595937983237</v>
+        <v>0.9438154280526315</v>
       </c>
       <c r="Q19">
-        <v>1.001595937983237</v>
+        <v>0.9438154280526315</v>
       </c>
       <c r="R19">
-        <v>1.011078309625701</v>
+        <v>0.9856454759078948</v>
       </c>
       <c r="S19">
-        <v>1.011078309625701</v>
+        <v>0.9856454759078948</v>
       </c>
       <c r="T19">
-        <v>0.9969929819033201</v>
+        <v>0.9774224060438597</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" s="1">
+        <v>18</v>
+      </c>
+      <c r="B20" t="s">
+        <v>18</v>
+      </c>
+      <c r="C20">
+        <v>0.9472642307894736</v>
+      </c>
+      <c r="D20">
+        <v>0.8602364652631579</v>
+      </c>
+      <c r="E20">
+        <v>0.9472642307894736</v>
+      </c>
+      <c r="F20">
+        <v>1.115914937368421</v>
+      </c>
+      <c r="G20">
+        <v>1.039818055789474</v>
+      </c>
+      <c r="H20">
+        <v>0.863192307894737</v>
+      </c>
+      <c r="I20">
+        <v>1.445800180526316</v>
+      </c>
+      <c r="J20">
+        <v>0.8602364652631579</v>
+      </c>
+      <c r="K20">
+        <v>0.8602364652631579</v>
+      </c>
+      <c r="L20">
+        <v>1.115914937368421</v>
+      </c>
+      <c r="M20">
+        <v>1.031589584078947</v>
+      </c>
+      <c r="N20">
+        <v>1.031589584078947</v>
+      </c>
+      <c r="O20">
+        <v>0.9754571586842106</v>
+      </c>
+      <c r="P20">
+        <v>0.9744718778070175</v>
+      </c>
+      <c r="Q20">
+        <v>0.9744718778070176</v>
+      </c>
+      <c r="R20">
+        <v>0.9459130246710526</v>
+      </c>
+      <c r="S20">
+        <v>0.9459130246710526</v>
+      </c>
+      <c r="T20">
+        <v>1.045371029605263</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" s="1">
+        <v>19</v>
+      </c>
+      <c r="B21" t="s">
+        <v>19</v>
+      </c>
+      <c r="C21">
+        <v>1.053444002678664</v>
+      </c>
+      <c r="D21">
+        <v>1.126698558724798</v>
+      </c>
+      <c r="E21">
+        <v>1.053444002678664</v>
+      </c>
+      <c r="F21">
+        <v>0.8993195493414633</v>
+      </c>
+      <c r="G21">
+        <v>0.9653813423272157</v>
+      </c>
+      <c r="H21">
+        <v>1.104919033824541</v>
+      </c>
+      <c r="I21">
+        <v>0.6594022537267511</v>
+      </c>
+      <c r="J21">
+        <v>1.126698558724798</v>
+      </c>
+      <c r="K21">
+        <v>1.126698558724798</v>
+      </c>
+      <c r="L21">
+        <v>0.8993195493414633</v>
+      </c>
+      <c r="M21">
+        <v>0.9763817760100635</v>
+      </c>
+      <c r="N21">
+        <v>0.9763817760100635</v>
+      </c>
+      <c r="O21">
+        <v>1.019227528614889</v>
+      </c>
+      <c r="P21">
+        <v>1.026487370248309</v>
+      </c>
+      <c r="Q21">
+        <v>1.026487370248309</v>
+      </c>
+      <c r="R21">
+        <v>1.051540167367431</v>
+      </c>
+      <c r="S21">
+        <v>1.051540167367431</v>
+      </c>
+      <c r="T21">
+        <v>0.968194123437239</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" s="1">
+        <v>20</v>
+      </c>
+      <c r="B22" t="s">
+        <v>20</v>
+      </c>
+      <c r="C22">
+        <v>1.135133668889213</v>
+      </c>
+      <c r="D22">
+        <v>0.9231567271928247</v>
+      </c>
+      <c r="E22">
+        <v>1.135133668889213</v>
+      </c>
+      <c r="F22">
+        <v>1.005650729601812</v>
+      </c>
+      <c r="G22">
+        <v>0.9816467784465805</v>
+      </c>
+      <c r="H22">
+        <v>1.023730524479248</v>
+      </c>
+      <c r="I22">
+        <v>1.053984172014309</v>
+      </c>
+      <c r="J22">
+        <v>0.9231567271928247</v>
+      </c>
+      <c r="K22">
+        <v>0.9231567271928247</v>
+      </c>
+      <c r="L22">
+        <v>1.005650729601812</v>
+      </c>
+      <c r="M22">
+        <v>1.070392199245513</v>
+      </c>
+      <c r="N22">
+        <v>1.070392199245513</v>
+      </c>
+      <c r="O22">
+        <v>1.054838307656758</v>
+      </c>
+      <c r="P22">
+        <v>1.021313708561283</v>
+      </c>
+      <c r="Q22">
+        <v>1.021313708561283</v>
+      </c>
+      <c r="R22">
+        <v>0.9967744632191686</v>
+      </c>
+      <c r="S22">
+        <v>0.9967744632191686</v>
+      </c>
+      <c r="T22">
+        <v>1.020550433437331</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" s="1">
+        <v>21</v>
+      </c>
+      <c r="B23" t="s">
+        <v>21</v>
+      </c>
+      <c r="C23">
+        <v>1.080267262046445</v>
+      </c>
+      <c r="D23">
+        <v>1.127527155118736</v>
+      </c>
+      <c r="E23">
+        <v>1.080267262046445</v>
+      </c>
+      <c r="F23">
+        <v>0.8953116992207845</v>
+      </c>
+      <c r="G23">
+        <v>0.9631473301201483</v>
+      </c>
+      <c r="H23">
+        <v>1.102814188120078</v>
+      </c>
+      <c r="I23">
+        <v>0.6737245874500603</v>
+      </c>
+      <c r="J23">
+        <v>1.127527155118736</v>
+      </c>
+      <c r="K23">
+        <v>1.127527155118736</v>
+      </c>
+      <c r="L23">
+        <v>0.8953116992207845</v>
+      </c>
+      <c r="M23">
+        <v>0.9877894806336147</v>
+      </c>
+      <c r="N23">
+        <v>0.9877894806336147</v>
+      </c>
+      <c r="O23">
+        <v>1.026131049795769</v>
+      </c>
+      <c r="P23">
+        <v>1.034368705461988</v>
+      </c>
+      <c r="Q23">
+        <v>1.034368705461988</v>
+      </c>
+      <c r="R23">
+        <v>1.057658317876175</v>
+      </c>
+      <c r="S23">
+        <v>1.057658317876175</v>
+      </c>
+      <c r="T23">
+        <v>0.9737987036793753</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" s="1">
+        <v>22</v>
+      </c>
+      <c r="B24" t="s">
+        <v>22</v>
+      </c>
+      <c r="C24">
+        <v>1.105871651689555</v>
+      </c>
+      <c r="D24">
+        <v>0.9139742184728281</v>
+      </c>
+      <c r="E24">
+        <v>1.105871651689555</v>
+      </c>
+      <c r="F24">
+        <v>1.011599578839502</v>
+      </c>
+      <c r="G24">
+        <v>0.9830810821895918</v>
+      </c>
+      <c r="H24">
+        <v>1.027868926998084</v>
+      </c>
+      <c r="I24">
+        <v>1.04725053608631</v>
+      </c>
+      <c r="J24">
+        <v>0.9139742184728281</v>
+      </c>
+      <c r="K24">
+        <v>0.9139742184728281</v>
+      </c>
+      <c r="L24">
+        <v>1.011599578839502</v>
+      </c>
+      <c r="M24">
+        <v>1.058735615264528</v>
+      </c>
+      <c r="N24">
+        <v>1.058735615264528</v>
+      </c>
+      <c r="O24">
+        <v>1.048446719175714</v>
+      </c>
+      <c r="P24">
+        <v>1.010481816333962</v>
+      </c>
+      <c r="Q24">
+        <v>1.010481816333962</v>
+      </c>
+      <c r="R24">
+        <v>0.9863549168686783</v>
+      </c>
+      <c r="S24">
+        <v>0.9863549168686783</v>
+      </c>
+      <c r="T24">
+        <v>1.014940999045978</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" s="1">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>23</v>
+      </c>
+      <c r="C25">
+        <v>1.107087443503483</v>
+      </c>
+      <c r="D25">
+        <v>1.128361151121473</v>
+      </c>
+      <c r="E25">
+        <v>1.107087443503483</v>
+      </c>
+      <c r="F25">
+        <v>0.891301035322422</v>
+      </c>
+      <c r="G25">
+        <v>0.9609145883466521</v>
+      </c>
+      <c r="H25">
+        <v>1.100708056629049</v>
+      </c>
+      <c r="I25">
+        <v>0.6880432126971828</v>
+      </c>
+      <c r="J25">
+        <v>1.128361151121473</v>
+      </c>
+      <c r="K25">
+        <v>1.128361151121473</v>
+      </c>
+      <c r="L25">
+        <v>0.891301035322422</v>
+      </c>
+      <c r="M25">
+        <v>0.9991942394129523</v>
+      </c>
+      <c r="N25">
+        <v>0.9991942394129523</v>
+      </c>
+      <c r="O25">
+        <v>1.033032178484985</v>
+      </c>
+      <c r="P25">
+        <v>1.042249876649126</v>
+      </c>
+      <c r="Q25">
+        <v>1.042249876649126</v>
+      </c>
+      <c r="R25">
+        <v>1.063777695267213</v>
+      </c>
+      <c r="S25">
+        <v>1.063777695267213</v>
+      </c>
+      <c r="T25">
+        <v>0.9794025812700435</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" s="1">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>24</v>
+      </c>
+      <c r="C26">
+        <v>1.076606204492706</v>
+      </c>
+      <c r="D26">
+        <v>0.9047881727362348</v>
+      </c>
+      <c r="E26">
+        <v>1.076606204492706</v>
+      </c>
+      <c r="F26">
+        <v>1.017551132364165</v>
+      </c>
+      <c r="G26">
+        <v>0.9845158143904192</v>
+      </c>
+      <c r="H26">
+        <v>1.032007042247372</v>
+      </c>
+      <c r="I26">
+        <v>1.040518722878225</v>
+      </c>
+      <c r="J26">
+        <v>0.9047881727362348</v>
+      </c>
+      <c r="K26">
+        <v>0.9047881727362348</v>
+      </c>
+      <c r="L26">
+        <v>1.017551132364165</v>
+      </c>
+      <c r="M26">
+        <v>1.047078668428436</v>
+      </c>
+      <c r="N26">
+        <v>1.047078668428436</v>
+      </c>
+      <c r="O26">
+        <v>1.042054793034748</v>
+      </c>
+      <c r="P26">
+        <v>0.9996485031977022</v>
+      </c>
+      <c r="Q26">
+        <v>0.9996485031977019</v>
+      </c>
+      <c r="R26">
+        <v>0.9759334205823351</v>
+      </c>
+      <c r="S26">
+        <v>0.9759334205823351</v>
+      </c>
+      <c r="T26">
+        <v>1.009331181518187</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20">
+      <c r="A27" s="1">
+        <v>25</v>
+      </c>
+      <c r="B27" t="s">
+        <v>25</v>
+      </c>
+      <c r="C27">
+        <v>0.8671869277146578</v>
+      </c>
+      <c r="D27">
+        <v>1.026860987567429</v>
+      </c>
+      <c r="E27">
+        <v>0.8671869277146578</v>
+      </c>
+      <c r="F27">
+        <v>1.020719074818317</v>
+      </c>
+      <c r="G27">
+        <v>1.021810715707127</v>
+      </c>
+      <c r="H27">
+        <v>0.9580449707295701</v>
+      </c>
+      <c r="I27">
+        <v>1.04552408960256</v>
+      </c>
+      <c r="J27">
+        <v>1.026860987567429</v>
+      </c>
+      <c r="K27">
+        <v>1.026860987567429</v>
+      </c>
+      <c r="L27">
+        <v>1.020719074818317</v>
+      </c>
+      <c r="M27">
+        <v>0.9439530012664874</v>
+      </c>
+      <c r="N27">
+        <v>0.9439530012664874</v>
+      </c>
+      <c r="O27">
+        <v>0.9486503244208483</v>
+      </c>
+      <c r="P27">
+        <v>0.9715889967001345</v>
+      </c>
+      <c r="Q27">
+        <v>0.9715889967001345</v>
+      </c>
+      <c r="R27">
+        <v>0.9854069944169581</v>
+      </c>
+      <c r="S27">
+        <v>0.9854069944169581</v>
+      </c>
+      <c r="T27">
+        <v>0.9900244610232768</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20">
+      <c r="A28" s="1">
+        <v>26</v>
+      </c>
+      <c r="B28" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28">
+        <v>0.9870913142870338</v>
+      </c>
+      <c r="D28">
+        <v>1.103169834263911</v>
+      </c>
+      <c r="E28">
+        <v>0.9870913142870338</v>
+      </c>
+      <c r="F28">
+        <v>0.9593283925758731</v>
+      </c>
+      <c r="G28">
+        <v>0.9998344357189669</v>
+      </c>
+      <c r="H28">
+        <v>1.000752820393059</v>
+      </c>
+      <c r="I28">
+        <v>0.8959004395855994</v>
+      </c>
+      <c r="J28">
+        <v>1.103169834263911</v>
+      </c>
+      <c r="K28">
+        <v>1.103169834263911</v>
+      </c>
+      <c r="L28">
+        <v>0.9593283925758731</v>
+      </c>
+      <c r="M28">
+        <v>0.9732098534314535</v>
+      </c>
+      <c r="N28">
+        <v>0.9732098534314535</v>
+      </c>
+      <c r="O28">
+        <v>0.9823908424186554</v>
+      </c>
+      <c r="P28">
+        <v>1.016529847042273</v>
+      </c>
+      <c r="Q28">
+        <v>1.016529847042273</v>
+      </c>
+      <c r="R28">
+        <v>1.038189843847682</v>
+      </c>
+      <c r="S28">
+        <v>1.038189843847682</v>
+      </c>
+      <c r="T28">
+        <v>0.9910128728040739</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20">
+      <c r="A29" s="1">
+        <v>27</v>
+      </c>
+      <c r="B29" t="s">
+        <v>27</v>
+      </c>
+      <c r="C29">
+        <v>1.106582592541478</v>
+      </c>
+      <c r="D29">
+        <v>1.008885408821134</v>
+      </c>
+      <c r="E29">
+        <v>1.106582592541478</v>
+      </c>
+      <c r="F29">
+        <v>0.9309738253402426</v>
+      </c>
+      <c r="G29">
+        <v>0.9506696282132797</v>
+      </c>
+      <c r="H29">
+        <v>1.158354224723915</v>
+      </c>
+      <c r="I29">
+        <v>0.6273451123785148</v>
+      </c>
+      <c r="J29">
+        <v>1.008885408821134</v>
+      </c>
+      <c r="K29">
+        <v>1.008885408821134</v>
+      </c>
+      <c r="L29">
+        <v>0.9309738253402426</v>
+      </c>
+      <c r="M29">
+        <v>1.01877820894086</v>
+      </c>
+      <c r="N29">
+        <v>1.01877820894086</v>
+      </c>
+      <c r="O29">
+        <v>1.065303547535212</v>
+      </c>
+      <c r="P29">
+        <v>1.015480608900951</v>
+      </c>
+      <c r="Q29">
+        <v>1.015480608900951</v>
+      </c>
+      <c r="R29">
+        <v>1.013831808880997</v>
+      </c>
+      <c r="S29">
+        <v>1.013831808880997</v>
+      </c>
+      <c r="T29">
+        <v>0.9638017986697606</v>
       </c>
     </row>
   </sheetData>

--- a/JupyterNotebooks/AvgHW/Gamma2F-HW20.xlsx
+++ b/JupyterNotebooks/AvgHW/Gamma2F-HW20.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="48">
   <si>
     <t>HKL</t>
   </si>
@@ -22,6 +22,12 @@
     <t>Spiral5</t>
   </si>
   <si>
+    <t>Holden</t>
+  </si>
+  <si>
+    <t>Rizzie Spiral</t>
+  </si>
+  <si>
     <t>RotRing OmegaMax-90</t>
   </si>
   <si>
@@ -37,7 +43,7 @@
     <t>Rizzie Hex</t>
   </si>
   <si>
-    <t>Thomas Hex</t>
+    <t>Matthies Hex</t>
   </si>
   <si>
     <t>Tilt Rotate_Partial</t>
@@ -509,7 +515,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T29"/>
+  <dimension ref="A1:T31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -582,58 +588,58 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="I2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="J2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="K2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="L2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="M2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="N2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="O2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="P2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="Q2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="R2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="S2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="T2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -706,58 +712,58 @@
         <v>2</v>
       </c>
       <c r="C4">
-        <v>0.8937750447909084</v>
+        <v>0.8403480929445315</v>
       </c>
       <c r="D4">
-        <v>1.090924663405179</v>
+        <v>0.9828466773449208</v>
       </c>
       <c r="E4">
-        <v>0.8937750447909084</v>
+        <v>0.8403480929445315</v>
       </c>
       <c r="F4">
-        <v>0.9946592675905426</v>
+        <v>1.071340717639726</v>
       </c>
       <c r="G4">
-        <v>1.022485134704496</v>
+        <v>1.045280698874786</v>
       </c>
       <c r="H4">
-        <v>0.9527983383099287</v>
+        <v>0.8864553423862929</v>
       </c>
       <c r="I4">
-        <v>0.988143070489452</v>
+        <v>1.2328765858073</v>
       </c>
       <c r="J4">
-        <v>1.090924663405179</v>
+        <v>0.9828466773449208</v>
       </c>
       <c r="K4">
-        <v>1.090924663405179</v>
+        <v>0.9828466773449208</v>
       </c>
       <c r="L4">
-        <v>0.9946592675905426</v>
+        <v>1.071340717639726</v>
       </c>
       <c r="M4">
-        <v>0.9442171561907255</v>
+        <v>0.9558444052921287</v>
       </c>
       <c r="N4">
-        <v>0.9442171561907255</v>
+        <v>0.9558444052921287</v>
       </c>
       <c r="O4">
-        <v>0.9470775502304599</v>
+        <v>0.9327147176568501</v>
       </c>
       <c r="P4">
-        <v>0.9931196585955432</v>
+        <v>0.9648451626430594</v>
       </c>
       <c r="Q4">
-        <v>0.9931196585955432</v>
+        <v>0.9648451626430594</v>
       </c>
       <c r="R4">
-        <v>1.017570909797952</v>
+        <v>0.9693455413185248</v>
       </c>
       <c r="S4">
-        <v>1.017570909797952</v>
+        <v>0.9693455413185248</v>
       </c>
       <c r="T4">
-        <v>0.9904642532150844</v>
+        <v>1.009858019166259</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -768,58 +774,58 @@
         <v>3</v>
       </c>
       <c r="C5">
-        <v>0.8096701951952449</v>
+        <v>1.031686458643421</v>
       </c>
       <c r="D5">
-        <v>0.9828207687103755</v>
+        <v>0.8750088222986595</v>
       </c>
       <c r="E5">
-        <v>0.8096701951952449</v>
+        <v>1.031686458643421</v>
       </c>
       <c r="F5">
-        <v>1.083721801145531</v>
+        <v>1.07806786592205</v>
       </c>
       <c r="G5">
-        <v>1.053904135273775</v>
+        <v>1.017547943176085</v>
       </c>
       <c r="H5">
-        <v>0.8644012561167161</v>
+        <v>0.9183121872623584</v>
       </c>
       <c r="I5">
-        <v>1.275700660569164</v>
+        <v>1.325647617078032</v>
       </c>
       <c r="J5">
-        <v>0.9828207687103755</v>
+        <v>0.8750088222986595</v>
       </c>
       <c r="K5">
-        <v>0.9828207687103755</v>
+        <v>0.8750088222986595</v>
       </c>
       <c r="L5">
-        <v>1.083721801145531</v>
+        <v>1.07806786592205</v>
       </c>
       <c r="M5">
-        <v>0.9466959981703882</v>
+        <v>1.054877162282736</v>
       </c>
       <c r="N5">
-        <v>0.9466959981703882</v>
+        <v>1.054877162282736</v>
       </c>
       <c r="O5">
-        <v>0.9192644174858309</v>
+        <v>1.00935550394261</v>
       </c>
       <c r="P5">
-        <v>0.958737588350384</v>
+        <v>0.9949210489547102</v>
       </c>
       <c r="Q5">
-        <v>0.958737588350384</v>
+        <v>0.9949210489547102</v>
       </c>
       <c r="R5">
-        <v>0.9647583834403819</v>
+        <v>0.9649429922906976</v>
       </c>
       <c r="S5">
-        <v>0.9647583834403819</v>
+        <v>0.9649429922906976</v>
       </c>
       <c r="T5">
-        <v>1.011703136168468</v>
+        <v>1.041045149063434</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -830,58 +836,58 @@
         <v>4</v>
       </c>
       <c r="C6">
-        <v>0.4483977129211789</v>
+        <v>0.8937750447909084</v>
       </c>
       <c r="D6">
-        <v>0.8255645141839735</v>
+        <v>1.090924663405179</v>
       </c>
       <c r="E6">
-        <v>0.4483977129211789</v>
+        <v>0.8937750447909084</v>
       </c>
       <c r="F6">
-        <v>1.304544397278093</v>
+        <v>0.9946592675905426</v>
       </c>
       <c r="G6">
-        <v>1.162410488660076</v>
+        <v>1.022485134704496</v>
       </c>
       <c r="H6">
-        <v>0.5559713931251218</v>
+        <v>0.9527983383099287</v>
       </c>
       <c r="I6">
-        <v>2.09270345899911</v>
+        <v>0.988143070489452</v>
       </c>
       <c r="J6">
-        <v>0.8255645141839735</v>
+        <v>1.090924663405179</v>
       </c>
       <c r="K6">
-        <v>0.8255645141839735</v>
+        <v>1.090924663405179</v>
       </c>
       <c r="L6">
-        <v>1.304544397278093</v>
+        <v>0.9946592675905426</v>
       </c>
       <c r="M6">
-        <v>0.8764710550996357</v>
+        <v>0.9442171561907255</v>
       </c>
       <c r="N6">
-        <v>0.8764710550996357</v>
+        <v>0.9442171561907255</v>
       </c>
       <c r="O6">
-        <v>0.7696378344414644</v>
+        <v>0.9470775502304599</v>
       </c>
       <c r="P6">
-        <v>0.8595022081277484</v>
+        <v>0.9931196585955432</v>
       </c>
       <c r="Q6">
-        <v>0.8595022081277484</v>
+        <v>0.9931196585955432</v>
       </c>
       <c r="R6">
-        <v>0.8510177846418047</v>
+        <v>1.017570909797952</v>
       </c>
       <c r="S6">
-        <v>0.8510177846418047</v>
+        <v>1.017570909797952</v>
       </c>
       <c r="T6">
-        <v>1.064931994194592</v>
+        <v>0.9904642532150844</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -892,58 +898,58 @@
         <v>5</v>
       </c>
       <c r="C7">
-        <v>0.9694134231921891</v>
+        <v>0.8096701951952449</v>
       </c>
       <c r="D7">
-        <v>1.016875316380511</v>
+        <v>0.9828207687103755</v>
       </c>
       <c r="E7">
-        <v>0.9694134231921891</v>
+        <v>0.8096701951952449</v>
       </c>
       <c r="F7">
-        <v>1.003532563156855</v>
+        <v>1.083721801145531</v>
       </c>
       <c r="G7">
-        <v>1.007373518465271</v>
+        <v>1.053904135273775</v>
       </c>
       <c r="H7">
-        <v>0.9846064706231032</v>
+        <v>0.8644012561167161</v>
       </c>
       <c r="I7">
-        <v>1.006933585706228</v>
+        <v>1.275700660569164</v>
       </c>
       <c r="J7">
-        <v>1.016875316380511</v>
+        <v>0.9828207687103755</v>
       </c>
       <c r="K7">
-        <v>1.016875316380511</v>
+        <v>0.9828207687103755</v>
       </c>
       <c r="L7">
-        <v>1.003532563156855</v>
+        <v>1.083721801145531</v>
       </c>
       <c r="M7">
-        <v>0.9864729931745221</v>
+        <v>0.9466959981703882</v>
       </c>
       <c r="N7">
-        <v>0.9864729931745221</v>
+        <v>0.9466959981703882</v>
       </c>
       <c r="O7">
-        <v>0.9858508189907158</v>
+        <v>0.9192644174858309</v>
       </c>
       <c r="P7">
-        <v>0.9966071009098516</v>
+        <v>0.958737588350384</v>
       </c>
       <c r="Q7">
-        <v>0.9966071009098516</v>
+        <v>0.958737588350384</v>
       </c>
       <c r="R7">
-        <v>1.001674154777516</v>
+        <v>0.9647583834403819</v>
       </c>
       <c r="S7">
-        <v>1.001674154777516</v>
+        <v>0.9647583834403819</v>
       </c>
       <c r="T7">
-        <v>0.9981224795873596</v>
+        <v>1.011703136168468</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -954,58 +960,58 @@
         <v>6</v>
       </c>
       <c r="C8">
-        <v>0.9989864180578107</v>
+        <v>0.4483977129211789</v>
       </c>
       <c r="D8">
-        <v>0.997099272592031</v>
+        <v>0.8255645141839735</v>
       </c>
       <c r="E8">
-        <v>0.9989864180578107</v>
+        <v>0.4483977129211789</v>
       </c>
       <c r="F8">
-        <v>1.001809347880481</v>
+        <v>1.304544397278093</v>
       </c>
       <c r="G8">
-        <v>1.00046046783158</v>
+        <v>1.162410488660076</v>
       </c>
       <c r="H8">
-        <v>0.9989814789260033</v>
+        <v>0.5559713931251218</v>
       </c>
       <c r="I8">
-        <v>1.004330449083714</v>
+        <v>2.09270345899911</v>
       </c>
       <c r="J8">
-        <v>0.997099272592031</v>
+        <v>0.8255645141839735</v>
       </c>
       <c r="K8">
-        <v>0.997099272592031</v>
+        <v>0.8255645141839735</v>
       </c>
       <c r="L8">
-        <v>1.001809347880481</v>
+        <v>1.304544397278093</v>
       </c>
       <c r="M8">
-        <v>1.000397882969146</v>
+        <v>0.8764710550996357</v>
       </c>
       <c r="N8">
-        <v>1.000397882969146</v>
+        <v>0.8764710550996357</v>
       </c>
       <c r="O8">
-        <v>0.9999257482880987</v>
+        <v>0.7696378344414644</v>
       </c>
       <c r="P8">
-        <v>0.9992983461767745</v>
+        <v>0.8595022081277484</v>
       </c>
       <c r="Q8">
-        <v>0.9992983461767744</v>
+        <v>0.8595022081277484</v>
       </c>
       <c r="R8">
-        <v>0.9987485777805886</v>
+        <v>0.8510177846418047</v>
       </c>
       <c r="S8">
-        <v>0.9987485777805886</v>
+        <v>0.8510177846418047</v>
       </c>
       <c r="T8">
-        <v>1.000277905728604</v>
+        <v>1.064931994194592</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -1016,58 +1022,58 @@
         <v>7</v>
       </c>
       <c r="C9">
-        <v>0.9457527006719663</v>
+        <v>0.9694134231921891</v>
       </c>
       <c r="D9">
-        <v>1.031114741072964</v>
+        <v>1.016875316380511</v>
       </c>
       <c r="E9">
-        <v>0.9457527006719663</v>
+        <v>0.9694134231921891</v>
       </c>
       <c r="F9">
-        <v>1.00578699439504</v>
+        <v>1.003532563156855</v>
       </c>
       <c r="G9">
-        <v>1.013059236181208</v>
+        <v>1.007373518465271</v>
       </c>
       <c r="H9">
-        <v>0.9726800387696092</v>
+        <v>0.9846064706231032</v>
       </c>
       <c r="I9">
-        <v>1.011263497789926</v>
+        <v>1.006933585706228</v>
       </c>
       <c r="J9">
-        <v>1.031114741072964</v>
+        <v>1.016875316380511</v>
       </c>
       <c r="K9">
-        <v>1.031114741072964</v>
+        <v>1.016875316380511</v>
       </c>
       <c r="L9">
-        <v>1.00578699439504</v>
+        <v>1.003532563156855</v>
       </c>
       <c r="M9">
-        <v>0.975769847533503</v>
+        <v>0.9864729931745221</v>
       </c>
       <c r="N9">
-        <v>0.975769847533503</v>
+        <v>0.9864729931745221</v>
       </c>
       <c r="O9">
-        <v>0.9747399112788718</v>
+        <v>0.9858508189907158</v>
       </c>
       <c r="P9">
-        <v>0.9942181453799899</v>
+        <v>0.9966071009098516</v>
       </c>
       <c r="Q9">
-        <v>0.9942181453799899</v>
+        <v>0.9966071009098516</v>
       </c>
       <c r="R9">
-        <v>1.003442294303233</v>
+        <v>1.001674154777516</v>
       </c>
       <c r="S9">
-        <v>1.003442294303233</v>
+        <v>1.001674154777516</v>
       </c>
       <c r="T9">
-        <v>0.9966095348134522</v>
+        <v>0.9981224795873596</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1078,58 +1084,58 @@
         <v>8</v>
       </c>
       <c r="C10">
-        <v>0.4474646586712768</v>
+        <v>0.9989864180578107</v>
       </c>
       <c r="D10">
-        <v>0.8177279365076804</v>
+        <v>0.997099272592031</v>
       </c>
       <c r="E10">
-        <v>0.4474646586712768</v>
+        <v>0.9989864180578107</v>
       </c>
       <c r="F10">
-        <v>1.310087885877163</v>
+        <v>1.001809347880481</v>
       </c>
       <c r="G10">
-        <v>1.164004105019434</v>
+        <v>1.00046046783158</v>
       </c>
       <c r="H10">
-        <v>0.5493026266664762</v>
+        <v>0.9989814789260033</v>
       </c>
       <c r="I10">
-        <v>2.117433343448627</v>
+        <v>1.004330449083714</v>
       </c>
       <c r="J10">
-        <v>0.8177279365076804</v>
+        <v>0.997099272592031</v>
       </c>
       <c r="K10">
-        <v>0.8177279365076804</v>
+        <v>0.997099272592031</v>
       </c>
       <c r="L10">
-        <v>1.310087885877163</v>
+        <v>1.001809347880481</v>
       </c>
       <c r="M10">
-        <v>0.8787762722742196</v>
+        <v>1.000397882969146</v>
       </c>
       <c r="N10">
-        <v>0.8787762722742196</v>
+        <v>1.000397882969146</v>
       </c>
       <c r="O10">
-        <v>0.7689517237383052</v>
+        <v>0.9999257482880987</v>
       </c>
       <c r="P10">
-        <v>0.8584268270187065</v>
+        <v>0.9992983461767745</v>
       </c>
       <c r="Q10">
-        <v>0.8584268270187065</v>
+        <v>0.9992983461767744</v>
       </c>
       <c r="R10">
-        <v>0.84825210439095</v>
+        <v>0.9987485777805886</v>
       </c>
       <c r="S10">
-        <v>0.84825210439095</v>
+        <v>0.9987485777805886</v>
       </c>
       <c r="T10">
-        <v>1.067670092698443</v>
+        <v>1.000277905728604</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1140,58 +1146,58 @@
         <v>9</v>
       </c>
       <c r="C11">
-        <v>0.9200494816217707</v>
+        <v>0.9457527006719663</v>
       </c>
       <c r="D11">
-        <v>1.075520897758565</v>
+        <v>1.031114741072964</v>
       </c>
       <c r="E11">
-        <v>0.9200494816217707</v>
+        <v>0.9457527006719663</v>
       </c>
       <c r="F11">
-        <v>0.9954867259776464</v>
+        <v>1.00578699439504</v>
       </c>
       <c r="G11">
-        <v>1.018666969995516</v>
+        <v>1.013059236181208</v>
       </c>
       <c r="H11">
-        <v>0.9553345573539247</v>
+        <v>0.9726800387696092</v>
       </c>
       <c r="I11">
-        <v>1.010076124491417</v>
+        <v>1.011263497789926</v>
       </c>
       <c r="J11">
-        <v>1.075520897758565</v>
+        <v>1.031114741072964</v>
       </c>
       <c r="K11">
-        <v>1.075520897758565</v>
+        <v>1.031114741072964</v>
       </c>
       <c r="L11">
-        <v>0.9954867259776464</v>
+        <v>1.00578699439504</v>
       </c>
       <c r="M11">
-        <v>0.9577681037997086</v>
+        <v>0.975769847533503</v>
       </c>
       <c r="N11">
-        <v>0.9577681037997086</v>
+        <v>0.975769847533503</v>
       </c>
       <c r="O11">
-        <v>0.9569569216511139</v>
+        <v>0.9747399112788718</v>
       </c>
       <c r="P11">
-        <v>0.9970190351193273</v>
+        <v>0.9942181453799899</v>
       </c>
       <c r="Q11">
-        <v>0.9970190351193273</v>
+        <v>0.9942181453799899</v>
       </c>
       <c r="R11">
-        <v>1.016644500779137</v>
+        <v>1.003442294303233</v>
       </c>
       <c r="S11">
-        <v>1.016644500779137</v>
+        <v>1.003442294303233</v>
       </c>
       <c r="T11">
-        <v>0.9958557928664734</v>
+        <v>0.9966095348134522</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1202,58 +1208,58 @@
         <v>10</v>
       </c>
       <c r="C12">
-        <v>0.8396729364431569</v>
+        <v>0.4474646586712768</v>
       </c>
       <c r="D12">
-        <v>0.9419152214105285</v>
+        <v>0.8177279365076804</v>
       </c>
       <c r="E12">
-        <v>0.8396729364431569</v>
+        <v>0.4474646586712768</v>
       </c>
       <c r="F12">
-        <v>1.096013393568419</v>
+        <v>1.310087885877163</v>
       </c>
       <c r="G12">
-        <v>1.05053700721053</v>
+        <v>1.164004105019434</v>
       </c>
       <c r="H12">
-        <v>0.8629300401789491</v>
+        <v>0.5493026266664762</v>
       </c>
       <c r="I12">
-        <v>1.334722976052632</v>
+        <v>2.117433343448627</v>
       </c>
       <c r="J12">
-        <v>0.9419152214105285</v>
+        <v>0.8177279365076804</v>
       </c>
       <c r="K12">
-        <v>0.9419152214105285</v>
+        <v>0.8177279365076804</v>
       </c>
       <c r="L12">
-        <v>1.096013393568419</v>
+        <v>1.310087885877163</v>
       </c>
       <c r="M12">
-        <v>0.9678431650057879</v>
+        <v>0.8787762722742196</v>
       </c>
       <c r="N12">
-        <v>0.9678431650057879</v>
+        <v>0.8787762722742196</v>
       </c>
       <c r="O12">
-        <v>0.9328721233968417</v>
+        <v>0.7689517237383052</v>
       </c>
       <c r="P12">
-        <v>0.9592005171407014</v>
+        <v>0.8584268270187065</v>
       </c>
       <c r="Q12">
-        <v>0.9592005171407015</v>
+        <v>0.8584268270187065</v>
       </c>
       <c r="R12">
-        <v>0.9548791932081583</v>
+        <v>0.84825210439095</v>
       </c>
       <c r="S12">
-        <v>0.9548791932081583</v>
+        <v>0.84825210439095</v>
       </c>
       <c r="T12">
-        <v>1.020965262477369</v>
+        <v>1.067670092698443</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1264,58 +1270,58 @@
         <v>11</v>
       </c>
       <c r="C13">
-        <v>1.163100460249233</v>
+        <v>0.9200494816217707</v>
       </c>
       <c r="D13">
-        <v>0.9775371163195569</v>
+        <v>1.075520897758565</v>
       </c>
       <c r="E13">
-        <v>1.163100460249233</v>
+        <v>0.9200494816217707</v>
       </c>
       <c r="F13">
-        <v>0.9514729658812224</v>
+        <v>0.9954867259776464</v>
       </c>
       <c r="G13">
-        <v>0.9590690962862124</v>
+        <v>1.018666969995516</v>
       </c>
       <c r="H13">
-        <v>1.091724367888735</v>
+        <v>0.9553345573539247</v>
       </c>
       <c r="I13">
-        <v>0.8653993252245653</v>
+        <v>1.010076124491417</v>
       </c>
       <c r="J13">
-        <v>0.9775371163195569</v>
+        <v>1.075520897758565</v>
       </c>
       <c r="K13">
-        <v>0.9775371163195569</v>
+        <v>1.075520897758565</v>
       </c>
       <c r="L13">
-        <v>0.9514729658812224</v>
+        <v>0.9954867259776464</v>
       </c>
       <c r="M13">
-        <v>1.057286713065228</v>
+        <v>0.9577681037997086</v>
       </c>
       <c r="N13">
-        <v>1.057286713065228</v>
+        <v>0.9577681037997086</v>
       </c>
       <c r="O13">
-        <v>1.06876593133973</v>
+        <v>0.9569569216511139</v>
       </c>
       <c r="P13">
-        <v>1.030703514150004</v>
+        <v>0.9970190351193273</v>
       </c>
       <c r="Q13">
-        <v>1.030703514150004</v>
+        <v>0.9970190351193273</v>
       </c>
       <c r="R13">
-        <v>1.017411914692392</v>
+        <v>1.016644500779137</v>
       </c>
       <c r="S13">
-        <v>1.017411914692392</v>
+        <v>1.016644500779137</v>
       </c>
       <c r="T13">
-        <v>1.001383888641588</v>
+        <v>0.9958557928664734</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1326,58 +1332,58 @@
         <v>12</v>
       </c>
       <c r="C14">
-        <v>0.05435712199999995</v>
+        <v>0.8396729364431569</v>
       </c>
       <c r="D14">
-        <v>0.6692091899999988</v>
+        <v>0.9419152214105285</v>
       </c>
       <c r="E14">
-        <v>0.05435712199999995</v>
+        <v>0.8396729364431569</v>
       </c>
       <c r="F14">
-        <v>1.538146999999998</v>
+        <v>1.096013393568419</v>
       </c>
       <c r="G14">
-        <v>1.280074200000001</v>
+        <v>1.05053700721053</v>
       </c>
       <c r="H14">
-        <v>0.2238942000000001</v>
+        <v>0.8629300401789491</v>
       </c>
       <c r="I14">
-        <v>2.955281000000005</v>
+        <v>1.334722976052632</v>
       </c>
       <c r="J14">
-        <v>0.6692091899999988</v>
+        <v>0.9419152214105285</v>
       </c>
       <c r="K14">
-        <v>0.6692091899999988</v>
+        <v>0.9419152214105285</v>
       </c>
       <c r="L14">
-        <v>1.538146999999998</v>
+        <v>1.096013393568419</v>
       </c>
       <c r="M14">
-        <v>0.7962520609999991</v>
+        <v>0.9678431650057879</v>
       </c>
       <c r="N14">
-        <v>0.7962520609999991</v>
+        <v>0.9678431650057879</v>
       </c>
       <c r="O14">
-        <v>0.6054661073333328</v>
+        <v>0.9328721233968417</v>
       </c>
       <c r="P14">
-        <v>0.7539044373333322</v>
+        <v>0.9592005171407014</v>
       </c>
       <c r="Q14">
-        <v>0.7539044373333325</v>
+        <v>0.9592005171407015</v>
       </c>
       <c r="R14">
-        <v>0.732730625499999</v>
+        <v>0.9548791932081583</v>
       </c>
       <c r="S14">
-        <v>0.732730625499999</v>
+        <v>0.9548791932081583</v>
       </c>
       <c r="T14">
-        <v>1.120160452000001</v>
+        <v>1.020965262477369</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1388,58 +1394,58 @@
         <v>13</v>
       </c>
       <c r="C15">
-        <v>0.44907826</v>
+        <v>1.163100460249233</v>
       </c>
       <c r="D15">
-        <v>0.82897899</v>
+        <v>0.9775371163195569</v>
       </c>
       <c r="E15">
-        <v>0.44907826</v>
+        <v>1.163100460249233</v>
       </c>
       <c r="F15">
-        <v>1.2942168</v>
+        <v>0.9514729658812224</v>
       </c>
       <c r="G15">
-        <v>1.156302</v>
+        <v>0.9590690962862124</v>
       </c>
       <c r="H15">
-        <v>0.69558235</v>
+        <v>1.091724367888735</v>
       </c>
       <c r="I15">
-        <v>1.5381672</v>
+        <v>0.8653993252245653</v>
       </c>
       <c r="J15">
-        <v>0.82897899</v>
+        <v>0.9775371163195569</v>
       </c>
       <c r="K15">
-        <v>0.82897899</v>
+        <v>0.9775371163195569</v>
       </c>
       <c r="L15">
-        <v>1.2942168</v>
+        <v>0.9514729658812224</v>
       </c>
       <c r="M15">
-        <v>0.8716475300000001</v>
+        <v>1.057286713065228</v>
       </c>
       <c r="N15">
-        <v>0.8716475300000001</v>
+        <v>1.057286713065228</v>
       </c>
       <c r="O15">
-        <v>0.8129591366666666</v>
+        <v>1.06876593133973</v>
       </c>
       <c r="P15">
-        <v>0.8574246833333333</v>
+        <v>1.030703514150004</v>
       </c>
       <c r="Q15">
-        <v>0.8574246833333333</v>
+        <v>1.030703514150004</v>
       </c>
       <c r="R15">
-        <v>0.85031326</v>
+        <v>1.017411914692392</v>
       </c>
       <c r="S15">
-        <v>0.85031326</v>
+        <v>1.017411914692392</v>
       </c>
       <c r="T15">
-        <v>0.9937209333333333</v>
+        <v>1.001383888641588</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1450,58 +1456,58 @@
         <v>14</v>
       </c>
       <c r="C16">
-        <v>0.21885897</v>
+        <v>0.05435712199999995</v>
       </c>
       <c r="D16">
-        <v>1.9813918</v>
+        <v>0.6692091899999988</v>
       </c>
       <c r="E16">
-        <v>0.21885897</v>
+        <v>0.05435712199999995</v>
       </c>
       <c r="F16">
-        <v>0.8289786500000002</v>
+        <v>1.538146999999998</v>
       </c>
       <c r="G16">
-        <v>1.1585466</v>
+        <v>1.280074200000001</v>
       </c>
       <c r="H16">
-        <v>0.6454245799999999</v>
+        <v>0.2238942000000001</v>
       </c>
       <c r="I16">
-        <v>0.66920919</v>
+        <v>2.955281000000005</v>
       </c>
       <c r="J16">
-        <v>1.9813918</v>
+        <v>0.6692091899999988</v>
       </c>
       <c r="K16">
-        <v>1.9813918</v>
+        <v>0.6692091899999988</v>
       </c>
       <c r="L16">
-        <v>0.8289786500000002</v>
+        <v>1.538146999999998</v>
       </c>
       <c r="M16">
-        <v>0.5239188100000001</v>
+        <v>0.7962520609999991</v>
       </c>
       <c r="N16">
-        <v>0.5239188100000001</v>
+        <v>0.7962520609999991</v>
       </c>
       <c r="O16">
-        <v>0.5644207333333333</v>
+        <v>0.6054661073333328</v>
       </c>
       <c r="P16">
-        <v>1.00974314</v>
+        <v>0.7539044373333322</v>
       </c>
       <c r="Q16">
-        <v>1.00974314</v>
+        <v>0.7539044373333325</v>
       </c>
       <c r="R16">
-        <v>1.252655305</v>
+        <v>0.732730625499999</v>
       </c>
       <c r="S16">
-        <v>1.252655305</v>
+        <v>0.732730625499999</v>
       </c>
       <c r="T16">
-        <v>0.9170682983333333</v>
+        <v>1.120160452000001</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1512,58 +1518,58 @@
         <v>15</v>
       </c>
       <c r="C17">
-        <v>1.2493267</v>
+        <v>0.44907826</v>
       </c>
       <c r="D17">
-        <v>0.7158522399999999</v>
+        <v>0.82897899</v>
       </c>
       <c r="E17">
-        <v>1.2493267</v>
+        <v>0.44907826</v>
       </c>
       <c r="F17">
-        <v>1.0101296</v>
+        <v>1.2942168</v>
       </c>
       <c r="G17">
-        <v>0.9207874300000001</v>
+        <v>1.156302</v>
       </c>
       <c r="H17">
-        <v>1.2503385</v>
+        <v>0.69558235</v>
       </c>
       <c r="I17">
-        <v>0.6875831800000001</v>
+        <v>1.5381672</v>
       </c>
       <c r="J17">
-        <v>0.7158522399999999</v>
+        <v>0.82897899</v>
       </c>
       <c r="K17">
-        <v>0.7158522399999999</v>
+        <v>0.82897899</v>
       </c>
       <c r="L17">
-        <v>1.0101296</v>
+        <v>1.2942168</v>
       </c>
       <c r="M17">
-        <v>1.12972815</v>
+        <v>0.8716475300000001</v>
       </c>
       <c r="N17">
-        <v>1.12972815</v>
+        <v>0.8716475300000001</v>
       </c>
       <c r="O17">
-        <v>1.1699316</v>
+        <v>0.8129591366666666</v>
       </c>
       <c r="P17">
-        <v>0.9917695133333333</v>
+        <v>0.8574246833333333</v>
       </c>
       <c r="Q17">
-        <v>0.9917695133333333</v>
+        <v>0.8574246833333333</v>
       </c>
       <c r="R17">
-        <v>0.9227901949999999</v>
+        <v>0.85031326</v>
       </c>
       <c r="S17">
-        <v>0.9227901949999999</v>
+        <v>0.85031326</v>
       </c>
       <c r="T17">
-        <v>0.972336275</v>
+        <v>0.9937209333333333</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1574,58 +1580,58 @@
         <v>16</v>
       </c>
       <c r="C18">
-        <v>0.3348796389041096</v>
+        <v>0.21885897</v>
       </c>
       <c r="D18">
-        <v>1.393464332191781</v>
+        <v>1.9813918</v>
       </c>
       <c r="E18">
-        <v>0.3348796389041096</v>
+        <v>0.21885897</v>
       </c>
       <c r="F18">
-        <v>1.063422783835616</v>
+        <v>0.8289786500000002</v>
       </c>
       <c r="G18">
-        <v>1.158559380821918</v>
+        <v>1.1585466</v>
       </c>
       <c r="H18">
-        <v>0.6724543941095891</v>
+        <v>0.6454245799999999</v>
       </c>
       <c r="I18">
-        <v>1.106801778356164</v>
+        <v>0.66920919</v>
       </c>
       <c r="J18">
-        <v>1.393464332191781</v>
+        <v>1.9813918</v>
       </c>
       <c r="K18">
-        <v>1.393464332191781</v>
+        <v>1.9813918</v>
       </c>
       <c r="L18">
-        <v>1.063422783835616</v>
+        <v>0.8289786500000002</v>
       </c>
       <c r="M18">
-        <v>0.6991512113698628</v>
+        <v>0.5239188100000001</v>
       </c>
       <c r="N18">
-        <v>0.6991512113698628</v>
+        <v>0.5239188100000001</v>
       </c>
       <c r="O18">
-        <v>0.6902522722831049</v>
+        <v>0.5644207333333333</v>
       </c>
       <c r="P18">
-        <v>0.9305889183105024</v>
+        <v>1.00974314</v>
       </c>
       <c r="Q18">
-        <v>0.9305889183105024</v>
+        <v>1.00974314</v>
       </c>
       <c r="R18">
-        <v>1.046307771780822</v>
+        <v>1.252655305</v>
       </c>
       <c r="S18">
-        <v>1.046307771780822</v>
+        <v>1.252655305</v>
       </c>
       <c r="T18">
-        <v>0.9549303847031964</v>
+        <v>0.9170682983333333</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1636,58 +1642,58 @@
         <v>17</v>
       </c>
       <c r="C19">
-        <v>0.669678258368421</v>
+        <v>1.2493267</v>
       </c>
       <c r="D19">
-        <v>1.111135619473684</v>
+        <v>0.7158522399999999</v>
       </c>
       <c r="E19">
-        <v>0.669678258368421</v>
+        <v>1.2493267</v>
       </c>
       <c r="F19">
-        <v>1.050632406315789</v>
+        <v>1.0101296</v>
       </c>
       <c r="G19">
-        <v>1.067491762631579</v>
+        <v>0.9207874300000001</v>
       </c>
       <c r="H19">
-        <v>0.8657962342105263</v>
+        <v>1.2503385</v>
       </c>
       <c r="I19">
-        <v>1.099800155263158</v>
+        <v>0.6875831800000001</v>
       </c>
       <c r="J19">
-        <v>1.111135619473684</v>
+        <v>0.7158522399999999</v>
       </c>
       <c r="K19">
-        <v>1.111135619473684</v>
+        <v>0.7158522399999999</v>
       </c>
       <c r="L19">
-        <v>1.050632406315789</v>
+        <v>1.0101296</v>
       </c>
       <c r="M19">
-        <v>0.8601553323421052</v>
+        <v>1.12972815</v>
       </c>
       <c r="N19">
-        <v>0.8601553323421052</v>
+        <v>1.12972815</v>
       </c>
       <c r="O19">
-        <v>0.8620356329649121</v>
+        <v>1.1699316</v>
       </c>
       <c r="P19">
-        <v>0.9438154280526315</v>
+        <v>0.9917695133333333</v>
       </c>
       <c r="Q19">
-        <v>0.9438154280526315</v>
+        <v>0.9917695133333333</v>
       </c>
       <c r="R19">
-        <v>0.9856454759078948</v>
+        <v>0.9227901949999999</v>
       </c>
       <c r="S19">
-        <v>0.9856454759078948</v>
+        <v>0.9227901949999999</v>
       </c>
       <c r="T19">
-        <v>0.9774224060438597</v>
+        <v>0.972336275</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1698,58 +1704,58 @@
         <v>18</v>
       </c>
       <c r="C20">
-        <v>0.9472642307894736</v>
+        <v>0.3348796389041096</v>
       </c>
       <c r="D20">
-        <v>0.8602364652631579</v>
+        <v>1.393464332191781</v>
       </c>
       <c r="E20">
-        <v>0.9472642307894736</v>
+        <v>0.3348796389041096</v>
       </c>
       <c r="F20">
-        <v>1.115914937368421</v>
+        <v>1.063422783835616</v>
       </c>
       <c r="G20">
-        <v>1.039818055789474</v>
+        <v>1.158559380821918</v>
       </c>
       <c r="H20">
-        <v>0.863192307894737</v>
+        <v>0.6724543941095891</v>
       </c>
       <c r="I20">
-        <v>1.445800180526316</v>
+        <v>1.106801778356164</v>
       </c>
       <c r="J20">
-        <v>0.8602364652631579</v>
+        <v>1.393464332191781</v>
       </c>
       <c r="K20">
-        <v>0.8602364652631579</v>
+        <v>1.393464332191781</v>
       </c>
       <c r="L20">
-        <v>1.115914937368421</v>
+        <v>1.063422783835616</v>
       </c>
       <c r="M20">
-        <v>1.031589584078947</v>
+        <v>0.6991512113698628</v>
       </c>
       <c r="N20">
-        <v>1.031589584078947</v>
+        <v>0.6991512113698628</v>
       </c>
       <c r="O20">
-        <v>0.9754571586842106</v>
+        <v>0.6902522722831049</v>
       </c>
       <c r="P20">
-        <v>0.9744718778070175</v>
+        <v>0.9305889183105024</v>
       </c>
       <c r="Q20">
-        <v>0.9744718778070176</v>
+        <v>0.9305889183105024</v>
       </c>
       <c r="R20">
-        <v>0.9459130246710526</v>
+        <v>1.046307771780822</v>
       </c>
       <c r="S20">
-        <v>0.9459130246710526</v>
+        <v>1.046307771780822</v>
       </c>
       <c r="T20">
-        <v>1.045371029605263</v>
+        <v>0.9549303847031964</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1760,58 +1766,58 @@
         <v>19</v>
       </c>
       <c r="C21">
-        <v>1.053444002678664</v>
+        <v>0.669678258368421</v>
       </c>
       <c r="D21">
-        <v>1.126698558724798</v>
+        <v>1.111135619473684</v>
       </c>
       <c r="E21">
-        <v>1.053444002678664</v>
+        <v>0.669678258368421</v>
       </c>
       <c r="F21">
-        <v>0.8993195493414633</v>
+        <v>1.050632406315789</v>
       </c>
       <c r="G21">
-        <v>0.9653813423272157</v>
+        <v>1.067491762631579</v>
       </c>
       <c r="H21">
-        <v>1.104919033824541</v>
+        <v>0.8657962342105263</v>
       </c>
       <c r="I21">
-        <v>0.6594022537267511</v>
+        <v>1.099800155263158</v>
       </c>
       <c r="J21">
-        <v>1.126698558724798</v>
+        <v>1.111135619473684</v>
       </c>
       <c r="K21">
-        <v>1.126698558724798</v>
+        <v>1.111135619473684</v>
       </c>
       <c r="L21">
-        <v>0.8993195493414633</v>
+        <v>1.050632406315789</v>
       </c>
       <c r="M21">
-        <v>0.9763817760100635</v>
+        <v>0.8601553323421052</v>
       </c>
       <c r="N21">
-        <v>0.9763817760100635</v>
+        <v>0.8601553323421052</v>
       </c>
       <c r="O21">
-        <v>1.019227528614889</v>
+        <v>0.8620356329649121</v>
       </c>
       <c r="P21">
-        <v>1.026487370248309</v>
+        <v>0.9438154280526315</v>
       </c>
       <c r="Q21">
-        <v>1.026487370248309</v>
+        <v>0.9438154280526315</v>
       </c>
       <c r="R21">
-        <v>1.051540167367431</v>
+        <v>0.9856454759078948</v>
       </c>
       <c r="S21">
-        <v>1.051540167367431</v>
+        <v>0.9856454759078948</v>
       </c>
       <c r="T21">
-        <v>0.968194123437239</v>
+        <v>0.9774224060438597</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1822,58 +1828,58 @@
         <v>20</v>
       </c>
       <c r="C22">
-        <v>1.135133668889213</v>
+        <v>0.9472642307894736</v>
       </c>
       <c r="D22">
-        <v>0.9231567271928247</v>
+        <v>0.8602364652631579</v>
       </c>
       <c r="E22">
-        <v>1.135133668889213</v>
+        <v>0.9472642307894736</v>
       </c>
       <c r="F22">
-        <v>1.005650729601812</v>
+        <v>1.115914937368421</v>
       </c>
       <c r="G22">
-        <v>0.9816467784465805</v>
+        <v>1.039818055789474</v>
       </c>
       <c r="H22">
-        <v>1.023730524479248</v>
+        <v>0.863192307894737</v>
       </c>
       <c r="I22">
-        <v>1.053984172014309</v>
+        <v>1.445800180526316</v>
       </c>
       <c r="J22">
-        <v>0.9231567271928247</v>
+        <v>0.8602364652631579</v>
       </c>
       <c r="K22">
-        <v>0.9231567271928247</v>
+        <v>0.8602364652631579</v>
       </c>
       <c r="L22">
-        <v>1.005650729601812</v>
+        <v>1.115914937368421</v>
       </c>
       <c r="M22">
-        <v>1.070392199245513</v>
+        <v>1.031589584078947</v>
       </c>
       <c r="N22">
-        <v>1.070392199245513</v>
+        <v>1.031589584078947</v>
       </c>
       <c r="O22">
-        <v>1.054838307656758</v>
+        <v>0.9754571586842106</v>
       </c>
       <c r="P22">
-        <v>1.021313708561283</v>
+        <v>0.9744718778070175</v>
       </c>
       <c r="Q22">
-        <v>1.021313708561283</v>
+        <v>0.9744718778070176</v>
       </c>
       <c r="R22">
-        <v>0.9967744632191686</v>
+        <v>0.9459130246710526</v>
       </c>
       <c r="S22">
-        <v>0.9967744632191686</v>
+        <v>0.9459130246710526</v>
       </c>
       <c r="T22">
-        <v>1.020550433437331</v>
+        <v>1.045371029605263</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1884,58 +1890,58 @@
         <v>21</v>
       </c>
       <c r="C23">
-        <v>1.080267262046445</v>
+        <v>1.053444002678664</v>
       </c>
       <c r="D23">
-        <v>1.127527155118736</v>
+        <v>1.126698558724798</v>
       </c>
       <c r="E23">
-        <v>1.080267262046445</v>
+        <v>1.053444002678664</v>
       </c>
       <c r="F23">
-        <v>0.8953116992207845</v>
+        <v>0.8993195493414633</v>
       </c>
       <c r="G23">
-        <v>0.9631473301201483</v>
+        <v>0.9653813423272157</v>
       </c>
       <c r="H23">
-        <v>1.102814188120078</v>
+        <v>1.104919033824541</v>
       </c>
       <c r="I23">
-        <v>0.6737245874500603</v>
+        <v>0.6594022537267511</v>
       </c>
       <c r="J23">
-        <v>1.127527155118736</v>
+        <v>1.126698558724798</v>
       </c>
       <c r="K23">
-        <v>1.127527155118736</v>
+        <v>1.126698558724798</v>
       </c>
       <c r="L23">
-        <v>0.8953116992207845</v>
+        <v>0.8993195493414633</v>
       </c>
       <c r="M23">
-        <v>0.9877894806336147</v>
+        <v>0.9763817760100635</v>
       </c>
       <c r="N23">
-        <v>0.9877894806336147</v>
+        <v>0.9763817760100635</v>
       </c>
       <c r="O23">
-        <v>1.026131049795769</v>
+        <v>1.019227528614889</v>
       </c>
       <c r="P23">
-        <v>1.034368705461988</v>
+        <v>1.026487370248309</v>
       </c>
       <c r="Q23">
-        <v>1.034368705461988</v>
+        <v>1.026487370248309</v>
       </c>
       <c r="R23">
-        <v>1.057658317876175</v>
+        <v>1.051540167367431</v>
       </c>
       <c r="S23">
-        <v>1.057658317876175</v>
+        <v>1.051540167367431</v>
       </c>
       <c r="T23">
-        <v>0.9737987036793753</v>
+        <v>0.968194123437239</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1946,58 +1952,58 @@
         <v>22</v>
       </c>
       <c r="C24">
-        <v>1.105871651689555</v>
+        <v>1.135133668889213</v>
       </c>
       <c r="D24">
-        <v>0.9139742184728281</v>
+        <v>0.9231567271928247</v>
       </c>
       <c r="E24">
-        <v>1.105871651689555</v>
+        <v>1.135133668889213</v>
       </c>
       <c r="F24">
-        <v>1.011599578839502</v>
+        <v>1.005650729601812</v>
       </c>
       <c r="G24">
-        <v>0.9830810821895918</v>
+        <v>0.9816467784465805</v>
       </c>
       <c r="H24">
-        <v>1.027868926998084</v>
+        <v>1.023730524479248</v>
       </c>
       <c r="I24">
-        <v>1.04725053608631</v>
+        <v>1.053984172014309</v>
       </c>
       <c r="J24">
-        <v>0.9139742184728281</v>
+        <v>0.9231567271928247</v>
       </c>
       <c r="K24">
-        <v>0.9139742184728281</v>
+        <v>0.9231567271928247</v>
       </c>
       <c r="L24">
-        <v>1.011599578839502</v>
+        <v>1.005650729601812</v>
       </c>
       <c r="M24">
-        <v>1.058735615264528</v>
+        <v>1.070392199245513</v>
       </c>
       <c r="N24">
-        <v>1.058735615264528</v>
+        <v>1.070392199245513</v>
       </c>
       <c r="O24">
-        <v>1.048446719175714</v>
+        <v>1.054838307656758</v>
       </c>
       <c r="P24">
-        <v>1.010481816333962</v>
+        <v>1.021313708561283</v>
       </c>
       <c r="Q24">
-        <v>1.010481816333962</v>
+        <v>1.021313708561283</v>
       </c>
       <c r="R24">
-        <v>0.9863549168686783</v>
+        <v>0.9967744632191686</v>
       </c>
       <c r="S24">
-        <v>0.9863549168686783</v>
+        <v>0.9967744632191686</v>
       </c>
       <c r="T24">
-        <v>1.014940999045978</v>
+        <v>1.020550433437331</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -2008,58 +2014,58 @@
         <v>23</v>
       </c>
       <c r="C25">
-        <v>1.107087443503483</v>
+        <v>1.080267262046445</v>
       </c>
       <c r="D25">
-        <v>1.128361151121473</v>
+        <v>1.127527155118736</v>
       </c>
       <c r="E25">
-        <v>1.107087443503483</v>
+        <v>1.080267262046445</v>
       </c>
       <c r="F25">
-        <v>0.891301035322422</v>
+        <v>0.8953116992207845</v>
       </c>
       <c r="G25">
-        <v>0.9609145883466521</v>
+        <v>0.9631473301201483</v>
       </c>
       <c r="H25">
-        <v>1.100708056629049</v>
+        <v>1.102814188120078</v>
       </c>
       <c r="I25">
-        <v>0.6880432126971828</v>
+        <v>0.6737245874500603</v>
       </c>
       <c r="J25">
-        <v>1.128361151121473</v>
+        <v>1.127527155118736</v>
       </c>
       <c r="K25">
-        <v>1.128361151121473</v>
+        <v>1.127527155118736</v>
       </c>
       <c r="L25">
-        <v>0.891301035322422</v>
+        <v>0.8953116992207845</v>
       </c>
       <c r="M25">
-        <v>0.9991942394129523</v>
+        <v>0.9877894806336147</v>
       </c>
       <c r="N25">
-        <v>0.9991942394129523</v>
+        <v>0.9877894806336147</v>
       </c>
       <c r="O25">
-        <v>1.033032178484985</v>
+        <v>1.026131049795769</v>
       </c>
       <c r="P25">
-        <v>1.042249876649126</v>
+        <v>1.034368705461988</v>
       </c>
       <c r="Q25">
-        <v>1.042249876649126</v>
+        <v>1.034368705461988</v>
       </c>
       <c r="R25">
-        <v>1.063777695267213</v>
+        <v>1.057658317876175</v>
       </c>
       <c r="S25">
-        <v>1.063777695267213</v>
+        <v>1.057658317876175</v>
       </c>
       <c r="T25">
-        <v>0.9794025812700435</v>
+        <v>0.9737987036793753</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2070,58 +2076,58 @@
         <v>24</v>
       </c>
       <c r="C26">
-        <v>1.076606204492706</v>
+        <v>1.105871651689555</v>
       </c>
       <c r="D26">
-        <v>0.9047881727362348</v>
+        <v>0.9139742184728281</v>
       </c>
       <c r="E26">
-        <v>1.076606204492706</v>
+        <v>1.105871651689555</v>
       </c>
       <c r="F26">
-        <v>1.017551132364165</v>
+        <v>1.011599578839502</v>
       </c>
       <c r="G26">
-        <v>0.9845158143904192</v>
+        <v>0.9830810821895918</v>
       </c>
       <c r="H26">
-        <v>1.032007042247372</v>
+        <v>1.027868926998084</v>
       </c>
       <c r="I26">
-        <v>1.040518722878225</v>
+        <v>1.04725053608631</v>
       </c>
       <c r="J26">
-        <v>0.9047881727362348</v>
+        <v>0.9139742184728281</v>
       </c>
       <c r="K26">
-        <v>0.9047881727362348</v>
+        <v>0.9139742184728281</v>
       </c>
       <c r="L26">
-        <v>1.017551132364165</v>
+        <v>1.011599578839502</v>
       </c>
       <c r="M26">
-        <v>1.047078668428436</v>
+        <v>1.058735615264528</v>
       </c>
       <c r="N26">
-        <v>1.047078668428436</v>
+        <v>1.058735615264528</v>
       </c>
       <c r="O26">
-        <v>1.042054793034748</v>
+        <v>1.048446719175714</v>
       </c>
       <c r="P26">
-        <v>0.9996485031977022</v>
+        <v>1.010481816333962</v>
       </c>
       <c r="Q26">
-        <v>0.9996485031977019</v>
+        <v>1.010481816333962</v>
       </c>
       <c r="R26">
-        <v>0.9759334205823351</v>
+        <v>0.9863549168686783</v>
       </c>
       <c r="S26">
-        <v>0.9759334205823351</v>
+        <v>0.9863549168686783</v>
       </c>
       <c r="T26">
-        <v>1.009331181518187</v>
+        <v>1.014940999045978</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2132,58 +2138,58 @@
         <v>25</v>
       </c>
       <c r="C27">
-        <v>0.8671869277146578</v>
+        <v>1.107087443503483</v>
       </c>
       <c r="D27">
-        <v>1.026860987567429</v>
+        <v>1.128361151121473</v>
       </c>
       <c r="E27">
-        <v>0.8671869277146578</v>
+        <v>1.107087443503483</v>
       </c>
       <c r="F27">
-        <v>1.020719074818317</v>
+        <v>0.891301035322422</v>
       </c>
       <c r="G27">
-        <v>1.021810715707127</v>
+        <v>0.9609145883466521</v>
       </c>
       <c r="H27">
-        <v>0.9580449707295701</v>
+        <v>1.100708056629049</v>
       </c>
       <c r="I27">
-        <v>1.04552408960256</v>
+        <v>0.6880432126971828</v>
       </c>
       <c r="J27">
-        <v>1.026860987567429</v>
+        <v>1.128361151121473</v>
       </c>
       <c r="K27">
-        <v>1.026860987567429</v>
+        <v>1.128361151121473</v>
       </c>
       <c r="L27">
-        <v>1.020719074818317</v>
+        <v>0.891301035322422</v>
       </c>
       <c r="M27">
-        <v>0.9439530012664874</v>
+        <v>0.9991942394129523</v>
       </c>
       <c r="N27">
-        <v>0.9439530012664874</v>
+        <v>0.9991942394129523</v>
       </c>
       <c r="O27">
-        <v>0.9486503244208483</v>
+        <v>1.033032178484985</v>
       </c>
       <c r="P27">
-        <v>0.9715889967001345</v>
+        <v>1.042249876649126</v>
       </c>
       <c r="Q27">
-        <v>0.9715889967001345</v>
+        <v>1.042249876649126</v>
       </c>
       <c r="R27">
-        <v>0.9854069944169581</v>
+        <v>1.063777695267213</v>
       </c>
       <c r="S27">
-        <v>0.9854069944169581</v>
+        <v>1.063777695267213</v>
       </c>
       <c r="T27">
-        <v>0.9900244610232768</v>
+        <v>0.9794025812700435</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2194,58 +2200,58 @@
         <v>26</v>
       </c>
       <c r="C28">
-        <v>0.9870913142870338</v>
+        <v>1.076606204492706</v>
       </c>
       <c r="D28">
-        <v>1.103169834263911</v>
+        <v>0.9047881727362348</v>
       </c>
       <c r="E28">
-        <v>0.9870913142870338</v>
+        <v>1.076606204492706</v>
       </c>
       <c r="F28">
-        <v>0.9593283925758731</v>
+        <v>1.017551132364165</v>
       </c>
       <c r="G28">
-        <v>0.9998344357189669</v>
+        <v>0.9845158143904192</v>
       </c>
       <c r="H28">
-        <v>1.000752820393059</v>
+        <v>1.032007042247372</v>
       </c>
       <c r="I28">
-        <v>0.8959004395855994</v>
+        <v>1.040518722878225</v>
       </c>
       <c r="J28">
-        <v>1.103169834263911</v>
+        <v>0.9047881727362348</v>
       </c>
       <c r="K28">
-        <v>1.103169834263911</v>
+        <v>0.9047881727362348</v>
       </c>
       <c r="L28">
-        <v>0.9593283925758731</v>
+        <v>1.017551132364165</v>
       </c>
       <c r="M28">
-        <v>0.9732098534314535</v>
+        <v>1.047078668428436</v>
       </c>
       <c r="N28">
-        <v>0.9732098534314535</v>
+        <v>1.047078668428436</v>
       </c>
       <c r="O28">
-        <v>0.9823908424186554</v>
+        <v>1.042054793034748</v>
       </c>
       <c r="P28">
-        <v>1.016529847042273</v>
+        <v>0.9996485031977022</v>
       </c>
       <c r="Q28">
-        <v>1.016529847042273</v>
+        <v>0.9996485031977019</v>
       </c>
       <c r="R28">
-        <v>1.038189843847682</v>
+        <v>0.9759334205823351</v>
       </c>
       <c r="S28">
-        <v>1.038189843847682</v>
+        <v>0.9759334205823351</v>
       </c>
       <c r="T28">
-        <v>0.9910128728040739</v>
+        <v>1.009331181518187</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2256,57 +2262,181 @@
         <v>27</v>
       </c>
       <c r="C29">
+        <v>0.8671869277146578</v>
+      </c>
+      <c r="D29">
+        <v>1.026860987567429</v>
+      </c>
+      <c r="E29">
+        <v>0.8671869277146578</v>
+      </c>
+      <c r="F29">
+        <v>1.020719074818317</v>
+      </c>
+      <c r="G29">
+        <v>1.021810715707127</v>
+      </c>
+      <c r="H29">
+        <v>0.9580449707295701</v>
+      </c>
+      <c r="I29">
+        <v>1.04552408960256</v>
+      </c>
+      <c r="J29">
+        <v>1.026860987567429</v>
+      </c>
+      <c r="K29">
+        <v>1.026860987567429</v>
+      </c>
+      <c r="L29">
+        <v>1.020719074818317</v>
+      </c>
+      <c r="M29">
+        <v>0.9439530012664874</v>
+      </c>
+      <c r="N29">
+        <v>0.9439530012664874</v>
+      </c>
+      <c r="O29">
+        <v>0.9486503244208483</v>
+      </c>
+      <c r="P29">
+        <v>0.9715889967001345</v>
+      </c>
+      <c r="Q29">
+        <v>0.9715889967001345</v>
+      </c>
+      <c r="R29">
+        <v>0.9854069944169581</v>
+      </c>
+      <c r="S29">
+        <v>0.9854069944169581</v>
+      </c>
+      <c r="T29">
+        <v>0.9900244610232768</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20">
+      <c r="A30" s="1">
+        <v>28</v>
+      </c>
+      <c r="B30" t="s">
+        <v>28</v>
+      </c>
+      <c r="C30">
+        <v>0.9870913142870338</v>
+      </c>
+      <c r="D30">
+        <v>1.103169834263911</v>
+      </c>
+      <c r="E30">
+        <v>0.9870913142870338</v>
+      </c>
+      <c r="F30">
+        <v>0.9593283925758731</v>
+      </c>
+      <c r="G30">
+        <v>0.9998344357189669</v>
+      </c>
+      <c r="H30">
+        <v>1.000752820393059</v>
+      </c>
+      <c r="I30">
+        <v>0.8959004395855994</v>
+      </c>
+      <c r="J30">
+        <v>1.103169834263911</v>
+      </c>
+      <c r="K30">
+        <v>1.103169834263911</v>
+      </c>
+      <c r="L30">
+        <v>0.9593283925758731</v>
+      </c>
+      <c r="M30">
+        <v>0.9732098534314535</v>
+      </c>
+      <c r="N30">
+        <v>0.9732098534314535</v>
+      </c>
+      <c r="O30">
+        <v>0.9823908424186554</v>
+      </c>
+      <c r="P30">
+        <v>1.016529847042273</v>
+      </c>
+      <c r="Q30">
+        <v>1.016529847042273</v>
+      </c>
+      <c r="R30">
+        <v>1.038189843847682</v>
+      </c>
+      <c r="S30">
+        <v>1.038189843847682</v>
+      </c>
+      <c r="T30">
+        <v>0.9910128728040739</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20">
+      <c r="A31" s="1">
+        <v>29</v>
+      </c>
+      <c r="B31" t="s">
+        <v>29</v>
+      </c>
+      <c r="C31">
         <v>1.106582592541478</v>
       </c>
-      <c r="D29">
+      <c r="D31">
         <v>1.008885408821134</v>
       </c>
-      <c r="E29">
+      <c r="E31">
         <v>1.106582592541478</v>
       </c>
-      <c r="F29">
+      <c r="F31">
         <v>0.9309738253402426</v>
       </c>
-      <c r="G29">
+      <c r="G31">
         <v>0.9506696282132797</v>
       </c>
-      <c r="H29">
+      <c r="H31">
         <v>1.158354224723915</v>
       </c>
-      <c r="I29">
+      <c r="I31">
         <v>0.6273451123785148</v>
       </c>
-      <c r="J29">
+      <c r="J31">
         <v>1.008885408821134</v>
       </c>
-      <c r="K29">
+      <c r="K31">
         <v>1.008885408821134</v>
       </c>
-      <c r="L29">
+      <c r="L31">
         <v>0.9309738253402426</v>
       </c>
-      <c r="M29">
+      <c r="M31">
         <v>1.01877820894086</v>
       </c>
-      <c r="N29">
+      <c r="N31">
         <v>1.01877820894086</v>
       </c>
-      <c r="O29">
+      <c r="O31">
         <v>1.065303547535212</v>
       </c>
-      <c r="P29">
+      <c r="P31">
         <v>1.015480608900951</v>
       </c>
-      <c r="Q29">
+      <c r="Q31">
         <v>1.015480608900951</v>
       </c>
-      <c r="R29">
+      <c r="R31">
         <v>1.013831808880997</v>
       </c>
-      <c r="S29">
+      <c r="S31">
         <v>1.013831808880997</v>
       </c>
-      <c r="T29">
+      <c r="T31">
         <v>0.9638017986697606</v>
       </c>
     </row>
